--- a/templates/ERC000038/metadata_template_ERC000038.xlsx
+++ b/templates/ERC000038/metadata_template_ERC000038.xlsx
@@ -20,11 +20,11 @@
     <definedName name="aquacultureorigin">'cv_sample'!$X$1:$X$3</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$K$1:$K$287</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="samplehealthstate">'cv_sample'!$S$1:$S$2</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
   </definedNames>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="617">
   <si>
     <t>alias</t>
   </si>
@@ -452,6 +452,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -551,6 +563,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -668,6 +698,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -675,6 +708,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -2394,10 +2430,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2438,10 +2474,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2468,7 +2504,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2488,7 +2524,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -2505,7 +2541,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -2522,7 +2558,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -2539,7 +2575,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -2556,7 +2592,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -2573,7 +2609,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -2590,7 +2626,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -2607,7 +2643,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -2624,7 +2660,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -2638,7 +2674,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -2652,7 +2688,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -2666,7 +2702,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -2680,7 +2716,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -2690,8 +2726,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -2701,8 +2740,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -2712,8 +2754,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -2723,8 +2768,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -2735,7 +2783,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -2746,7 +2794,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -2757,7 +2805,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -2768,7 +2816,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -2779,7 +2827,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -2790,7 +2838,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -2801,7 +2849,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -2812,7 +2860,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -2823,7 +2871,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -2834,7 +2882,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -2845,7 +2893,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -2856,7 +2904,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -2867,7 +2915,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -2878,7 +2926,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -2886,7 +2934,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -2894,7 +2942,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -2902,7 +2950,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -2910,7 +2958,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -2918,7 +2966,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -2926,7 +2974,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -2934,7 +2982,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -2942,7 +2990,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -2950,7 +2998,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -2958,176 +3006,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3152,27 +3240,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3195,122 +3283,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3337,204 +3425,204 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -3563,1452 +3651,1452 @@
   <sheetData>
     <row r="1" spans="11:24">
       <c r="K1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="S1" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="X1" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2" spans="11:24">
       <c r="K2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="S2" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="X2" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
     </row>
     <row r="3" spans="11:24">
       <c r="K3" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="X3" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4" spans="11:24">
       <c r="K4" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="11:24">
       <c r="K5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="11:24">
       <c r="K6" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="11:24">
       <c r="K7" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="11:24">
       <c r="K8" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="11:24">
       <c r="K9" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="11:24">
       <c r="K10" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="11:24">
       <c r="K11" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="11:24">
       <c r="K12" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="11:24">
       <c r="K13" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="11:24">
       <c r="K14" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="11:24">
       <c r="K15" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="11:24">
       <c r="K16" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="11:11">
       <c r="K17" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="11:11">
       <c r="K18" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="11:11">
       <c r="K19" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="11:11">
       <c r="K20" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="11:11">
       <c r="K21" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="11:11">
       <c r="K22" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="11:11">
       <c r="K23" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="11:11">
       <c r="K24" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="11:11">
       <c r="K25" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="11:11">
       <c r="K26" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="11:11">
       <c r="K27" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="11:11">
       <c r="K28" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="11:11">
       <c r="K29" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="11:11">
       <c r="K30" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="11:11">
       <c r="K31" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="11:11">
       <c r="K32" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="11:11">
       <c r="K33" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="11:11">
       <c r="K34" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="11:11">
       <c r="K35" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="11:11">
       <c r="K36" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="11:11">
       <c r="K37" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="11:11">
       <c r="K38" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="11:11">
       <c r="K39" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="11:11">
       <c r="K40" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="11:11">
       <c r="K41" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="11:11">
       <c r="K42" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="11:11">
       <c r="K43" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="11:11">
       <c r="K44" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="11:11">
       <c r="K45" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="11:11">
       <c r="K46" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="11:11">
       <c r="K47" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="11:11">
       <c r="K48" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="11:11">
       <c r="K49" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="11:11">
       <c r="K50" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="11:11">
       <c r="K51" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="11:11">
       <c r="K52" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="11:11">
       <c r="K53" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="11:11">
       <c r="K54" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="11:11">
       <c r="K55" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="11:11">
       <c r="K56" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="57" spans="11:11">
       <c r="K57" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="11:11">
       <c r="K58" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59" spans="11:11">
       <c r="K59" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" spans="11:11">
       <c r="K60" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="61" spans="11:11">
       <c r="K61" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="62" spans="11:11">
       <c r="K62" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="63" spans="11:11">
       <c r="K63" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="64" spans="11:11">
       <c r="K64" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="65" spans="11:11">
       <c r="K65" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="66" spans="11:11">
       <c r="K66" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67" spans="11:11">
       <c r="K67" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="68" spans="11:11">
       <c r="K68" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="69" spans="11:11">
       <c r="K69" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="70" spans="11:11">
       <c r="K70" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="71" spans="11:11">
       <c r="K71" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="72" spans="11:11">
       <c r="K72" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="73" spans="11:11">
       <c r="K73" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="74" spans="11:11">
       <c r="K74" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75" spans="11:11">
       <c r="K75" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="76" spans="11:11">
       <c r="K76" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77" spans="11:11">
       <c r="K77" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="78" spans="11:11">
       <c r="K78" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="79" spans="11:11">
       <c r="K79" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
     </row>
     <row r="80" spans="11:11">
       <c r="K80" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="81" spans="11:11">
       <c r="K81" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="82" spans="11:11">
       <c r="K82" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="83" spans="11:11">
       <c r="K83" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="84" spans="11:11">
       <c r="K84" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="85" spans="11:11">
       <c r="K85" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="86" spans="11:11">
       <c r="K86" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="87" spans="11:11">
       <c r="K87" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="88" spans="11:11">
       <c r="K88" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="89" spans="11:11">
       <c r="K89" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="90" spans="11:11">
       <c r="K90" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="91" spans="11:11">
       <c r="K91" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="92" spans="11:11">
       <c r="K92" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="93" spans="11:11">
       <c r="K93" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="94" spans="11:11">
       <c r="K94" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="95" spans="11:11">
       <c r="K95" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="96" spans="11:11">
       <c r="K96" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="97" spans="11:11">
       <c r="K97" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="98" spans="11:11">
       <c r="K98" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="99" spans="11:11">
       <c r="K99" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="100" spans="11:11">
       <c r="K100" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="101" spans="11:11">
       <c r="K101" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="102" spans="11:11">
       <c r="K102" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="103" spans="11:11">
       <c r="K103" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="104" spans="11:11">
       <c r="K104" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="105" spans="11:11">
       <c r="K105" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="106" spans="11:11">
       <c r="K106" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="107" spans="11:11">
       <c r="K107" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="108" spans="11:11">
       <c r="K108" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="109" spans="11:11">
       <c r="K109" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="110" spans="11:11">
       <c r="K110" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="111" spans="11:11">
       <c r="K111" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="112" spans="11:11">
       <c r="K112" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="113" spans="11:11">
       <c r="K113" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="114" spans="11:11">
       <c r="K114" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="115" spans="11:11">
       <c r="K115" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="116" spans="11:11">
       <c r="K116" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="117" spans="11:11">
       <c r="K117" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="118" spans="11:11">
       <c r="K118" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="119" spans="11:11">
       <c r="K119" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="120" spans="11:11">
       <c r="K120" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="121" spans="11:11">
       <c r="K121" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="122" spans="11:11">
       <c r="K122" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="123" spans="11:11">
       <c r="K123" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="124" spans="11:11">
       <c r="K124" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="125" spans="11:11">
       <c r="K125" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="126" spans="11:11">
       <c r="K126" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="127" spans="11:11">
       <c r="K127" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="128" spans="11:11">
       <c r="K128" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="129" spans="11:11">
       <c r="K129" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="130" spans="11:11">
       <c r="K130" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="131" spans="11:11">
       <c r="K131" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="132" spans="11:11">
       <c r="K132" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="133" spans="11:11">
       <c r="K133" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="134" spans="11:11">
       <c r="K134" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="135" spans="11:11">
       <c r="K135" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="136" spans="11:11">
       <c r="K136" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="137" spans="11:11">
       <c r="K137" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="138" spans="11:11">
       <c r="K138" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="139" spans="11:11">
       <c r="K139" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="140" spans="11:11">
       <c r="K140" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="141" spans="11:11">
       <c r="K141" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="142" spans="11:11">
       <c r="K142" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="143" spans="11:11">
       <c r="K143" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="144" spans="11:11">
       <c r="K144" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="145" spans="11:11">
       <c r="K145" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="146" spans="11:11">
       <c r="K146" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="147" spans="11:11">
       <c r="K147" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="148" spans="11:11">
       <c r="K148" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="149" spans="11:11">
       <c r="K149" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="150" spans="11:11">
       <c r="K150" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="151" spans="11:11">
       <c r="K151" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="152" spans="11:11">
       <c r="K152" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="153" spans="11:11">
       <c r="K153" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="154" spans="11:11">
       <c r="K154" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="155" spans="11:11">
       <c r="K155" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="156" spans="11:11">
       <c r="K156" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="157" spans="11:11">
       <c r="K157" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="158" spans="11:11">
       <c r="K158" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="159" spans="11:11">
       <c r="K159" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="160" spans="11:11">
       <c r="K160" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="161" spans="11:11">
       <c r="K161" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="162" spans="11:11">
       <c r="K162" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="163" spans="11:11">
       <c r="K163" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="164" spans="11:11">
       <c r="K164" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="165" spans="11:11">
       <c r="K165" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="166" spans="11:11">
       <c r="K166" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="167" spans="11:11">
       <c r="K167" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="168" spans="11:11">
       <c r="K168" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="169" spans="11:11">
       <c r="K169" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="170" spans="11:11">
       <c r="K170" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="171" spans="11:11">
       <c r="K171" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="172" spans="11:11">
       <c r="K172" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="173" spans="11:11">
       <c r="K173" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="174" spans="11:11">
       <c r="K174" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="175" spans="11:11">
       <c r="K175" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="176" spans="11:11">
       <c r="K176" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="177" spans="11:11">
       <c r="K177" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="178" spans="11:11">
       <c r="K178" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="179" spans="11:11">
       <c r="K179" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="180" spans="11:11">
       <c r="K180" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="181" spans="11:11">
       <c r="K181" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="182" spans="11:11">
       <c r="K182" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="183" spans="11:11">
       <c r="K183" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="184" spans="11:11">
       <c r="K184" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="185" spans="11:11">
       <c r="K185" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="186" spans="11:11">
       <c r="K186" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="187" spans="11:11">
       <c r="K187" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="188" spans="11:11">
       <c r="K188" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="189" spans="11:11">
       <c r="K189" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="190" spans="11:11">
       <c r="K190" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="191" spans="11:11">
       <c r="K191" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="192" spans="11:11">
       <c r="K192" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="193" spans="11:11">
       <c r="K193" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="194" spans="11:11">
       <c r="K194" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="195" spans="11:11">
       <c r="K195" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="196" spans="11:11">
       <c r="K196" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="197" spans="11:11">
       <c r="K197" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="198" spans="11:11">
       <c r="K198" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="199" spans="11:11">
       <c r="K199" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="200" spans="11:11">
       <c r="K200" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="201" spans="11:11">
       <c r="K201" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="202" spans="11:11">
       <c r="K202" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="203" spans="11:11">
       <c r="K203" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="204" spans="11:11">
       <c r="K204" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="205" spans="11:11">
       <c r="K205" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="206" spans="11:11">
       <c r="K206" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="207" spans="11:11">
       <c r="K207" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="208" spans="11:11">
       <c r="K208" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="209" spans="11:11">
       <c r="K209" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="210" spans="11:11">
       <c r="K210" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="211" spans="11:11">
       <c r="K211" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="212" spans="11:11">
       <c r="K212" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="213" spans="11:11">
       <c r="K213" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="214" spans="11:11">
       <c r="K214" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="215" spans="11:11">
       <c r="K215" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="216" spans="11:11">
       <c r="K216" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="217" spans="11:11">
       <c r="K217" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="218" spans="11:11">
       <c r="K218" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="219" spans="11:11">
       <c r="K219" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="220" spans="11:11">
       <c r="K220" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="221" spans="11:11">
       <c r="K221" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="222" spans="11:11">
       <c r="K222" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="223" spans="11:11">
       <c r="K223" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="224" spans="11:11">
       <c r="K224" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="225" spans="11:11">
       <c r="K225" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="226" spans="11:11">
       <c r="K226" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="227" spans="11:11">
       <c r="K227" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="228" spans="11:11">
       <c r="K228" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="229" spans="11:11">
       <c r="K229" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="230" spans="11:11">
       <c r="K230" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="231" spans="11:11">
       <c r="K231" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="232" spans="11:11">
       <c r="K232" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="233" spans="11:11">
       <c r="K233" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="234" spans="11:11">
       <c r="K234" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="235" spans="11:11">
       <c r="K235" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="236" spans="11:11">
       <c r="K236" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="237" spans="11:11">
       <c r="K237" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="238" spans="11:11">
       <c r="K238" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="239" spans="11:11">
       <c r="K239" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="240" spans="11:11">
       <c r="K240" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="241" spans="11:11">
       <c r="K241" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="242" spans="11:11">
       <c r="K242" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="243" spans="11:11">
       <c r="K243" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="244" spans="11:11">
       <c r="K244" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="245" spans="11:11">
       <c r="K245" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="246" spans="11:11">
       <c r="K246" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="247" spans="11:11">
       <c r="K247" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="248" spans="11:11">
       <c r="K248" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="249" spans="11:11">
       <c r="K249" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="250" spans="11:11">
       <c r="K250" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="251" spans="11:11">
       <c r="K251" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="252" spans="11:11">
       <c r="K252" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="253" spans="11:11">
       <c r="K253" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="254" spans="11:11">
       <c r="K254" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="255" spans="11:11">
       <c r="K255" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="256" spans="11:11">
       <c r="K256" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="257" spans="11:11">
       <c r="K257" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="258" spans="11:11">
       <c r="K258" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="259" spans="11:11">
       <c r="K259" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="260" spans="11:11">
       <c r="K260" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="261" spans="11:11">
       <c r="K261" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="262" spans="11:11">
       <c r="K262" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="263" spans="11:11">
       <c r="K263" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="264" spans="11:11">
       <c r="K264" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="265" spans="11:11">
       <c r="K265" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="266" spans="11:11">
       <c r="K266" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="267" spans="11:11">
       <c r="K267" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="268" spans="11:11">
       <c r="K268" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="269" spans="11:11">
       <c r="K269" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="270" spans="11:11">
       <c r="K270" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="271" spans="11:11">
       <c r="K271" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="272" spans="11:11">
       <c r="K272" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="273" spans="11:11">
       <c r="K273" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="274" spans="11:11">
       <c r="K274" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="275" spans="11:11">
       <c r="K275" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="276" spans="11:11">
       <c r="K276" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="277" spans="11:11">
       <c r="K277" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="278" spans="11:11">
       <c r="K278" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="279" spans="11:11">
       <c r="K279" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="280" spans="11:11">
       <c r="K280" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="281" spans="11:11">
       <c r="K281" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="282" spans="11:11">
       <c r="K282" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="283" spans="11:11">
       <c r="K283" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="284" spans="11:11">
       <c r="K284" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="285" spans="11:11">
       <c r="K285" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="286" spans="11:11">
       <c r="K286" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="287" spans="11:11">
       <c r="K287" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000038/metadata_template_ERC000038.xlsx
+++ b/templates/ERC000038/metadata_template_ERC000038.xlsx
@@ -833,22 +833,19 @@
     <t>Latitude Start</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) Latitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ##.####, decimal degrees; north= +, south= -; use wgs 84 for gps data. example: -24.6666. Units: 
-                    </t>
+    <t>(Mandatory) Latitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ##.####, decimal degrees; north= +, south= -; use wgs 84 for gps data. example: -24.6666. (Units: DD)</t>
   </si>
   <si>
     <t>Longitude Start</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) Longitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1012. Units: 
-                    </t>
+    <t>(Mandatory) Longitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1012. (Units: DD)</t>
   </si>
   <si>
     <t>Depth</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The distance below the surface of the water at which a measurement was made or a sample was collected. format: ####.##, positive below the sea surface. sdn:p06:46:ulaa for m. example: 14.71 Units: 
-                    </t>
+    <t>(Mandatory) The distance below the surface of the water at which a measurement was made or a sample was collected. format: ####.##, positive below the sea surface. sdn:p06:46:ulaa for m. example: 14.71 (Units: m)</t>
   </si>
   <si>
     <t>Sample Collection Device</t>
@@ -1832,57 +1829,49 @@
     <t>shellfish total weight</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) Total weight of shellfish including shell at the time of sampling. epifauna and epiphytes to be removed. Units: 
-                    </t>
+    <t>(Mandatory) Total weight of shellfish including shell at the time of sampling. epifauna and epiphytes to be removed. (Units: g)</t>
   </si>
   <si>
     <t>shellfish soft tissue weight</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) Total weight of all soft tissue, i.e. weight of entire organism without shell, at the time of sampling Units: 
-                    </t>
+    <t>(Mandatory) Total weight of all soft tissue, i.e. weight of entire organism without shell, at the time of sampling (Units: g)</t>
   </si>
   <si>
     <t>shell length</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) Length of shell (perpendicular to the hinge) Units: 
-                    </t>
+    <t>(Mandatory) Length of shell (perpendicular to the hinge) (Units: g)</t>
   </si>
   <si>
     <t>shell width</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) Width of shell (perpendicular angle to length) Units: 
-                    </t>
+    <t>(Mandatory) Width of shell (perpendicular angle to length) (Units: g)</t>
   </si>
   <si>
     <t>adductor weight</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) Total weight of striated muscle and smooth muscle Units: 
-                    </t>
+    <t>(Recommended) Total weight of striated muscle and smooth muscle (Units: g)</t>
   </si>
   <si>
     <t>gonad weight</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) Total weight of entire gonad tissue Units: 
-                    </t>
+    <t>(Recommended) Total weight of entire gonad tissue (Units: g)</t>
   </si>
   <si>
     <t>shell markings</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) Visible markings on outer shell Units: 
-                    </t>
+    <t>(Recommended) Visible markings on outer shell (Units: g)</t>
   </si>
   <si>
     <t>toxin burden</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) Concentration of toxins in the organism at the time of sampling Units: 
-                    </t>
+    <t>(Recommended) Concentration of toxins in the organism at the time of sampling (Units: mg)</t>
   </si>
   <si>
     <t>treatment agent</t>

--- a/templates/ERC000038/metadata_template_ERC000038.xlsx
+++ b/templates/ERC000038/metadata_template_ERC000038.xlsx
@@ -101,7 +101,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000038/metadata_template_ERC000038.xlsx
+++ b/templates/ERC000038/metadata_template_ERC000038.xlsx
@@ -17,15 +17,15 @@
     <sheet name="cv_sample" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="aquacultureorigin">'cv_sample'!$X$1:$X$3</definedName>
+    <definedName name="aquacultureorigin">'cv_sample'!$I$1:$I$3</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$K$1:$K$287</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$R$1:$R$288</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="samplehealthstate">'cv_sample'!$S$1:$S$2</definedName>
+    <definedName name="samplehealthstate">'cv_sample'!$O$1:$O$2</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="616">
   <si>
     <t>alias</t>
   </si>
@@ -842,24 +842,81 @@
     <t>(Mandatory) Longitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1012. (Units: DD)</t>
   </si>
   <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>(Mandatory) The distance below the surface of the water at which a measurement was made or a sample was collected. format: ####.##, positive below the sea surface. sdn:p06:46:ulaa for m. example: 14.71 (Units: m)</t>
-  </si>
-  <si>
-    <t>Sample Collection Device</t>
-  </si>
-  <si>
-    <t>(Optional) The sampling device(s) used for the event. example: ctd(sbe9c)/rosette with niskin bottles.</t>
-  </si>
-  <si>
     <t>Protocol Label</t>
   </si>
   <si>
     <t>(Mandatory) Identifies the protocol used to produce the sample, e.g. filtration and preservation. example: bact_nuc_w0.22-1.6.</t>
   </si>
   <si>
+    <t>sample storage conditions</t>
+  </si>
+  <si>
+    <t>(Optional) Conditions at which sample was stored, usually storage temperature, duration and location. in soil context: explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other).</t>
+  </si>
+  <si>
+    <t>AOAR - aquacultue origin aquaculture raised</t>
+  </si>
+  <si>
+    <t>WOAR - wild origin aquaculture raised</t>
+  </si>
+  <si>
+    <t>WOWR - wild origin wild raised</t>
+  </si>
+  <si>
+    <t>aquaculture origin</t>
+  </si>
+  <si>
+    <t>(Mandatory) Origin of stock and raised conditions</t>
+  </si>
+  <si>
+    <t>shellfish total weight</t>
+  </si>
+  <si>
+    <t>(Mandatory) Total weight of shellfish including shell at the time of sampling. epifauna and epiphytes to be removed. (Units: g)</t>
+  </si>
+  <si>
+    <t>shellfish soft tissue weight</t>
+  </si>
+  <si>
+    <t>(Mandatory) Total weight of all soft tissue, i.e. weight of entire organism without shell, at the time of sampling (Units: g)</t>
+  </si>
+  <si>
+    <t>shell length</t>
+  </si>
+  <si>
+    <t>(Mandatory) Length of shell (perpendicular to the hinge) (Units: g)</t>
+  </si>
+  <si>
+    <t>shell width</t>
+  </si>
+  <si>
+    <t>(Mandatory) Width of shell (perpendicular angle to length) (Units: g)</t>
+  </si>
+  <si>
+    <t>shell markings</t>
+  </si>
+  <si>
+    <t>(Recommended) Visible markings on outer shell (Units: g)</t>
+  </si>
+  <si>
+    <t>diseased</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>sample health state</t>
+  </si>
+  <si>
+    <t>(Optional) Health status of the subject at the time of sample collection</t>
+  </si>
+  <si>
+    <t>sample disease status</t>
+  </si>
+  <si>
+    <t>(Optional) List of diseases with which the subject has been diagnosed at the time of sample collection; can include multiple diagnoses; the value of the field depends on subject; e.g. charcoal rot (macrophomina phaseolina), late wilt (cephalosporium maydis)</t>
+  </si>
+  <si>
     <t>collection date</t>
   </si>
   <si>
@@ -1061,6 +1118,9 @@
     <t>Czech Republic</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Democratic Republic of the Congo</t>
   </si>
   <si>
@@ -1730,7 +1790,7 @@
     <t>geographic location (country and/or sea)</t>
   </si>
   <si>
-    <t>(Mandatory) The location the sample was collected from with the intention of sequencing, as defined by the country or sea. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
+    <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
     <t>broad-scale environmental context</t>
@@ -1769,30 +1829,6 @@
     <t>(Mandatory) Refers to the unique stage from which the sampling device has been deployed. includes platform category from sdn:l06, http://seadatanet.maris2.nl/v_bodc_vocab_v2/search.asp?lib=l06, and platform name. example: research vessel tara.</t>
   </si>
   <si>
-    <t>storage conditions (fresh/frozen/other)</t>
-  </si>
-  <si>
-    <t>(Optional) Explain how and for how long the soil sample was stored before dna extraction.</t>
-  </si>
-  <si>
-    <t>diseased</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>sample health state</t>
-  </si>
-  <si>
-    <t>(Optional) Health status of the subject at the time of sample collection</t>
-  </si>
-  <si>
-    <t>sample disease status</t>
-  </si>
-  <si>
-    <t>(Optional) List of diseases with which the subject has been diagnosed at the time of sample collection; can include multiple diagnoses; the value of the field depends on subject; e.g. charcoal rot (macrophomina phaseolina), late wilt (cephalosporium maydis)</t>
-  </si>
-  <si>
     <t>Marine Region</t>
   </si>
   <si>
@@ -1811,45 +1847,6 @@
     <t>(Mandatory) Age of the organism the sample was derived from.</t>
   </si>
   <si>
-    <t>AOAR - aquacultue origin aquaculture raised</t>
-  </si>
-  <si>
-    <t>WOAR - wild origin aquaculture raised</t>
-  </si>
-  <si>
-    <t>WOWR - wild origin wild raised</t>
-  </si>
-  <si>
-    <t>aquaculture origin</t>
-  </si>
-  <si>
-    <t>(Mandatory) Origin of stock and raised conditions</t>
-  </si>
-  <si>
-    <t>shellfish total weight</t>
-  </si>
-  <si>
-    <t>(Mandatory) Total weight of shellfish including shell at the time of sampling. epifauna and epiphytes to be removed. (Units: g)</t>
-  </si>
-  <si>
-    <t>shellfish soft tissue weight</t>
-  </si>
-  <si>
-    <t>(Mandatory) Total weight of all soft tissue, i.e. weight of entire organism without shell, at the time of sampling (Units: g)</t>
-  </si>
-  <si>
-    <t>shell length</t>
-  </si>
-  <si>
-    <t>(Mandatory) Length of shell (perpendicular to the hinge) (Units: g)</t>
-  </si>
-  <si>
-    <t>shell width</t>
-  </si>
-  <si>
-    <t>(Mandatory) Width of shell (perpendicular angle to length) (Units: g)</t>
-  </si>
-  <si>
     <t>adductor weight</t>
   </si>
   <si>
@@ -1862,12 +1859,6 @@
     <t>(Recommended) Total weight of entire gonad tissue (Units: g)</t>
   </si>
   <si>
-    <t>shell markings</t>
-  </si>
-  <si>
-    <t>(Recommended) Visible markings on outer shell (Units: g)</t>
-  </si>
-  <si>
     <t>toxin burden</t>
   </si>
   <si>
@@ -1884,6 +1875,12 @@
   </si>
   <si>
     <t>(Optional) A drug, solvent, chemical, etc., with a property that can be measured such as concentration (http://purl.obolibrary.org/obo/chebi_37577).</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
   </si>
 </sst>
 </file>
@@ -3397,7 +3394,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3406,7 +3403,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3432,85 +3429,82 @@
         <v>271</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>564</v>
+        <v>280</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>566</v>
+        <v>282</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>568</v>
+        <v>284</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>570</v>
+        <v>286</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>572</v>
+        <v>290</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>574</v>
+        <v>292</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>576</v>
+        <v>294</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" ht="150" customHeight="1">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>229</v>
       </c>
@@ -3536,94 +3530,91 @@
         <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>565</v>
+        <v>281</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>567</v>
+        <v>283</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>569</v>
+        <v>285</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>571</v>
+        <v>287</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>573</v>
+        <v>291</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>575</v>
+        <v>293</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>577</v>
+        <v>295</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K101">
-      <formula1>geographiclocationcountryandorsea</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I101">
+      <formula1>aquacultureorigin</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O101">
       <formula1>samplehealthstate</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X101">
-      <formula1>aquacultureorigin</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R101">
+      <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3632,1460 +3623,1465 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="K1:X287"/>
+  <dimension ref="I1:R288"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="11:24">
-      <c r="K1" t="s">
-        <v>277</v>
-      </c>
-      <c r="S1" t="s">
+    <row r="1" spans="9:18">
+      <c r="I1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O1" t="s">
+        <v>288</v>
+      </c>
+      <c r="R1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="9:18">
+      <c r="I2" t="s">
+        <v>274</v>
+      </c>
+      <c r="O2" t="s">
+        <v>289</v>
+      </c>
+      <c r="R2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="9:18">
+      <c r="I3" t="s">
+        <v>275</v>
+      </c>
+      <c r="R3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="9:18">
+      <c r="R4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="9:18">
+      <c r="R5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="9:18">
+      <c r="R6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="9:18">
+      <c r="R7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="9:18">
+      <c r="R8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="9:18">
+      <c r="R9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="9:18">
+      <c r="R10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="9:18">
+      <c r="R11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="9:18">
+      <c r="R12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="9:18">
+      <c r="R13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="9:18">
+      <c r="R14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="15" spans="9:18">
+      <c r="R15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="9:18">
+      <c r="R16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="18:18">
+      <c r="R17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="18:18">
+      <c r="R18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="18:18">
+      <c r="R19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="18:18">
+      <c r="R20" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="18:18">
+      <c r="R21" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="18:18">
+      <c r="R22" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="18:18">
+      <c r="R23" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="24" spans="18:18">
+      <c r="R24" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25" spans="18:18">
+      <c r="R25" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="18:18">
+      <c r="R26" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="27" spans="18:18">
+      <c r="R27" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="28" spans="18:18">
+      <c r="R28" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="29" spans="18:18">
+      <c r="R29" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="18:18">
+      <c r="R30" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="31" spans="18:18">
+      <c r="R31" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="32" spans="18:18">
+      <c r="R32" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="33" spans="18:18">
+      <c r="R33" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="34" spans="18:18">
+      <c r="R34" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35" spans="18:18">
+      <c r="R35" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="18:18">
+      <c r="R36" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37" spans="18:18">
+      <c r="R37" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="38" spans="18:18">
+      <c r="R38" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39" spans="18:18">
+      <c r="R39" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="40" spans="18:18">
+      <c r="R40" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="41" spans="18:18">
+      <c r="R41" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="42" spans="18:18">
+      <c r="R42" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="43" spans="18:18">
+      <c r="R43" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="44" spans="18:18">
+      <c r="R44" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="45" spans="18:18">
+      <c r="R45" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="46" spans="18:18">
+      <c r="R46" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="47" spans="18:18">
+      <c r="R47" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="48" spans="18:18">
+      <c r="R48" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="49" spans="18:18">
+      <c r="R49" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="50" spans="18:18">
+      <c r="R50" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="51" spans="18:18">
+      <c r="R51" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="52" spans="18:18">
+      <c r="R52" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="53" spans="18:18">
+      <c r="R53" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="54" spans="18:18">
+      <c r="R54" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="55" spans="18:18">
+      <c r="R55" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="56" spans="18:18">
+      <c r="R56" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="57" spans="18:18">
+      <c r="R57" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="58" spans="18:18">
+      <c r="R58" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="59" spans="18:18">
+      <c r="R59" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="60" spans="18:18">
+      <c r="R60" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="61" spans="18:18">
+      <c r="R61" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="62" spans="18:18">
+      <c r="R62" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="63" spans="18:18">
+      <c r="R63" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="64" spans="18:18">
+      <c r="R64" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="65" spans="18:18">
+      <c r="R65" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="66" spans="18:18">
+      <c r="R66" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="67" spans="18:18">
+      <c r="R67" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="68" spans="18:18">
+      <c r="R68" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="69" spans="18:18">
+      <c r="R69" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="70" spans="18:18">
+      <c r="R70" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="71" spans="18:18">
+      <c r="R71" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="72" spans="18:18">
+      <c r="R72" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="73" spans="18:18">
+      <c r="R73" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="74" spans="18:18">
+      <c r="R74" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="75" spans="18:18">
+      <c r="R75" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="76" spans="18:18">
+      <c r="R76" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="77" spans="18:18">
+      <c r="R77" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="78" spans="18:18">
+      <c r="R78" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="79" spans="18:18">
+      <c r="R79" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="80" spans="18:18">
+      <c r="R80" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="81" spans="18:18">
+      <c r="R81" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="82" spans="18:18">
+      <c r="R82" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="83" spans="18:18">
+      <c r="R83" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="84" spans="18:18">
+      <c r="R84" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="85" spans="18:18">
+      <c r="R85" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="86" spans="18:18">
+      <c r="R86" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="87" spans="18:18">
+      <c r="R87" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="88" spans="18:18">
+      <c r="R88" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="89" spans="18:18">
+      <c r="R89" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="90" spans="18:18">
+      <c r="R90" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="91" spans="18:18">
+      <c r="R91" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="92" spans="18:18">
+      <c r="R92" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="93" spans="18:18">
+      <c r="R93" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="94" spans="18:18">
+      <c r="R94" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="95" spans="18:18">
+      <c r="R95" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="96" spans="18:18">
+      <c r="R96" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="97" spans="18:18">
+      <c r="R97" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="98" spans="18:18">
+      <c r="R98" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="99" spans="18:18">
+      <c r="R99" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="100" spans="18:18">
+      <c r="R100" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="101" spans="18:18">
+      <c r="R101" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="102" spans="18:18">
+      <c r="R102" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="103" spans="18:18">
+      <c r="R103" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="104" spans="18:18">
+      <c r="R104" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="105" spans="18:18">
+      <c r="R105" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="106" spans="18:18">
+      <c r="R106" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="107" spans="18:18">
+      <c r="R107" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="108" spans="18:18">
+      <c r="R108" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="109" spans="18:18">
+      <c r="R109" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="110" spans="18:18">
+      <c r="R110" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="111" spans="18:18">
+      <c r="R111" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="112" spans="18:18">
+      <c r="R112" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="113" spans="18:18">
+      <c r="R113" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="114" spans="18:18">
+      <c r="R114" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="115" spans="18:18">
+      <c r="R115" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="116" spans="18:18">
+      <c r="R116" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="117" spans="18:18">
+      <c r="R117" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="118" spans="18:18">
+      <c r="R118" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="119" spans="18:18">
+      <c r="R119" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="120" spans="18:18">
+      <c r="R120" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="121" spans="18:18">
+      <c r="R121" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="122" spans="18:18">
+      <c r="R122" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="123" spans="18:18">
+      <c r="R123" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="124" spans="18:18">
+      <c r="R124" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="125" spans="18:18">
+      <c r="R125" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="126" spans="18:18">
+      <c r="R126" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="127" spans="18:18">
+      <c r="R127" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="128" spans="18:18">
+      <c r="R128" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="129" spans="18:18">
+      <c r="R129" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="130" spans="18:18">
+      <c r="R130" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="131" spans="18:18">
+      <c r="R131" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="132" spans="18:18">
+      <c r="R132" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="133" spans="18:18">
+      <c r="R133" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="134" spans="18:18">
+      <c r="R134" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="135" spans="18:18">
+      <c r="R135" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="136" spans="18:18">
+      <c r="R136" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="137" spans="18:18">
+      <c r="R137" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="138" spans="18:18">
+      <c r="R138" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="139" spans="18:18">
+      <c r="R139" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="140" spans="18:18">
+      <c r="R140" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="141" spans="18:18">
+      <c r="R141" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="142" spans="18:18">
+      <c r="R142" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="143" spans="18:18">
+      <c r="R143" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="144" spans="18:18">
+      <c r="R144" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="145" spans="18:18">
+      <c r="R145" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="146" spans="18:18">
+      <c r="R146" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="147" spans="18:18">
+      <c r="R147" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="148" spans="18:18">
+      <c r="R148" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="149" spans="18:18">
+      <c r="R149" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="150" spans="18:18">
+      <c r="R150" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="151" spans="18:18">
+      <c r="R151" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="152" spans="18:18">
+      <c r="R152" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="153" spans="18:18">
+      <c r="R153" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="154" spans="18:18">
+      <c r="R154" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="155" spans="18:18">
+      <c r="R155" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="156" spans="18:18">
+      <c r="R156" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="157" spans="18:18">
+      <c r="R157" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="158" spans="18:18">
+      <c r="R158" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="159" spans="18:18">
+      <c r="R159" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="160" spans="18:18">
+      <c r="R160" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="161" spans="18:18">
+      <c r="R161" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="162" spans="18:18">
+      <c r="R162" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="163" spans="18:18">
+      <c r="R163" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="164" spans="18:18">
+      <c r="R164" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="165" spans="18:18">
+      <c r="R165" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="166" spans="18:18">
+      <c r="R166" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="167" spans="18:18">
+      <c r="R167" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="168" spans="18:18">
+      <c r="R168" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="169" spans="18:18">
+      <c r="R169" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="170" spans="18:18">
+      <c r="R170" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="171" spans="18:18">
+      <c r="R171" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="172" spans="18:18">
+      <c r="R172" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="173" spans="18:18">
+      <c r="R173" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="174" spans="18:18">
+      <c r="R174" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="175" spans="18:18">
+      <c r="R175" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="176" spans="18:18">
+      <c r="R176" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="177" spans="18:18">
+      <c r="R177" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="178" spans="18:18">
+      <c r="R178" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="179" spans="18:18">
+      <c r="R179" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="180" spans="18:18">
+      <c r="R180" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="181" spans="18:18">
+      <c r="R181" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="182" spans="18:18">
+      <c r="R182" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="183" spans="18:18">
+      <c r="R183" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="184" spans="18:18">
+      <c r="R184" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="185" spans="18:18">
+      <c r="R185" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="186" spans="18:18">
+      <c r="R186" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="187" spans="18:18">
+      <c r="R187" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="188" spans="18:18">
+      <c r="R188" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="189" spans="18:18">
+      <c r="R189" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="190" spans="18:18">
+      <c r="R190" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="191" spans="18:18">
+      <c r="R191" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="192" spans="18:18">
+      <c r="R192" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="193" spans="18:18">
+      <c r="R193" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="194" spans="18:18">
+      <c r="R194" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="195" spans="18:18">
+      <c r="R195" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="196" spans="18:18">
+      <c r="R196" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="197" spans="18:18">
+      <c r="R197" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="198" spans="18:18">
+      <c r="R198" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="199" spans="18:18">
+      <c r="R199" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="200" spans="18:18">
+      <c r="R200" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="201" spans="18:18">
+      <c r="R201" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="202" spans="18:18">
+      <c r="R202" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="203" spans="18:18">
+      <c r="R203" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="204" spans="18:18">
+      <c r="R204" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="205" spans="18:18">
+      <c r="R205" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="206" spans="18:18">
+      <c r="R206" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="207" spans="18:18">
+      <c r="R207" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="208" spans="18:18">
+      <c r="R208" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="209" spans="18:18">
+      <c r="R209" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="210" spans="18:18">
+      <c r="R210" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="211" spans="18:18">
+      <c r="R211" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="212" spans="18:18">
+      <c r="R212" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="213" spans="18:18">
+      <c r="R213" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="214" spans="18:18">
+      <c r="R214" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="215" spans="18:18">
+      <c r="R215" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="216" spans="18:18">
+      <c r="R216" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="217" spans="18:18">
+      <c r="R217" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="218" spans="18:18">
+      <c r="R218" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="219" spans="18:18">
+      <c r="R219" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="220" spans="18:18">
+      <c r="R220" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="221" spans="18:18">
+      <c r="R221" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="222" spans="18:18">
+      <c r="R222" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="223" spans="18:18">
+      <c r="R223" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="224" spans="18:18">
+      <c r="R224" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="225" spans="18:18">
+      <c r="R225" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="226" spans="18:18">
+      <c r="R226" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="227" spans="18:18">
+      <c r="R227" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="228" spans="18:18">
+      <c r="R228" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="229" spans="18:18">
+      <c r="R229" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="230" spans="18:18">
+      <c r="R230" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="231" spans="18:18">
+      <c r="R231" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="232" spans="18:18">
+      <c r="R232" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="233" spans="18:18">
+      <c r="R233" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="234" spans="18:18">
+      <c r="R234" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="235" spans="18:18">
+      <c r="R235" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="236" spans="18:18">
+      <c r="R236" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="237" spans="18:18">
+      <c r="R237" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="238" spans="18:18">
+      <c r="R238" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="239" spans="18:18">
+      <c r="R239" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="240" spans="18:18">
+      <c r="R240" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="241" spans="18:18">
+      <c r="R241" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="242" spans="18:18">
+      <c r="R242" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="243" spans="18:18">
+      <c r="R243" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="244" spans="18:18">
+      <c r="R244" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="245" spans="18:18">
+      <c r="R245" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="246" spans="18:18">
+      <c r="R246" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="247" spans="18:18">
+      <c r="R247" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="248" spans="18:18">
+      <c r="R248" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="249" spans="18:18">
+      <c r="R249" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="250" spans="18:18">
+      <c r="R250" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="251" spans="18:18">
+      <c r="R251" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="252" spans="18:18">
+      <c r="R252" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="253" spans="18:18">
+      <c r="R253" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="254" spans="18:18">
+      <c r="R254" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="255" spans="18:18">
+      <c r="R255" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="256" spans="18:18">
+      <c r="R256" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="257" spans="18:18">
+      <c r="R257" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="258" spans="18:18">
+      <c r="R258" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="259" spans="18:18">
+      <c r="R259" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="260" spans="18:18">
+      <c r="R260" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="261" spans="18:18">
+      <c r="R261" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="262" spans="18:18">
+      <c r="R262" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="263" spans="18:18">
+      <c r="R263" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="264" spans="18:18">
+      <c r="R264" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="265" spans="18:18">
+      <c r="R265" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="266" spans="18:18">
+      <c r="R266" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="267" spans="18:18">
+      <c r="R267" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="268" spans="18:18">
+      <c r="R268" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="269" spans="18:18">
+      <c r="R269" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="270" spans="18:18">
+      <c r="R270" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="271" spans="18:18">
+      <c r="R271" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="272" spans="18:18">
+      <c r="R272" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="273" spans="18:18">
+      <c r="R273" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="274" spans="18:18">
+      <c r="R274" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="275" spans="18:18">
+      <c r="R275" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="276" spans="18:18">
+      <c r="R276" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="277" spans="18:18">
+      <c r="R277" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="278" spans="18:18">
+      <c r="R278" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="279" spans="18:18">
+      <c r="R279" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="280" spans="18:18">
+      <c r="R280" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="281" spans="18:18">
+      <c r="R281" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="282" spans="18:18">
+      <c r="R282" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="283" spans="18:18">
+      <c r="R283" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="284" spans="18:18">
+      <c r="R284" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="285" spans="18:18">
+      <c r="R285" t="s">
         <v>580</v>
       </c>
-      <c r="X1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="2" spans="11:24">
-      <c r="K2" t="s">
-        <v>278</v>
-      </c>
-      <c r="S2" t="s">
+    </row>
+    <row r="286" spans="18:18">
+      <c r="R286" t="s">
         <v>581</v>
       </c>
-      <c r="X2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="3" spans="11:24">
-      <c r="K3" t="s">
-        <v>279</v>
-      </c>
-      <c r="X3" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="4" spans="11:24">
-      <c r="K4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="11:24">
-      <c r="K5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="6" spans="11:24">
-      <c r="K6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="7" spans="11:24">
-      <c r="K7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="8" spans="11:24">
-      <c r="K8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="9" spans="11:24">
-      <c r="K9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="11:24">
-      <c r="K10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" spans="11:24">
-      <c r="K11" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="12" spans="11:24">
-      <c r="K12" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="13" spans="11:24">
-      <c r="K13" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="14" spans="11:24">
-      <c r="K14" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="15" spans="11:24">
-      <c r="K15" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="16" spans="11:24">
-      <c r="K16" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="17" spans="11:11">
-      <c r="K17" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="18" spans="11:11">
-      <c r="K18" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="19" spans="11:11">
-      <c r="K19" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="20" spans="11:11">
-      <c r="K20" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="21" spans="11:11">
-      <c r="K21" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="22" spans="11:11">
-      <c r="K22" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="23" spans="11:11">
-      <c r="K23" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="24" spans="11:11">
-      <c r="K24" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" spans="11:11">
-      <c r="K25" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="26" spans="11:11">
-      <c r="K26" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="27" spans="11:11">
-      <c r="K27" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="28" spans="11:11">
-      <c r="K28" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="29" spans="11:11">
-      <c r="K29" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="30" spans="11:11">
-      <c r="K30" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="31" spans="11:11">
-      <c r="K31" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="32" spans="11:11">
-      <c r="K32" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="33" spans="11:11">
-      <c r="K33" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="34" spans="11:11">
-      <c r="K34" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="35" spans="11:11">
-      <c r="K35" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="36" spans="11:11">
-      <c r="K36" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="37" spans="11:11">
-      <c r="K37" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="38" spans="11:11">
-      <c r="K38" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="39" spans="11:11">
-      <c r="K39" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="40" spans="11:11">
-      <c r="K40" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="41" spans="11:11">
-      <c r="K41" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="42" spans="11:11">
-      <c r="K42" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="43" spans="11:11">
-      <c r="K43" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="44" spans="11:11">
-      <c r="K44" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="45" spans="11:11">
-      <c r="K45" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="46" spans="11:11">
-      <c r="K46" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="47" spans="11:11">
-      <c r="K47" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="48" spans="11:11">
-      <c r="K48" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="49" spans="11:11">
-      <c r="K49" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="50" spans="11:11">
-      <c r="K50" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="51" spans="11:11">
-      <c r="K51" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="52" spans="11:11">
-      <c r="K52" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="53" spans="11:11">
-      <c r="K53" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="54" spans="11:11">
-      <c r="K54" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="55" spans="11:11">
-      <c r="K55" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="56" spans="11:11">
-      <c r="K56" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="57" spans="11:11">
-      <c r="K57" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="58" spans="11:11">
-      <c r="K58" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="59" spans="11:11">
-      <c r="K59" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="60" spans="11:11">
-      <c r="K60" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="61" spans="11:11">
-      <c r="K61" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="62" spans="11:11">
-      <c r="K62" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="63" spans="11:11">
-      <c r="K63" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="64" spans="11:11">
-      <c r="K64" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="65" spans="11:11">
-      <c r="K65" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="66" spans="11:11">
-      <c r="K66" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="67" spans="11:11">
-      <c r="K67" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="68" spans="11:11">
-      <c r="K68" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="69" spans="11:11">
-      <c r="K69" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="70" spans="11:11">
-      <c r="K70" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="71" spans="11:11">
-      <c r="K71" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="72" spans="11:11">
-      <c r="K72" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="73" spans="11:11">
-      <c r="K73" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="74" spans="11:11">
-      <c r="K74" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="75" spans="11:11">
-      <c r="K75" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="76" spans="11:11">
-      <c r="K76" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="77" spans="11:11">
-      <c r="K77" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="78" spans="11:11">
-      <c r="K78" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="79" spans="11:11">
-      <c r="K79" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="80" spans="11:11">
-      <c r="K80" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="81" spans="11:11">
-      <c r="K81" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="82" spans="11:11">
-      <c r="K82" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="83" spans="11:11">
-      <c r="K83" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="84" spans="11:11">
-      <c r="K84" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="85" spans="11:11">
-      <c r="K85" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="86" spans="11:11">
-      <c r="K86" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="87" spans="11:11">
-      <c r="K87" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="88" spans="11:11">
-      <c r="K88" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="89" spans="11:11">
-      <c r="K89" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="90" spans="11:11">
-      <c r="K90" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="91" spans="11:11">
-      <c r="K91" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="92" spans="11:11">
-      <c r="K92" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="93" spans="11:11">
-      <c r="K93" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="94" spans="11:11">
-      <c r="K94" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="95" spans="11:11">
-      <c r="K95" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="96" spans="11:11">
-      <c r="K96" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="97" spans="11:11">
-      <c r="K97" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="98" spans="11:11">
-      <c r="K98" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="99" spans="11:11">
-      <c r="K99" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="100" spans="11:11">
-      <c r="K100" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="101" spans="11:11">
-      <c r="K101" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="102" spans="11:11">
-      <c r="K102" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="103" spans="11:11">
-      <c r="K103" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="104" spans="11:11">
-      <c r="K104" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="105" spans="11:11">
-      <c r="K105" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="106" spans="11:11">
-      <c r="K106" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="107" spans="11:11">
-      <c r="K107" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="108" spans="11:11">
-      <c r="K108" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="109" spans="11:11">
-      <c r="K109" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="110" spans="11:11">
-      <c r="K110" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="111" spans="11:11">
-      <c r="K111" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="112" spans="11:11">
-      <c r="K112" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="113" spans="11:11">
-      <c r="K113" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="114" spans="11:11">
-      <c r="K114" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="115" spans="11:11">
-      <c r="K115" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="116" spans="11:11">
-      <c r="K116" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="117" spans="11:11">
-      <c r="K117" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="118" spans="11:11">
-      <c r="K118" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="119" spans="11:11">
-      <c r="K119" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="120" spans="11:11">
-      <c r="K120" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="121" spans="11:11">
-      <c r="K121" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="122" spans="11:11">
-      <c r="K122" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="123" spans="11:11">
-      <c r="K123" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="124" spans="11:11">
-      <c r="K124" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="125" spans="11:11">
-      <c r="K125" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="126" spans="11:11">
-      <c r="K126" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="127" spans="11:11">
-      <c r="K127" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="128" spans="11:11">
-      <c r="K128" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="129" spans="11:11">
-      <c r="K129" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="130" spans="11:11">
-      <c r="K130" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="131" spans="11:11">
-      <c r="K131" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="132" spans="11:11">
-      <c r="K132" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="133" spans="11:11">
-      <c r="K133" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="134" spans="11:11">
-      <c r="K134" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="135" spans="11:11">
-      <c r="K135" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="136" spans="11:11">
-      <c r="K136" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="137" spans="11:11">
-      <c r="K137" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="138" spans="11:11">
-      <c r="K138" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="139" spans="11:11">
-      <c r="K139" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="140" spans="11:11">
-      <c r="K140" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="141" spans="11:11">
-      <c r="K141" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="142" spans="11:11">
-      <c r="K142" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="143" spans="11:11">
-      <c r="K143" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="144" spans="11:11">
-      <c r="K144" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="145" spans="11:11">
-      <c r="K145" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="146" spans="11:11">
-      <c r="K146" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="147" spans="11:11">
-      <c r="K147" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="148" spans="11:11">
-      <c r="K148" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="149" spans="11:11">
-      <c r="K149" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="150" spans="11:11">
-      <c r="K150" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="151" spans="11:11">
-      <c r="K151" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="152" spans="11:11">
-      <c r="K152" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="153" spans="11:11">
-      <c r="K153" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="154" spans="11:11">
-      <c r="K154" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="155" spans="11:11">
-      <c r="K155" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="156" spans="11:11">
-      <c r="K156" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="157" spans="11:11">
-      <c r="K157" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="158" spans="11:11">
-      <c r="K158" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="159" spans="11:11">
-      <c r="K159" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="160" spans="11:11">
-      <c r="K160" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="161" spans="11:11">
-      <c r="K161" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="162" spans="11:11">
-      <c r="K162" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="163" spans="11:11">
-      <c r="K163" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="164" spans="11:11">
-      <c r="K164" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="165" spans="11:11">
-      <c r="K165" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="166" spans="11:11">
-      <c r="K166" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="167" spans="11:11">
-      <c r="K167" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="168" spans="11:11">
-      <c r="K168" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="169" spans="11:11">
-      <c r="K169" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="170" spans="11:11">
-      <c r="K170" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="171" spans="11:11">
-      <c r="K171" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="172" spans="11:11">
-      <c r="K172" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="173" spans="11:11">
-      <c r="K173" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="174" spans="11:11">
-      <c r="K174" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="175" spans="11:11">
-      <c r="K175" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="176" spans="11:11">
-      <c r="K176" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="177" spans="11:11">
-      <c r="K177" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="178" spans="11:11">
-      <c r="K178" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="179" spans="11:11">
-      <c r="K179" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="180" spans="11:11">
-      <c r="K180" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="181" spans="11:11">
-      <c r="K181" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="182" spans="11:11">
-      <c r="K182" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="183" spans="11:11">
-      <c r="K183" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="184" spans="11:11">
-      <c r="K184" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="185" spans="11:11">
-      <c r="K185" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="186" spans="11:11">
-      <c r="K186" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="187" spans="11:11">
-      <c r="K187" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="188" spans="11:11">
-      <c r="K188" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="189" spans="11:11">
-      <c r="K189" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="190" spans="11:11">
-      <c r="K190" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="191" spans="11:11">
-      <c r="K191" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="192" spans="11:11">
-      <c r="K192" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="193" spans="11:11">
-      <c r="K193" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="194" spans="11:11">
-      <c r="K194" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="195" spans="11:11">
-      <c r="K195" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="196" spans="11:11">
-      <c r="K196" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="197" spans="11:11">
-      <c r="K197" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="198" spans="11:11">
-      <c r="K198" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="199" spans="11:11">
-      <c r="K199" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="200" spans="11:11">
-      <c r="K200" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="201" spans="11:11">
-      <c r="K201" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="202" spans="11:11">
-      <c r="K202" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="203" spans="11:11">
-      <c r="K203" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="204" spans="11:11">
-      <c r="K204" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="205" spans="11:11">
-      <c r="K205" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="206" spans="11:11">
-      <c r="K206" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="207" spans="11:11">
-      <c r="K207" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="208" spans="11:11">
-      <c r="K208" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="209" spans="11:11">
-      <c r="K209" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="210" spans="11:11">
-      <c r="K210" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="211" spans="11:11">
-      <c r="K211" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="212" spans="11:11">
-      <c r="K212" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="213" spans="11:11">
-      <c r="K213" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="214" spans="11:11">
-      <c r="K214" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="215" spans="11:11">
-      <c r="K215" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="216" spans="11:11">
-      <c r="K216" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="217" spans="11:11">
-      <c r="K217" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="218" spans="11:11">
-      <c r="K218" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="219" spans="11:11">
-      <c r="K219" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="220" spans="11:11">
-      <c r="K220" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="221" spans="11:11">
-      <c r="K221" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="222" spans="11:11">
-      <c r="K222" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="223" spans="11:11">
-      <c r="K223" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="224" spans="11:11">
-      <c r="K224" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="225" spans="11:11">
-      <c r="K225" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="226" spans="11:11">
-      <c r="K226" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="227" spans="11:11">
-      <c r="K227" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="228" spans="11:11">
-      <c r="K228" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="229" spans="11:11">
-      <c r="K229" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="230" spans="11:11">
-      <c r="K230" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="231" spans="11:11">
-      <c r="K231" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="232" spans="11:11">
-      <c r="K232" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="233" spans="11:11">
-      <c r="K233" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="234" spans="11:11">
-      <c r="K234" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="235" spans="11:11">
-      <c r="K235" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="236" spans="11:11">
-      <c r="K236" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="237" spans="11:11">
-      <c r="K237" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="238" spans="11:11">
-      <c r="K238" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="239" spans="11:11">
-      <c r="K239" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="240" spans="11:11">
-      <c r="K240" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="241" spans="11:11">
-      <c r="K241" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="242" spans="11:11">
-      <c r="K242" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="243" spans="11:11">
-      <c r="K243" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="244" spans="11:11">
-      <c r="K244" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="245" spans="11:11">
-      <c r="K245" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="246" spans="11:11">
-      <c r="K246" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="247" spans="11:11">
-      <c r="K247" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="248" spans="11:11">
-      <c r="K248" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="249" spans="11:11">
-      <c r="K249" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="250" spans="11:11">
-      <c r="K250" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="251" spans="11:11">
-      <c r="K251" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="252" spans="11:11">
-      <c r="K252" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="253" spans="11:11">
-      <c r="K253" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="254" spans="11:11">
-      <c r="K254" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="255" spans="11:11">
-      <c r="K255" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="256" spans="11:11">
-      <c r="K256" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="257" spans="11:11">
-      <c r="K257" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="258" spans="11:11">
-      <c r="K258" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="259" spans="11:11">
-      <c r="K259" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="260" spans="11:11">
-      <c r="K260" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="261" spans="11:11">
-      <c r="K261" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="262" spans="11:11">
-      <c r="K262" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="263" spans="11:11">
-      <c r="K263" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="264" spans="11:11">
-      <c r="K264" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="265" spans="11:11">
-      <c r="K265" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="266" spans="11:11">
-      <c r="K266" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="267" spans="11:11">
-      <c r="K267" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="268" spans="11:11">
-      <c r="K268" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="269" spans="11:11">
-      <c r="K269" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="270" spans="11:11">
-      <c r="K270" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="271" spans="11:11">
-      <c r="K271" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="272" spans="11:11">
-      <c r="K272" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="273" spans="11:11">
-      <c r="K273" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="274" spans="11:11">
-      <c r="K274" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="275" spans="11:11">
-      <c r="K275" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="276" spans="11:11">
-      <c r="K276" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="277" spans="11:11">
-      <c r="K277" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="278" spans="11:11">
-      <c r="K278" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="279" spans="11:11">
-      <c r="K279" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="280" spans="11:11">
-      <c r="K280" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="281" spans="11:11">
-      <c r="K281" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="282" spans="11:11">
-      <c r="K282" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="283" spans="11:11">
-      <c r="K283" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="284" spans="11:11">
-      <c r="K284" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="285" spans="11:11">
-      <c r="K285" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="286" spans="11:11">
-      <c r="K286" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="287" spans="11:11">
-      <c r="K287" t="s">
-        <v>563</v>
+    </row>
+    <row r="287" spans="18:18">
+      <c r="R287" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="288" spans="18:18">
+      <c r="R288" t="s">
+        <v>583</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000038/metadata_template_ERC000038.xlsx
+++ b/templates/ERC000038/metadata_template_ERC000038.xlsx
@@ -1115,10 +1115,10 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Czechia</t>
   </si>
   <si>
     <t>Democratic Republic of the Congo</t>

--- a/templates/ERC000038/metadata_template_ERC000038.xlsx
+++ b/templates/ERC000038/metadata_template_ERC000038.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="617">
   <si>
     <t>alias</t>
   </si>
@@ -813,6 +813,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -3411,198 +3414,198 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -3631,1457 +3634,1457 @@
   <sheetData>
     <row r="1" spans="9:18">
       <c r="I1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="9:18">
       <c r="I2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="9:18">
       <c r="I3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="R3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="9:18">
       <c r="R4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="9:18">
       <c r="R5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="9:18">
       <c r="R6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="9:18">
       <c r="R7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="9:18">
       <c r="R8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="9:18">
       <c r="R9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="9:18">
       <c r="R10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="9:18">
       <c r="R11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="9:18">
       <c r="R12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="9:18">
       <c r="R13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="9:18">
       <c r="R14" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="9:18">
       <c r="R15" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="9:18">
       <c r="R16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="18:18">
       <c r="R17" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="18:18">
       <c r="R18" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="18:18">
       <c r="R19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="18:18">
       <c r="R20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="18:18">
       <c r="R21" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="18:18">
       <c r="R22" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="18:18">
       <c r="R23" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="18:18">
       <c r="R24" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="18:18">
       <c r="R25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="18:18">
       <c r="R26" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="18:18">
       <c r="R27" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="18:18">
       <c r="R28" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="18:18">
       <c r="R29" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="18:18">
       <c r="R30" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="18:18">
       <c r="R31" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="18:18">
       <c r="R32" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="18:18">
       <c r="R33" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="18:18">
       <c r="R34" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="18:18">
       <c r="R35" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="18:18">
       <c r="R36" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="18:18">
       <c r="R37" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="18:18">
       <c r="R38" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="18:18">
       <c r="R39" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="18:18">
       <c r="R40" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="18:18">
       <c r="R41" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="18:18">
       <c r="R42" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="18:18">
       <c r="R43" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="18:18">
       <c r="R44" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="18:18">
       <c r="R45" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="18:18">
       <c r="R46" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="18:18">
       <c r="R47" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="18:18">
       <c r="R48" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="18:18">
       <c r="R49" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50" spans="18:18">
       <c r="R50" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51" spans="18:18">
       <c r="R51" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52" spans="18:18">
       <c r="R52" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53" spans="18:18">
       <c r="R53" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="18:18">
       <c r="R54" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" spans="18:18">
       <c r="R55" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56" spans="18:18">
       <c r="R56" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="57" spans="18:18">
       <c r="R57" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="58" spans="18:18">
       <c r="R58" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="59" spans="18:18">
       <c r="R59" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60" spans="18:18">
       <c r="R60" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="61" spans="18:18">
       <c r="R61" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="62" spans="18:18">
       <c r="R62" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="63" spans="18:18">
       <c r="R63" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="64" spans="18:18">
       <c r="R64" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="65" spans="18:18">
       <c r="R65" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="66" spans="18:18">
       <c r="R66" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="67" spans="18:18">
       <c r="R67" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="68" spans="18:18">
       <c r="R68" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="69" spans="18:18">
       <c r="R69" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="70" spans="18:18">
       <c r="R70" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="71" spans="18:18">
       <c r="R71" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="72" spans="18:18">
       <c r="R72" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="73" spans="18:18">
       <c r="R73" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="74" spans="18:18">
       <c r="R74" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75" spans="18:18">
       <c r="R75" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="76" spans="18:18">
       <c r="R76" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="77" spans="18:18">
       <c r="R77" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="78" spans="18:18">
       <c r="R78" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="79" spans="18:18">
       <c r="R79" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="80" spans="18:18">
       <c r="R80" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="81" spans="18:18">
       <c r="R81" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="82" spans="18:18">
       <c r="R82" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="83" spans="18:18">
       <c r="R83" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="84" spans="18:18">
       <c r="R84" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="85" spans="18:18">
       <c r="R85" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="86" spans="18:18">
       <c r="R86" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="87" spans="18:18">
       <c r="R87" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="88" spans="18:18">
       <c r="R88" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="89" spans="18:18">
       <c r="R89" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="90" spans="18:18">
       <c r="R90" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="91" spans="18:18">
       <c r="R91" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92" spans="18:18">
       <c r="R92" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="93" spans="18:18">
       <c r="R93" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="94" spans="18:18">
       <c r="R94" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="95" spans="18:18">
       <c r="R95" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="96" spans="18:18">
       <c r="R96" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="97" spans="18:18">
       <c r="R97" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="98" spans="18:18">
       <c r="R98" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="99" spans="18:18">
       <c r="R99" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="100" spans="18:18">
       <c r="R100" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="101" spans="18:18">
       <c r="R101" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="102" spans="18:18">
       <c r="R102" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="103" spans="18:18">
       <c r="R103" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="104" spans="18:18">
       <c r="R104" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="105" spans="18:18">
       <c r="R105" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="106" spans="18:18">
       <c r="R106" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="107" spans="18:18">
       <c r="R107" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="108" spans="18:18">
       <c r="R108" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="109" spans="18:18">
       <c r="R109" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="110" spans="18:18">
       <c r="R110" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="111" spans="18:18">
       <c r="R111" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="112" spans="18:18">
       <c r="R112" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="113" spans="18:18">
       <c r="R113" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="114" spans="18:18">
       <c r="R114" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="115" spans="18:18">
       <c r="R115" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="116" spans="18:18">
       <c r="R116" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="117" spans="18:18">
       <c r="R117" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="118" spans="18:18">
       <c r="R118" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="119" spans="18:18">
       <c r="R119" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="120" spans="18:18">
       <c r="R120" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="121" spans="18:18">
       <c r="R121" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="122" spans="18:18">
       <c r="R122" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="123" spans="18:18">
       <c r="R123" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="124" spans="18:18">
       <c r="R124" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="125" spans="18:18">
       <c r="R125" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="126" spans="18:18">
       <c r="R126" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="127" spans="18:18">
       <c r="R127" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="128" spans="18:18">
       <c r="R128" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="129" spans="18:18">
       <c r="R129" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="130" spans="18:18">
       <c r="R130" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="131" spans="18:18">
       <c r="R131" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="132" spans="18:18">
       <c r="R132" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="133" spans="18:18">
       <c r="R133" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="134" spans="18:18">
       <c r="R134" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="135" spans="18:18">
       <c r="R135" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="136" spans="18:18">
       <c r="R136" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="137" spans="18:18">
       <c r="R137" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="138" spans="18:18">
       <c r="R138" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="139" spans="18:18">
       <c r="R139" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="140" spans="18:18">
       <c r="R140" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="141" spans="18:18">
       <c r="R141" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="142" spans="18:18">
       <c r="R142" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="143" spans="18:18">
       <c r="R143" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="144" spans="18:18">
       <c r="R144" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="145" spans="18:18">
       <c r="R145" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="146" spans="18:18">
       <c r="R146" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="147" spans="18:18">
       <c r="R147" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="148" spans="18:18">
       <c r="R148" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="149" spans="18:18">
       <c r="R149" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="150" spans="18:18">
       <c r="R150" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="151" spans="18:18">
       <c r="R151" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="152" spans="18:18">
       <c r="R152" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="153" spans="18:18">
       <c r="R153" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="154" spans="18:18">
       <c r="R154" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="155" spans="18:18">
       <c r="R155" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="156" spans="18:18">
       <c r="R156" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="157" spans="18:18">
       <c r="R157" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="158" spans="18:18">
       <c r="R158" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="159" spans="18:18">
       <c r="R159" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="160" spans="18:18">
       <c r="R160" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="161" spans="18:18">
       <c r="R161" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="162" spans="18:18">
       <c r="R162" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="163" spans="18:18">
       <c r="R163" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="164" spans="18:18">
       <c r="R164" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="165" spans="18:18">
       <c r="R165" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="166" spans="18:18">
       <c r="R166" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="167" spans="18:18">
       <c r="R167" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="168" spans="18:18">
       <c r="R168" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="169" spans="18:18">
       <c r="R169" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="170" spans="18:18">
       <c r="R170" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="171" spans="18:18">
       <c r="R171" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="172" spans="18:18">
       <c r="R172" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="173" spans="18:18">
       <c r="R173" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="174" spans="18:18">
       <c r="R174" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="175" spans="18:18">
       <c r="R175" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="176" spans="18:18">
       <c r="R176" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="177" spans="18:18">
       <c r="R177" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="178" spans="18:18">
       <c r="R178" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="179" spans="18:18">
       <c r="R179" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="180" spans="18:18">
       <c r="R180" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="181" spans="18:18">
       <c r="R181" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="182" spans="18:18">
       <c r="R182" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="183" spans="18:18">
       <c r="R183" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="184" spans="18:18">
       <c r="R184" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="185" spans="18:18">
       <c r="R185" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="186" spans="18:18">
       <c r="R186" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="187" spans="18:18">
       <c r="R187" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="188" spans="18:18">
       <c r="R188" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="189" spans="18:18">
       <c r="R189" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="190" spans="18:18">
       <c r="R190" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="191" spans="18:18">
       <c r="R191" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="192" spans="18:18">
       <c r="R192" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="193" spans="18:18">
       <c r="R193" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="194" spans="18:18">
       <c r="R194" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="195" spans="18:18">
       <c r="R195" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="196" spans="18:18">
       <c r="R196" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="197" spans="18:18">
       <c r="R197" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="198" spans="18:18">
       <c r="R198" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="199" spans="18:18">
       <c r="R199" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="200" spans="18:18">
       <c r="R200" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="201" spans="18:18">
       <c r="R201" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="202" spans="18:18">
       <c r="R202" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="203" spans="18:18">
       <c r="R203" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="204" spans="18:18">
       <c r="R204" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="205" spans="18:18">
       <c r="R205" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="206" spans="18:18">
       <c r="R206" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="207" spans="18:18">
       <c r="R207" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="208" spans="18:18">
       <c r="R208" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="209" spans="18:18">
       <c r="R209" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="210" spans="18:18">
       <c r="R210" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="211" spans="18:18">
       <c r="R211" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="212" spans="18:18">
       <c r="R212" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="213" spans="18:18">
       <c r="R213" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="214" spans="18:18">
       <c r="R214" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="215" spans="18:18">
       <c r="R215" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="216" spans="18:18">
       <c r="R216" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="217" spans="18:18">
       <c r="R217" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="218" spans="18:18">
       <c r="R218" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="219" spans="18:18">
       <c r="R219" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="220" spans="18:18">
       <c r="R220" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="221" spans="18:18">
       <c r="R221" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="222" spans="18:18">
       <c r="R222" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="223" spans="18:18">
       <c r="R223" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="224" spans="18:18">
       <c r="R224" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="225" spans="18:18">
       <c r="R225" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="226" spans="18:18">
       <c r="R226" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="227" spans="18:18">
       <c r="R227" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="228" spans="18:18">
       <c r="R228" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="229" spans="18:18">
       <c r="R229" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="230" spans="18:18">
       <c r="R230" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="231" spans="18:18">
       <c r="R231" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="232" spans="18:18">
       <c r="R232" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="233" spans="18:18">
       <c r="R233" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="234" spans="18:18">
       <c r="R234" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="235" spans="18:18">
       <c r="R235" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="236" spans="18:18">
       <c r="R236" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="237" spans="18:18">
       <c r="R237" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="238" spans="18:18">
       <c r="R238" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="239" spans="18:18">
       <c r="R239" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="240" spans="18:18">
       <c r="R240" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="241" spans="18:18">
       <c r="R241" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="242" spans="18:18">
       <c r="R242" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="243" spans="18:18">
       <c r="R243" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="244" spans="18:18">
       <c r="R244" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="245" spans="18:18">
       <c r="R245" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="246" spans="18:18">
       <c r="R246" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="247" spans="18:18">
       <c r="R247" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="248" spans="18:18">
       <c r="R248" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="249" spans="18:18">
       <c r="R249" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="250" spans="18:18">
       <c r="R250" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="251" spans="18:18">
       <c r="R251" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="252" spans="18:18">
       <c r="R252" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="253" spans="18:18">
       <c r="R253" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="254" spans="18:18">
       <c r="R254" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="255" spans="18:18">
       <c r="R255" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="256" spans="18:18">
       <c r="R256" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="257" spans="18:18">
       <c r="R257" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="258" spans="18:18">
       <c r="R258" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="259" spans="18:18">
       <c r="R259" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="260" spans="18:18">
       <c r="R260" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="261" spans="18:18">
       <c r="R261" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="262" spans="18:18">
       <c r="R262" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="263" spans="18:18">
       <c r="R263" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="264" spans="18:18">
       <c r="R264" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="265" spans="18:18">
       <c r="R265" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="266" spans="18:18">
       <c r="R266" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="267" spans="18:18">
       <c r="R267" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="268" spans="18:18">
       <c r="R268" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="269" spans="18:18">
       <c r="R269" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="270" spans="18:18">
       <c r="R270" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="271" spans="18:18">
       <c r="R271" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="272" spans="18:18">
       <c r="R272" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="273" spans="18:18">
       <c r="R273" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="274" spans="18:18">
       <c r="R274" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="275" spans="18:18">
       <c r="R275" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="276" spans="18:18">
       <c r="R276" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="277" spans="18:18">
       <c r="R277" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="278" spans="18:18">
       <c r="R278" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="279" spans="18:18">
       <c r="R279" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="280" spans="18:18">
       <c r="R280" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="281" spans="18:18">
       <c r="R281" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="282" spans="18:18">
       <c r="R282" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="283" spans="18:18">
       <c r="R283" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="284" spans="18:18">
       <c r="R284" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="285" spans="18:18">
       <c r="R285" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="286" spans="18:18">
       <c r="R286" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="287" spans="18:18">
       <c r="R287" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="288" spans="18:18">
       <c r="R288" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000038/metadata_template_ERC000038.xlsx
+++ b/templates/ERC000038/metadata_template_ERC000038.xlsx
@@ -113,7 +113,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -131,7 +131,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000038/metadata_template_ERC000038.xlsx
+++ b/templates/ERC000038/metadata_template_ERC000038.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="aquacultureorigin">'cv_sample'!$I$1:$I$3</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$R$1:$R$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AD$1:$AD$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="618">
   <si>
     <t>alias</t>
   </si>
@@ -926,6 +926,78 @@
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
+    <t>broad-scale environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>local environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>environmental medium</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
+  </si>
+  <si>
+    <t>Sampling Campaign</t>
+  </si>
+  <si>
+    <t>(Mandatory) Refers to a finite or indefinite activity aiming at collecting data/samples, e.g. a cruise, a time series, a mesocosm experiment. example: tara_20110401z.</t>
+  </si>
+  <si>
+    <t>Sampling Station</t>
+  </si>
+  <si>
+    <t>(Mandatory) Refers to the site/station where data/sample collection is performed. example: tara_100.</t>
+  </si>
+  <si>
+    <t>Sampling Platform</t>
+  </si>
+  <si>
+    <t>(Mandatory) Refers to the unique stage from which the sampling device has been deployed. includes platform category from sdn:l06, http://seadatanet.maris2.nl/v_bodc_vocab_v2/search.asp?lib=l06, and platform name. example: research vessel tara.</t>
+  </si>
+  <si>
+    <t>Marine Region</t>
+  </si>
+  <si>
+    <t>(Recommended) The geographical origin of the sample as defined by the marine region name chosen from the marine regions vocabulary at http://www.marineregions.org/. example: aegean sea.</t>
+  </si>
+  <si>
+    <t>seabed habitat</t>
+  </si>
+  <si>
+    <t>(Mandatory) Classification of the seabed where the organism has been found; for european seabed habitats please use terms from http://eunis.eea.europa.eu/habitats-code-browser.jsp; example: b3.4 : soft sea-cliffs, often vegetated</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>(Mandatory) Age of the organism the sample was derived from.</t>
+  </si>
+  <si>
+    <t>adductor weight</t>
+  </si>
+  <si>
+    <t>(Recommended) Total weight of striated muscle and smooth muscle (Units: g)</t>
+  </si>
+  <si>
+    <t>gonad weight</t>
+  </si>
+  <si>
+    <t>(Recommended) Total weight of entire gonad tissue (Units: g)</t>
+  </si>
+  <si>
+    <t>toxin burden</t>
+  </si>
+  <si>
+    <t>(Recommended) Concentration of toxins in the organism at the time of sampling (Units: mg)</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1754,6 +1826,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -1794,78 +1869,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>broad-scale environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>local environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>environmental medium</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
-  </si>
-  <si>
-    <t>Sampling Campaign</t>
-  </si>
-  <si>
-    <t>(Mandatory) Refers to a finite or indefinite activity aiming at collecting data/samples, e.g. a cruise, a time series, a mesocosm experiment. example: tara_20110401z.</t>
-  </si>
-  <si>
-    <t>Sampling Station</t>
-  </si>
-  <si>
-    <t>(Mandatory) Refers to the site/station where data/sample collection is performed. example: tara_100.</t>
-  </si>
-  <si>
-    <t>Sampling Platform</t>
-  </si>
-  <si>
-    <t>(Mandatory) Refers to the unique stage from which the sampling device has been deployed. includes platform category from sdn:l06, http://seadatanet.maris2.nl/v_bodc_vocab_v2/search.asp?lib=l06, and platform name. example: research vessel tara.</t>
-  </si>
-  <si>
-    <t>Marine Region</t>
-  </si>
-  <si>
-    <t>(Recommended) The geographical origin of the sample as defined by the marine region name chosen from the marine regions vocabulary at http://www.marineregions.org/. example: aegean sea.</t>
-  </si>
-  <si>
-    <t>seabed habitat</t>
-  </si>
-  <si>
-    <t>(Mandatory) Classification of the seabed where the organism has been found; for european seabed habitats please use terms from http://eunis.eea.europa.eu/habitats-code-browser.jsp; example: b3.4 : soft sea-cliffs, often vegetated</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>(Mandatory) Age of the organism the sample was derived from.</t>
-  </si>
-  <si>
-    <t>adductor weight</t>
-  </si>
-  <si>
-    <t>(Recommended) Total weight of striated muscle and smooth muscle (Units: g)</t>
-  </si>
-  <si>
-    <t>gonad weight</t>
-  </si>
-  <si>
-    <t>(Recommended) Total weight of entire gonad tissue (Units: g)</t>
-  </si>
-  <si>
-    <t>toxin burden</t>
-  </si>
-  <si>
-    <t>(Recommended) Concentration of toxins in the organism at the time of sampling (Units: mg)</t>
   </si>
   <si>
     <t>treatment agent</t>
@@ -3459,52 +3462,52 @@
         <v>295</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>585</v>
+        <v>297</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>587</v>
+        <v>299</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>589</v>
+        <v>301</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>591</v>
+        <v>303</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>593</v>
+        <v>305</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>595</v>
+        <v>307</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>597</v>
+        <v>309</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>599</v>
+        <v>311</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>601</v>
+        <v>313</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>603</v>
+        <v>315</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>605</v>
+        <v>317</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>607</v>
+        <v>319</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="150" customHeight="1">
@@ -3560,52 +3563,52 @@
         <v>296</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>586</v>
+        <v>298</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>588</v>
+        <v>300</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>590</v>
+        <v>302</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>592</v>
+        <v>304</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>594</v>
+        <v>306</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>596</v>
+        <v>308</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>598</v>
+        <v>310</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>600</v>
+        <v>312</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>602</v>
+        <v>314</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>604</v>
+        <v>316</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>606</v>
+        <v>318</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>608</v>
+        <v>320</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -3616,7 +3619,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O101">
       <formula1>samplehealthstate</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3:AD101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
@@ -3626,1465 +3629,1470 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="I1:R288"/>
+  <dimension ref="I1:AD289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="9:18">
+    <row r="1" spans="9:30">
       <c r="I1" t="s">
         <v>274</v>
       </c>
       <c r="O1" t="s">
         <v>289</v>
       </c>
-      <c r="R1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" spans="9:18">
+      <c r="AD1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="9:30">
       <c r="I2" t="s">
         <v>275</v>
       </c>
       <c r="O2" t="s">
         <v>290</v>
       </c>
-      <c r="R2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="3" spans="9:18">
+      <c r="AD2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="9:30">
       <c r="I3" t="s">
         <v>276</v>
       </c>
-      <c r="R3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="9:18">
-      <c r="R4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="9:18">
-      <c r="R5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="6" spans="9:18">
-      <c r="R6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" spans="9:18">
-      <c r="R7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="8" spans="9:18">
-      <c r="R8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" spans="9:18">
-      <c r="R9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="10" spans="9:18">
-      <c r="R10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="11" spans="9:18">
-      <c r="R11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="9:18">
-      <c r="R12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="13" spans="9:18">
-      <c r="R13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="14" spans="9:18">
-      <c r="R14" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="15" spans="9:18">
-      <c r="R15" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="16" spans="9:18">
-      <c r="R16" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="17" spans="18:18">
-      <c r="R17" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="18" spans="18:18">
-      <c r="R18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="19" spans="18:18">
-      <c r="R19" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="20" spans="18:18">
-      <c r="R20" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="21" spans="18:18">
-      <c r="R21" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="22" spans="18:18">
-      <c r="R22" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="23" spans="18:18">
-      <c r="R23" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="24" spans="18:18">
-      <c r="R24" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="25" spans="18:18">
-      <c r="R25" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="26" spans="18:18">
-      <c r="R26" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="27" spans="18:18">
-      <c r="R27" t="s">
+      <c r="AD3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="18:18">
-      <c r="R28" t="s">
+    <row r="4" spans="9:30">
+      <c r="AD4" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="18:18">
-      <c r="R29" t="s">
+    <row r="5" spans="9:30">
+      <c r="AD5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="30" spans="18:18">
-      <c r="R30" t="s">
+    <row r="6" spans="9:30">
+      <c r="AD6" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="31" spans="18:18">
-      <c r="R31" t="s">
+    <row r="7" spans="9:30">
+      <c r="AD7" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="32" spans="18:18">
-      <c r="R32" t="s">
+    <row r="8" spans="9:30">
+      <c r="AD8" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="33" spans="18:18">
-      <c r="R33" t="s">
+    <row r="9" spans="9:30">
+      <c r="AD9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="34" spans="18:18">
-      <c r="R34" t="s">
+    <row r="10" spans="9:30">
+      <c r="AD10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="35" spans="18:18">
-      <c r="R35" t="s">
+    <row r="11" spans="9:30">
+      <c r="AD11" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="36" spans="18:18">
-      <c r="R36" t="s">
+    <row r="12" spans="9:30">
+      <c r="AD12" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="37" spans="18:18">
-      <c r="R37" t="s">
+    <row r="13" spans="9:30">
+      <c r="AD13" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="38" spans="18:18">
-      <c r="R38" t="s">
+    <row r="14" spans="9:30">
+      <c r="AD14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="39" spans="18:18">
-      <c r="R39" t="s">
+    <row r="15" spans="9:30">
+      <c r="AD15" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="40" spans="18:18">
-      <c r="R40" t="s">
+    <row r="16" spans="9:30">
+      <c r="AD16" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="41" spans="18:18">
-      <c r="R41" t="s">
+    <row r="17" spans="30:30">
+      <c r="AD17" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="42" spans="18:18">
-      <c r="R42" t="s">
+    <row r="18" spans="30:30">
+      <c r="AD18" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="43" spans="18:18">
-      <c r="R43" t="s">
+    <row r="19" spans="30:30">
+      <c r="AD19" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="44" spans="18:18">
-      <c r="R44" t="s">
+    <row r="20" spans="30:30">
+      <c r="AD20" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="45" spans="18:18">
-      <c r="R45" t="s">
+    <row r="21" spans="30:30">
+      <c r="AD21" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="46" spans="18:18">
-      <c r="R46" t="s">
+    <row r="22" spans="30:30">
+      <c r="AD22" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="47" spans="18:18">
-      <c r="R47" t="s">
+    <row r="23" spans="30:30">
+      <c r="AD23" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="48" spans="18:18">
-      <c r="R48" t="s">
+    <row r="24" spans="30:30">
+      <c r="AD24" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="49" spans="18:18">
-      <c r="R49" t="s">
+    <row r="25" spans="30:30">
+      <c r="AD25" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="50" spans="18:18">
-      <c r="R50" t="s">
+    <row r="26" spans="30:30">
+      <c r="AD26" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="51" spans="18:18">
-      <c r="R51" t="s">
+    <row r="27" spans="30:30">
+      <c r="AD27" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="52" spans="18:18">
-      <c r="R52" t="s">
+    <row r="28" spans="30:30">
+      <c r="AD28" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="53" spans="18:18">
-      <c r="R53" t="s">
+    <row r="29" spans="30:30">
+      <c r="AD29" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="54" spans="18:18">
-      <c r="R54" t="s">
+    <row r="30" spans="30:30">
+      <c r="AD30" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="55" spans="18:18">
-      <c r="R55" t="s">
+    <row r="31" spans="30:30">
+      <c r="AD31" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="56" spans="18:18">
-      <c r="R56" t="s">
+    <row r="32" spans="30:30">
+      <c r="AD32" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="57" spans="18:18">
-      <c r="R57" t="s">
+    <row r="33" spans="30:30">
+      <c r="AD33" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="58" spans="18:18">
-      <c r="R58" t="s">
+    <row r="34" spans="30:30">
+      <c r="AD34" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="59" spans="18:18">
-      <c r="R59" t="s">
+    <row r="35" spans="30:30">
+      <c r="AD35" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="60" spans="18:18">
-      <c r="R60" t="s">
+    <row r="36" spans="30:30">
+      <c r="AD36" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="61" spans="18:18">
-      <c r="R61" t="s">
+    <row r="37" spans="30:30">
+      <c r="AD37" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="62" spans="18:18">
-      <c r="R62" t="s">
+    <row r="38" spans="30:30">
+      <c r="AD38" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="63" spans="18:18">
-      <c r="R63" t="s">
+    <row r="39" spans="30:30">
+      <c r="AD39" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="64" spans="18:18">
-      <c r="R64" t="s">
+    <row r="40" spans="30:30">
+      <c r="AD40" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="65" spans="18:18">
-      <c r="R65" t="s">
+    <row r="41" spans="30:30">
+      <c r="AD41" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="66" spans="18:18">
-      <c r="R66" t="s">
+    <row r="42" spans="30:30">
+      <c r="AD42" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="67" spans="18:18">
-      <c r="R67" t="s">
+    <row r="43" spans="30:30">
+      <c r="AD43" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="68" spans="18:18">
-      <c r="R68" t="s">
+    <row r="44" spans="30:30">
+      <c r="AD44" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="69" spans="18:18">
-      <c r="R69" t="s">
+    <row r="45" spans="30:30">
+      <c r="AD45" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="70" spans="18:18">
-      <c r="R70" t="s">
+    <row r="46" spans="30:30">
+      <c r="AD46" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="71" spans="18:18">
-      <c r="R71" t="s">
+    <row r="47" spans="30:30">
+      <c r="AD47" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="72" spans="18:18">
-      <c r="R72" t="s">
+    <row r="48" spans="30:30">
+      <c r="AD48" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="73" spans="18:18">
-      <c r="R73" t="s">
+    <row r="49" spans="30:30">
+      <c r="AD49" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="74" spans="18:18">
-      <c r="R74" t="s">
+    <row r="50" spans="30:30">
+      <c r="AD50" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="75" spans="18:18">
-      <c r="R75" t="s">
+    <row r="51" spans="30:30">
+      <c r="AD51" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="76" spans="18:18">
-      <c r="R76" t="s">
+    <row r="52" spans="30:30">
+      <c r="AD52" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="77" spans="18:18">
-      <c r="R77" t="s">
+    <row r="53" spans="30:30">
+      <c r="AD53" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="78" spans="18:18">
-      <c r="R78" t="s">
+    <row r="54" spans="30:30">
+      <c r="AD54" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="79" spans="18:18">
-      <c r="R79" t="s">
+    <row r="55" spans="30:30">
+      <c r="AD55" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="80" spans="18:18">
-      <c r="R80" t="s">
+    <row r="56" spans="30:30">
+      <c r="AD56" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="81" spans="18:18">
-      <c r="R81" t="s">
+    <row r="57" spans="30:30">
+      <c r="AD57" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="82" spans="18:18">
-      <c r="R82" t="s">
+    <row r="58" spans="30:30">
+      <c r="AD58" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="83" spans="18:18">
-      <c r="R83" t="s">
+    <row r="59" spans="30:30">
+      <c r="AD59" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="84" spans="18:18">
-      <c r="R84" t="s">
+    <row r="60" spans="30:30">
+      <c r="AD60" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="85" spans="18:18">
-      <c r="R85" t="s">
+    <row r="61" spans="30:30">
+      <c r="AD61" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="86" spans="18:18">
-      <c r="R86" t="s">
+    <row r="62" spans="30:30">
+      <c r="AD62" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="87" spans="18:18">
-      <c r="R87" t="s">
+    <row r="63" spans="30:30">
+      <c r="AD63" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="88" spans="18:18">
-      <c r="R88" t="s">
+    <row r="64" spans="30:30">
+      <c r="AD64" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="89" spans="18:18">
-      <c r="R89" t="s">
+    <row r="65" spans="30:30">
+      <c r="AD65" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="90" spans="18:18">
-      <c r="R90" t="s">
+    <row r="66" spans="30:30">
+      <c r="AD66" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="91" spans="18:18">
-      <c r="R91" t="s">
+    <row r="67" spans="30:30">
+      <c r="AD67" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="92" spans="18:18">
-      <c r="R92" t="s">
+    <row r="68" spans="30:30">
+      <c r="AD68" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="93" spans="18:18">
-      <c r="R93" t="s">
+    <row r="69" spans="30:30">
+      <c r="AD69" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="94" spans="18:18">
-      <c r="R94" t="s">
+    <row r="70" spans="30:30">
+      <c r="AD70" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="95" spans="18:18">
-      <c r="R95" t="s">
+    <row r="71" spans="30:30">
+      <c r="AD71" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="96" spans="18:18">
-      <c r="R96" t="s">
+    <row r="72" spans="30:30">
+      <c r="AD72" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="97" spans="18:18">
-      <c r="R97" t="s">
+    <row r="73" spans="30:30">
+      <c r="AD73" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="98" spans="18:18">
-      <c r="R98" t="s">
+    <row r="74" spans="30:30">
+      <c r="AD74" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="99" spans="18:18">
-      <c r="R99" t="s">
+    <row r="75" spans="30:30">
+      <c r="AD75" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="100" spans="18:18">
-      <c r="R100" t="s">
+    <row r="76" spans="30:30">
+      <c r="AD76" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="101" spans="18:18">
-      <c r="R101" t="s">
+    <row r="77" spans="30:30">
+      <c r="AD77" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="102" spans="18:18">
-      <c r="R102" t="s">
+    <row r="78" spans="30:30">
+      <c r="AD78" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="103" spans="18:18">
-      <c r="R103" t="s">
+    <row r="79" spans="30:30">
+      <c r="AD79" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="104" spans="18:18">
-      <c r="R104" t="s">
+    <row r="80" spans="30:30">
+      <c r="AD80" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="105" spans="18:18">
-      <c r="R105" t="s">
+    <row r="81" spans="30:30">
+      <c r="AD81" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="106" spans="18:18">
-      <c r="R106" t="s">
+    <row r="82" spans="30:30">
+      <c r="AD82" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="107" spans="18:18">
-      <c r="R107" t="s">
+    <row r="83" spans="30:30">
+      <c r="AD83" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="108" spans="18:18">
-      <c r="R108" t="s">
+    <row r="84" spans="30:30">
+      <c r="AD84" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="109" spans="18:18">
-      <c r="R109" t="s">
+    <row r="85" spans="30:30">
+      <c r="AD85" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="110" spans="18:18">
-      <c r="R110" t="s">
+    <row r="86" spans="30:30">
+      <c r="AD86" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="111" spans="18:18">
-      <c r="R111" t="s">
+    <row r="87" spans="30:30">
+      <c r="AD87" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="112" spans="18:18">
-      <c r="R112" t="s">
+    <row r="88" spans="30:30">
+      <c r="AD88" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="113" spans="18:18">
-      <c r="R113" t="s">
+    <row r="89" spans="30:30">
+      <c r="AD89" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="114" spans="18:18">
-      <c r="R114" t="s">
+    <row r="90" spans="30:30">
+      <c r="AD90" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="115" spans="18:18">
-      <c r="R115" t="s">
+    <row r="91" spans="30:30">
+      <c r="AD91" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="116" spans="18:18">
-      <c r="R116" t="s">
+    <row r="92" spans="30:30">
+      <c r="AD92" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="117" spans="18:18">
-      <c r="R117" t="s">
+    <row r="93" spans="30:30">
+      <c r="AD93" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="118" spans="18:18">
-      <c r="R118" t="s">
+    <row r="94" spans="30:30">
+      <c r="AD94" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="119" spans="18:18">
-      <c r="R119" t="s">
+    <row r="95" spans="30:30">
+      <c r="AD95" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="120" spans="18:18">
-      <c r="R120" t="s">
+    <row r="96" spans="30:30">
+      <c r="AD96" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="121" spans="18:18">
-      <c r="R121" t="s">
+    <row r="97" spans="30:30">
+      <c r="AD97" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="122" spans="18:18">
-      <c r="R122" t="s">
+    <row r="98" spans="30:30">
+      <c r="AD98" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="123" spans="18:18">
-      <c r="R123" t="s">
+    <row r="99" spans="30:30">
+      <c r="AD99" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="124" spans="18:18">
-      <c r="R124" t="s">
+    <row r="100" spans="30:30">
+      <c r="AD100" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="125" spans="18:18">
-      <c r="R125" t="s">
+    <row r="101" spans="30:30">
+      <c r="AD101" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="126" spans="18:18">
-      <c r="R126" t="s">
+    <row r="102" spans="30:30">
+      <c r="AD102" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="127" spans="18:18">
-      <c r="R127" t="s">
+    <row r="103" spans="30:30">
+      <c r="AD103" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="128" spans="18:18">
-      <c r="R128" t="s">
+    <row r="104" spans="30:30">
+      <c r="AD104" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="129" spans="18:18">
-      <c r="R129" t="s">
+    <row r="105" spans="30:30">
+      <c r="AD105" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="130" spans="18:18">
-      <c r="R130" t="s">
+    <row r="106" spans="30:30">
+      <c r="AD106" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="131" spans="18:18">
-      <c r="R131" t="s">
+    <row r="107" spans="30:30">
+      <c r="AD107" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="132" spans="18:18">
-      <c r="R132" t="s">
+    <row r="108" spans="30:30">
+      <c r="AD108" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="133" spans="18:18">
-      <c r="R133" t="s">
+    <row r="109" spans="30:30">
+      <c r="AD109" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="134" spans="18:18">
-      <c r="R134" t="s">
+    <row r="110" spans="30:30">
+      <c r="AD110" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="135" spans="18:18">
-      <c r="R135" t="s">
+    <row r="111" spans="30:30">
+      <c r="AD111" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="136" spans="18:18">
-      <c r="R136" t="s">
+    <row r="112" spans="30:30">
+      <c r="AD112" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="137" spans="18:18">
-      <c r="R137" t="s">
+    <row r="113" spans="30:30">
+      <c r="AD113" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="138" spans="18:18">
-      <c r="R138" t="s">
+    <row r="114" spans="30:30">
+      <c r="AD114" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="139" spans="18:18">
-      <c r="R139" t="s">
+    <row r="115" spans="30:30">
+      <c r="AD115" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="140" spans="18:18">
-      <c r="R140" t="s">
+    <row r="116" spans="30:30">
+      <c r="AD116" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="141" spans="18:18">
-      <c r="R141" t="s">
+    <row r="117" spans="30:30">
+      <c r="AD117" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="142" spans="18:18">
-      <c r="R142" t="s">
+    <row r="118" spans="30:30">
+      <c r="AD118" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="143" spans="18:18">
-      <c r="R143" t="s">
+    <row r="119" spans="30:30">
+      <c r="AD119" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="144" spans="18:18">
-      <c r="R144" t="s">
+    <row r="120" spans="30:30">
+      <c r="AD120" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="145" spans="18:18">
-      <c r="R145" t="s">
+    <row r="121" spans="30:30">
+      <c r="AD121" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="146" spans="18:18">
-      <c r="R146" t="s">
+    <row r="122" spans="30:30">
+      <c r="AD122" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="147" spans="18:18">
-      <c r="R147" t="s">
+    <row r="123" spans="30:30">
+      <c r="AD123" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="148" spans="18:18">
-      <c r="R148" t="s">
+    <row r="124" spans="30:30">
+      <c r="AD124" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="149" spans="18:18">
-      <c r="R149" t="s">
+    <row r="125" spans="30:30">
+      <c r="AD125" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="150" spans="18:18">
-      <c r="R150" t="s">
+    <row r="126" spans="30:30">
+      <c r="AD126" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="151" spans="18:18">
-      <c r="R151" t="s">
+    <row r="127" spans="30:30">
+      <c r="AD127" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="152" spans="18:18">
-      <c r="R152" t="s">
+    <row r="128" spans="30:30">
+      <c r="AD128" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="153" spans="18:18">
-      <c r="R153" t="s">
+    <row r="129" spans="30:30">
+      <c r="AD129" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="154" spans="18:18">
-      <c r="R154" t="s">
+    <row r="130" spans="30:30">
+      <c r="AD130" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="155" spans="18:18">
-      <c r="R155" t="s">
+    <row r="131" spans="30:30">
+      <c r="AD131" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="156" spans="18:18">
-      <c r="R156" t="s">
+    <row r="132" spans="30:30">
+      <c r="AD132" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="157" spans="18:18">
-      <c r="R157" t="s">
+    <row r="133" spans="30:30">
+      <c r="AD133" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="158" spans="18:18">
-      <c r="R158" t="s">
+    <row r="134" spans="30:30">
+      <c r="AD134" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="159" spans="18:18">
-      <c r="R159" t="s">
+    <row r="135" spans="30:30">
+      <c r="AD135" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="160" spans="18:18">
-      <c r="R160" t="s">
+    <row r="136" spans="30:30">
+      <c r="AD136" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="161" spans="18:18">
-      <c r="R161" t="s">
+    <row r="137" spans="30:30">
+      <c r="AD137" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="162" spans="18:18">
-      <c r="R162" t="s">
+    <row r="138" spans="30:30">
+      <c r="AD138" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="163" spans="18:18">
-      <c r="R163" t="s">
+    <row r="139" spans="30:30">
+      <c r="AD139" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="164" spans="18:18">
-      <c r="R164" t="s">
+    <row r="140" spans="30:30">
+      <c r="AD140" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="165" spans="18:18">
-      <c r="R165" t="s">
+    <row r="141" spans="30:30">
+      <c r="AD141" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="166" spans="18:18">
-      <c r="R166" t="s">
+    <row r="142" spans="30:30">
+      <c r="AD142" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="167" spans="18:18">
-      <c r="R167" t="s">
+    <row r="143" spans="30:30">
+      <c r="AD143" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="168" spans="18:18">
-      <c r="R168" t="s">
+    <row r="144" spans="30:30">
+      <c r="AD144" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="169" spans="18:18">
-      <c r="R169" t="s">
+    <row r="145" spans="30:30">
+      <c r="AD145" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="170" spans="18:18">
-      <c r="R170" t="s">
+    <row r="146" spans="30:30">
+      <c r="AD146" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="171" spans="18:18">
-      <c r="R171" t="s">
+    <row r="147" spans="30:30">
+      <c r="AD147" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="172" spans="18:18">
-      <c r="R172" t="s">
+    <row r="148" spans="30:30">
+      <c r="AD148" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="173" spans="18:18">
-      <c r="R173" t="s">
+    <row r="149" spans="30:30">
+      <c r="AD149" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="174" spans="18:18">
-      <c r="R174" t="s">
+    <row r="150" spans="30:30">
+      <c r="AD150" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="175" spans="18:18">
-      <c r="R175" t="s">
+    <row r="151" spans="30:30">
+      <c r="AD151" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="176" spans="18:18">
-      <c r="R176" t="s">
+    <row r="152" spans="30:30">
+      <c r="AD152" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="177" spans="18:18">
-      <c r="R177" t="s">
+    <row r="153" spans="30:30">
+      <c r="AD153" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="178" spans="18:18">
-      <c r="R178" t="s">
+    <row r="154" spans="30:30">
+      <c r="AD154" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="179" spans="18:18">
-      <c r="R179" t="s">
+    <row r="155" spans="30:30">
+      <c r="AD155" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="180" spans="18:18">
-      <c r="R180" t="s">
+    <row r="156" spans="30:30">
+      <c r="AD156" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="181" spans="18:18">
-      <c r="R181" t="s">
+    <row r="157" spans="30:30">
+      <c r="AD157" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="182" spans="18:18">
-      <c r="R182" t="s">
+    <row r="158" spans="30:30">
+      <c r="AD158" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="183" spans="18:18">
-      <c r="R183" t="s">
+    <row r="159" spans="30:30">
+      <c r="AD159" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="184" spans="18:18">
-      <c r="R184" t="s">
+    <row r="160" spans="30:30">
+      <c r="AD160" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="185" spans="18:18">
-      <c r="R185" t="s">
+    <row r="161" spans="30:30">
+      <c r="AD161" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="186" spans="18:18">
-      <c r="R186" t="s">
+    <row r="162" spans="30:30">
+      <c r="AD162" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="187" spans="18:18">
-      <c r="R187" t="s">
+    <row r="163" spans="30:30">
+      <c r="AD163" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="188" spans="18:18">
-      <c r="R188" t="s">
+    <row r="164" spans="30:30">
+      <c r="AD164" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="189" spans="18:18">
-      <c r="R189" t="s">
+    <row r="165" spans="30:30">
+      <c r="AD165" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="190" spans="18:18">
-      <c r="R190" t="s">
+    <row r="166" spans="30:30">
+      <c r="AD166" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="191" spans="18:18">
-      <c r="R191" t="s">
+    <row r="167" spans="30:30">
+      <c r="AD167" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="192" spans="18:18">
-      <c r="R192" t="s">
+    <row r="168" spans="30:30">
+      <c r="AD168" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="193" spans="18:18">
-      <c r="R193" t="s">
+    <row r="169" spans="30:30">
+      <c r="AD169" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="194" spans="18:18">
-      <c r="R194" t="s">
+    <row r="170" spans="30:30">
+      <c r="AD170" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="195" spans="18:18">
-      <c r="R195" t="s">
+    <row r="171" spans="30:30">
+      <c r="AD171" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="196" spans="18:18">
-      <c r="R196" t="s">
+    <row r="172" spans="30:30">
+      <c r="AD172" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="197" spans="18:18">
-      <c r="R197" t="s">
+    <row r="173" spans="30:30">
+      <c r="AD173" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="198" spans="18:18">
-      <c r="R198" t="s">
+    <row r="174" spans="30:30">
+      <c r="AD174" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="199" spans="18:18">
-      <c r="R199" t="s">
+    <row r="175" spans="30:30">
+      <c r="AD175" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="200" spans="18:18">
-      <c r="R200" t="s">
+    <row r="176" spans="30:30">
+      <c r="AD176" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="201" spans="18:18">
-      <c r="R201" t="s">
+    <row r="177" spans="30:30">
+      <c r="AD177" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="202" spans="18:18">
-      <c r="R202" t="s">
+    <row r="178" spans="30:30">
+      <c r="AD178" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="203" spans="18:18">
-      <c r="R203" t="s">
+    <row r="179" spans="30:30">
+      <c r="AD179" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="204" spans="18:18">
-      <c r="R204" t="s">
+    <row r="180" spans="30:30">
+      <c r="AD180" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="205" spans="18:18">
-      <c r="R205" t="s">
+    <row r="181" spans="30:30">
+      <c r="AD181" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="206" spans="18:18">
-      <c r="R206" t="s">
+    <row r="182" spans="30:30">
+      <c r="AD182" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="207" spans="18:18">
-      <c r="R207" t="s">
+    <row r="183" spans="30:30">
+      <c r="AD183" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="208" spans="18:18">
-      <c r="R208" t="s">
+    <row r="184" spans="30:30">
+      <c r="AD184" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="209" spans="18:18">
-      <c r="R209" t="s">
+    <row r="185" spans="30:30">
+      <c r="AD185" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="210" spans="18:18">
-      <c r="R210" t="s">
+    <row r="186" spans="30:30">
+      <c r="AD186" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="211" spans="18:18">
-      <c r="R211" t="s">
+    <row r="187" spans="30:30">
+      <c r="AD187" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="212" spans="18:18">
-      <c r="R212" t="s">
+    <row r="188" spans="30:30">
+      <c r="AD188" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="213" spans="18:18">
-      <c r="R213" t="s">
+    <row r="189" spans="30:30">
+      <c r="AD189" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="214" spans="18:18">
-      <c r="R214" t="s">
+    <row r="190" spans="30:30">
+      <c r="AD190" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="215" spans="18:18">
-      <c r="R215" t="s">
+    <row r="191" spans="30:30">
+      <c r="AD191" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="216" spans="18:18">
-      <c r="R216" t="s">
+    <row r="192" spans="30:30">
+      <c r="AD192" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="217" spans="18:18">
-      <c r="R217" t="s">
+    <row r="193" spans="30:30">
+      <c r="AD193" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="218" spans="18:18">
-      <c r="R218" t="s">
+    <row r="194" spans="30:30">
+      <c r="AD194" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="219" spans="18:18">
-      <c r="R219" t="s">
+    <row r="195" spans="30:30">
+      <c r="AD195" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="220" spans="18:18">
-      <c r="R220" t="s">
+    <row r="196" spans="30:30">
+      <c r="AD196" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="221" spans="18:18">
-      <c r="R221" t="s">
+    <row r="197" spans="30:30">
+      <c r="AD197" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="222" spans="18:18">
-      <c r="R222" t="s">
+    <row r="198" spans="30:30">
+      <c r="AD198" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="223" spans="18:18">
-      <c r="R223" t="s">
+    <row r="199" spans="30:30">
+      <c r="AD199" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="224" spans="18:18">
-      <c r="R224" t="s">
+    <row r="200" spans="30:30">
+      <c r="AD200" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="225" spans="18:18">
-      <c r="R225" t="s">
+    <row r="201" spans="30:30">
+      <c r="AD201" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="226" spans="18:18">
-      <c r="R226" t="s">
+    <row r="202" spans="30:30">
+      <c r="AD202" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="227" spans="18:18">
-      <c r="R227" t="s">
+    <row r="203" spans="30:30">
+      <c r="AD203" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="228" spans="18:18">
-      <c r="R228" t="s">
+    <row r="204" spans="30:30">
+      <c r="AD204" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="229" spans="18:18">
-      <c r="R229" t="s">
+    <row r="205" spans="30:30">
+      <c r="AD205" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="230" spans="18:18">
-      <c r="R230" t="s">
+    <row r="206" spans="30:30">
+      <c r="AD206" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="231" spans="18:18">
-      <c r="R231" t="s">
+    <row r="207" spans="30:30">
+      <c r="AD207" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="232" spans="18:18">
-      <c r="R232" t="s">
+    <row r="208" spans="30:30">
+      <c r="AD208" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="233" spans="18:18">
-      <c r="R233" t="s">
+    <row r="209" spans="30:30">
+      <c r="AD209" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="234" spans="18:18">
-      <c r="R234" t="s">
+    <row r="210" spans="30:30">
+      <c r="AD210" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="235" spans="18:18">
-      <c r="R235" t="s">
+    <row r="211" spans="30:30">
+      <c r="AD211" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="236" spans="18:18">
-      <c r="R236" t="s">
+    <row r="212" spans="30:30">
+      <c r="AD212" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="237" spans="18:18">
-      <c r="R237" t="s">
+    <row r="213" spans="30:30">
+      <c r="AD213" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="238" spans="18:18">
-      <c r="R238" t="s">
+    <row r="214" spans="30:30">
+      <c r="AD214" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="239" spans="18:18">
-      <c r="R239" t="s">
+    <row r="215" spans="30:30">
+      <c r="AD215" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="240" spans="18:18">
-      <c r="R240" t="s">
+    <row r="216" spans="30:30">
+      <c r="AD216" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="241" spans="18:18">
-      <c r="R241" t="s">
+    <row r="217" spans="30:30">
+      <c r="AD217" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="242" spans="18:18">
-      <c r="R242" t="s">
+    <row r="218" spans="30:30">
+      <c r="AD218" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="243" spans="18:18">
-      <c r="R243" t="s">
+    <row r="219" spans="30:30">
+      <c r="AD219" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="244" spans="18:18">
-      <c r="R244" t="s">
+    <row r="220" spans="30:30">
+      <c r="AD220" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="245" spans="18:18">
-      <c r="R245" t="s">
+    <row r="221" spans="30:30">
+      <c r="AD221" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="246" spans="18:18">
-      <c r="R246" t="s">
+    <row r="222" spans="30:30">
+      <c r="AD222" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="247" spans="18:18">
-      <c r="R247" t="s">
+    <row r="223" spans="30:30">
+      <c r="AD223" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="248" spans="18:18">
-      <c r="R248" t="s">
+    <row r="224" spans="30:30">
+      <c r="AD224" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="249" spans="18:18">
-      <c r="R249" t="s">
+    <row r="225" spans="30:30">
+      <c r="AD225" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="250" spans="18:18">
-      <c r="R250" t="s">
+    <row r="226" spans="30:30">
+      <c r="AD226" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="251" spans="18:18">
-      <c r="R251" t="s">
+    <row r="227" spans="30:30">
+      <c r="AD227" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="252" spans="18:18">
-      <c r="R252" t="s">
+    <row r="228" spans="30:30">
+      <c r="AD228" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="253" spans="18:18">
-      <c r="R253" t="s">
+    <row r="229" spans="30:30">
+      <c r="AD229" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="254" spans="18:18">
-      <c r="R254" t="s">
+    <row r="230" spans="30:30">
+      <c r="AD230" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="255" spans="18:18">
-      <c r="R255" t="s">
+    <row r="231" spans="30:30">
+      <c r="AD231" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="256" spans="18:18">
-      <c r="R256" t="s">
+    <row r="232" spans="30:30">
+      <c r="AD232" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="257" spans="18:18">
-      <c r="R257" t="s">
+    <row r="233" spans="30:30">
+      <c r="AD233" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="258" spans="18:18">
-      <c r="R258" t="s">
+    <row r="234" spans="30:30">
+      <c r="AD234" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="259" spans="18:18">
-      <c r="R259" t="s">
+    <row r="235" spans="30:30">
+      <c r="AD235" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="260" spans="18:18">
-      <c r="R260" t="s">
+    <row r="236" spans="30:30">
+      <c r="AD236" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="261" spans="18:18">
-      <c r="R261" t="s">
+    <row r="237" spans="30:30">
+      <c r="AD237" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="262" spans="18:18">
-      <c r="R262" t="s">
+    <row r="238" spans="30:30">
+      <c r="AD238" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="263" spans="18:18">
-      <c r="R263" t="s">
+    <row r="239" spans="30:30">
+      <c r="AD239" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="264" spans="18:18">
-      <c r="R264" t="s">
+    <row r="240" spans="30:30">
+      <c r="AD240" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="265" spans="18:18">
-      <c r="R265" t="s">
+    <row r="241" spans="30:30">
+      <c r="AD241" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="266" spans="18:18">
-      <c r="R266" t="s">
+    <row r="242" spans="30:30">
+      <c r="AD242" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="267" spans="18:18">
-      <c r="R267" t="s">
+    <row r="243" spans="30:30">
+      <c r="AD243" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="268" spans="18:18">
-      <c r="R268" t="s">
+    <row r="244" spans="30:30">
+      <c r="AD244" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="269" spans="18:18">
-      <c r="R269" t="s">
+    <row r="245" spans="30:30">
+      <c r="AD245" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="270" spans="18:18">
-      <c r="R270" t="s">
+    <row r="246" spans="30:30">
+      <c r="AD246" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="271" spans="18:18">
-      <c r="R271" t="s">
+    <row r="247" spans="30:30">
+      <c r="AD247" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="272" spans="18:18">
-      <c r="R272" t="s">
+    <row r="248" spans="30:30">
+      <c r="AD248" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="273" spans="18:18">
-      <c r="R273" t="s">
+    <row r="249" spans="30:30">
+      <c r="AD249" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="274" spans="18:18">
-      <c r="R274" t="s">
+    <row r="250" spans="30:30">
+      <c r="AD250" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="275" spans="18:18">
-      <c r="R275" t="s">
+    <row r="251" spans="30:30">
+      <c r="AD251" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="276" spans="18:18">
-      <c r="R276" t="s">
+    <row r="252" spans="30:30">
+      <c r="AD252" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="277" spans="18:18">
-      <c r="R277" t="s">
+    <row r="253" spans="30:30">
+      <c r="AD253" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="278" spans="18:18">
-      <c r="R278" t="s">
+    <row r="254" spans="30:30">
+      <c r="AD254" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="279" spans="18:18">
-      <c r="R279" t="s">
+    <row r="255" spans="30:30">
+      <c r="AD255" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="280" spans="18:18">
-      <c r="R280" t="s">
+    <row r="256" spans="30:30">
+      <c r="AD256" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="281" spans="18:18">
-      <c r="R281" t="s">
+    <row r="257" spans="30:30">
+      <c r="AD257" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="282" spans="18:18">
-      <c r="R282" t="s">
+    <row r="258" spans="30:30">
+      <c r="AD258" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="283" spans="18:18">
-      <c r="R283" t="s">
+    <row r="259" spans="30:30">
+      <c r="AD259" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="284" spans="18:18">
-      <c r="R284" t="s">
+    <row r="260" spans="30:30">
+      <c r="AD260" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="285" spans="18:18">
-      <c r="R285" t="s">
+    <row r="261" spans="30:30">
+      <c r="AD261" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="286" spans="18:18">
-      <c r="R286" t="s">
+    <row r="262" spans="30:30">
+      <c r="AD262" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="287" spans="18:18">
-      <c r="R287" t="s">
+    <row r="263" spans="30:30">
+      <c r="AD263" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="288" spans="18:18">
-      <c r="R288" t="s">
+    <row r="264" spans="30:30">
+      <c r="AD264" t="s">
         <v>584</v>
+      </c>
+    </row>
+    <row r="265" spans="30:30">
+      <c r="AD265" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="266" spans="30:30">
+      <c r="AD266" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="267" spans="30:30">
+      <c r="AD267" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="268" spans="30:30">
+      <c r="AD268" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="269" spans="30:30">
+      <c r="AD269" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="270" spans="30:30">
+      <c r="AD270" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="271" spans="30:30">
+      <c r="AD271" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="272" spans="30:30">
+      <c r="AD272" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="273" spans="30:30">
+      <c r="AD273" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="274" spans="30:30">
+      <c r="AD274" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="275" spans="30:30">
+      <c r="AD275" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="276" spans="30:30">
+      <c r="AD276" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="277" spans="30:30">
+      <c r="AD277" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="278" spans="30:30">
+      <c r="AD278" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="279" spans="30:30">
+      <c r="AD279" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="280" spans="30:30">
+      <c r="AD280" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="281" spans="30:30">
+      <c r="AD281" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="282" spans="30:30">
+      <c r="AD282" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="283" spans="30:30">
+      <c r="AD283" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="284" spans="30:30">
+      <c r="AD284" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="285" spans="30:30">
+      <c r="AD285" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="286" spans="30:30">
+      <c r="AD286" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="287" spans="30:30">
+      <c r="AD287" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="288" spans="30:30">
+      <c r="AD288" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="289" spans="30:30">
+      <c r="AD289" t="s">
+        <v>609</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000038/metadata_template_ERC000038.xlsx
+++ b/templates/ERC000038/metadata_template_ERC000038.xlsx
@@ -20,7 +20,7 @@
     <definedName name="aquacultureorigin">'cv_sample'!$I$1:$I$3</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AD$1:$AD$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="619">
   <si>
     <t>alias</t>
   </si>
@@ -636,6 +636,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -2425,7 +2428,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2469,7 +2472,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2496,7 +2499,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3208,6 +3211,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3232,27 +3240,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3275,122 +3283,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3417,198 +3425,198 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -3637,1462 +3645,1462 @@
   <sheetData>
     <row r="1" spans="9:30">
       <c r="I1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AD1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="9:30">
       <c r="I2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AD2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="9:30">
       <c r="I3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AD3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="9:30">
       <c r="AD4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="9:30">
       <c r="AD5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="9:30">
       <c r="AD6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="9:30">
       <c r="AD7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="9:30">
       <c r="AD8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="9:30">
       <c r="AD9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="9:30">
       <c r="AD10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="9:30">
       <c r="AD11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="9:30">
       <c r="AD12" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="9:30">
       <c r="AD13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="9:30">
       <c r="AD14" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="9:30">
       <c r="AD15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="9:30">
       <c r="AD16" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="30:30">
       <c r="AD17" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="30:30">
       <c r="AD18" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="30:30">
       <c r="AD19" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="30:30">
       <c r="AD20" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="30:30">
       <c r="AD21" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="30:30">
       <c r="AD22" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="30:30">
       <c r="AD23" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="30:30">
       <c r="AD24" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="30:30">
       <c r="AD25" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="30:30">
       <c r="AD26" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="30:30">
       <c r="AD27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="30:30">
       <c r="AD28" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" spans="30:30">
       <c r="AD29" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="30:30">
       <c r="AD30" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31" spans="30:30">
       <c r="AD31" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" spans="30:30">
       <c r="AD32" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" spans="30:30">
       <c r="AD33" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="30:30">
       <c r="AD34" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="30:30">
       <c r="AD35" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36" spans="30:30">
       <c r="AD36" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="30:30">
       <c r="AD37" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" spans="30:30">
       <c r="AD38" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="30:30">
       <c r="AD39" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40" spans="30:30">
       <c r="AD40" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41" spans="30:30">
       <c r="AD41" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42" spans="30:30">
       <c r="AD42" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43" spans="30:30">
       <c r="AD43" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="44" spans="30:30">
       <c r="AD44" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45" spans="30:30">
       <c r="AD45" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="46" spans="30:30">
       <c r="AD46" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47" spans="30:30">
       <c r="AD47" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" spans="30:30">
       <c r="AD48" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49" spans="30:30">
       <c r="AD49" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="30:30">
       <c r="AD50" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" spans="30:30">
       <c r="AD51" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="30:30">
       <c r="AD52" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="53" spans="30:30">
       <c r="AD53" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="54" spans="30:30">
       <c r="AD54" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55" spans="30:30">
       <c r="AD55" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="56" spans="30:30">
       <c r="AD56" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57" spans="30:30">
       <c r="AD57" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="58" spans="30:30">
       <c r="AD58" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="59" spans="30:30">
       <c r="AD59" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="60" spans="30:30">
       <c r="AD60" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="61" spans="30:30">
       <c r="AD61" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="62" spans="30:30">
       <c r="AD62" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="63" spans="30:30">
       <c r="AD63" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="64" spans="30:30">
       <c r="AD64" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="65" spans="30:30">
       <c r="AD65" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="66" spans="30:30">
       <c r="AD66" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="67" spans="30:30">
       <c r="AD67" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="68" spans="30:30">
       <c r="AD68" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="69" spans="30:30">
       <c r="AD69" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="70" spans="30:30">
       <c r="AD70" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="71" spans="30:30">
       <c r="AD71" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="72" spans="30:30">
       <c r="AD72" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="73" spans="30:30">
       <c r="AD73" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="74" spans="30:30">
       <c r="AD74" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="75" spans="30:30">
       <c r="AD75" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="76" spans="30:30">
       <c r="AD76" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="77" spans="30:30">
       <c r="AD77" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="78" spans="30:30">
       <c r="AD78" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="79" spans="30:30">
       <c r="AD79" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="80" spans="30:30">
       <c r="AD80" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="81" spans="30:30">
       <c r="AD81" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="82" spans="30:30">
       <c r="AD82" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="83" spans="30:30">
       <c r="AD83" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="84" spans="30:30">
       <c r="AD84" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="85" spans="30:30">
       <c r="AD85" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="86" spans="30:30">
       <c r="AD86" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="87" spans="30:30">
       <c r="AD87" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="88" spans="30:30">
       <c r="AD88" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="89" spans="30:30">
       <c r="AD89" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="90" spans="30:30">
       <c r="AD90" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="91" spans="30:30">
       <c r="AD91" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="92" spans="30:30">
       <c r="AD92" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="93" spans="30:30">
       <c r="AD93" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="94" spans="30:30">
       <c r="AD94" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="95" spans="30:30">
       <c r="AD95" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="96" spans="30:30">
       <c r="AD96" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="97" spans="30:30">
       <c r="AD97" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="98" spans="30:30">
       <c r="AD98" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="99" spans="30:30">
       <c r="AD99" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="100" spans="30:30">
       <c r="AD100" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="101" spans="30:30">
       <c r="AD101" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="102" spans="30:30">
       <c r="AD102" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="103" spans="30:30">
       <c r="AD103" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="104" spans="30:30">
       <c r="AD104" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="105" spans="30:30">
       <c r="AD105" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="106" spans="30:30">
       <c r="AD106" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="107" spans="30:30">
       <c r="AD107" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="108" spans="30:30">
       <c r="AD108" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="109" spans="30:30">
       <c r="AD109" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="110" spans="30:30">
       <c r="AD110" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="111" spans="30:30">
       <c r="AD111" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="112" spans="30:30">
       <c r="AD112" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="113" spans="30:30">
       <c r="AD113" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="114" spans="30:30">
       <c r="AD114" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="115" spans="30:30">
       <c r="AD115" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="116" spans="30:30">
       <c r="AD116" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="117" spans="30:30">
       <c r="AD117" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="118" spans="30:30">
       <c r="AD118" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="119" spans="30:30">
       <c r="AD119" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="120" spans="30:30">
       <c r="AD120" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="121" spans="30:30">
       <c r="AD121" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="122" spans="30:30">
       <c r="AD122" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="123" spans="30:30">
       <c r="AD123" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="124" spans="30:30">
       <c r="AD124" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="125" spans="30:30">
       <c r="AD125" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="126" spans="30:30">
       <c r="AD126" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="127" spans="30:30">
       <c r="AD127" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="128" spans="30:30">
       <c r="AD128" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="129" spans="30:30">
       <c r="AD129" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="130" spans="30:30">
       <c r="AD130" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="131" spans="30:30">
       <c r="AD131" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="132" spans="30:30">
       <c r="AD132" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="133" spans="30:30">
       <c r="AD133" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="134" spans="30:30">
       <c r="AD134" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="135" spans="30:30">
       <c r="AD135" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="136" spans="30:30">
       <c r="AD136" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="137" spans="30:30">
       <c r="AD137" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="138" spans="30:30">
       <c r="AD138" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="139" spans="30:30">
       <c r="AD139" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="140" spans="30:30">
       <c r="AD140" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="141" spans="30:30">
       <c r="AD141" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="142" spans="30:30">
       <c r="AD142" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="143" spans="30:30">
       <c r="AD143" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="144" spans="30:30">
       <c r="AD144" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="145" spans="30:30">
       <c r="AD145" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="146" spans="30:30">
       <c r="AD146" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="147" spans="30:30">
       <c r="AD147" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="148" spans="30:30">
       <c r="AD148" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="149" spans="30:30">
       <c r="AD149" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="150" spans="30:30">
       <c r="AD150" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="151" spans="30:30">
       <c r="AD151" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="152" spans="30:30">
       <c r="AD152" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="153" spans="30:30">
       <c r="AD153" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="154" spans="30:30">
       <c r="AD154" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="155" spans="30:30">
       <c r="AD155" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="156" spans="30:30">
       <c r="AD156" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="157" spans="30:30">
       <c r="AD157" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="158" spans="30:30">
       <c r="AD158" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="159" spans="30:30">
       <c r="AD159" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="160" spans="30:30">
       <c r="AD160" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="161" spans="30:30">
       <c r="AD161" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="162" spans="30:30">
       <c r="AD162" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="163" spans="30:30">
       <c r="AD163" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="164" spans="30:30">
       <c r="AD164" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="165" spans="30:30">
       <c r="AD165" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="166" spans="30:30">
       <c r="AD166" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="167" spans="30:30">
       <c r="AD167" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="168" spans="30:30">
       <c r="AD168" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="169" spans="30:30">
       <c r="AD169" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="170" spans="30:30">
       <c r="AD170" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="171" spans="30:30">
       <c r="AD171" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="172" spans="30:30">
       <c r="AD172" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="173" spans="30:30">
       <c r="AD173" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="174" spans="30:30">
       <c r="AD174" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="175" spans="30:30">
       <c r="AD175" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="176" spans="30:30">
       <c r="AD176" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="177" spans="30:30">
       <c r="AD177" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="178" spans="30:30">
       <c r="AD178" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="179" spans="30:30">
       <c r="AD179" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="180" spans="30:30">
       <c r="AD180" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="181" spans="30:30">
       <c r="AD181" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="182" spans="30:30">
       <c r="AD182" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="183" spans="30:30">
       <c r="AD183" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="184" spans="30:30">
       <c r="AD184" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="185" spans="30:30">
       <c r="AD185" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="186" spans="30:30">
       <c r="AD186" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="187" spans="30:30">
       <c r="AD187" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="188" spans="30:30">
       <c r="AD188" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="189" spans="30:30">
       <c r="AD189" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="190" spans="30:30">
       <c r="AD190" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="191" spans="30:30">
       <c r="AD191" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="192" spans="30:30">
       <c r="AD192" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="193" spans="30:30">
       <c r="AD193" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="194" spans="30:30">
       <c r="AD194" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="195" spans="30:30">
       <c r="AD195" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="196" spans="30:30">
       <c r="AD196" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="197" spans="30:30">
       <c r="AD197" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="198" spans="30:30">
       <c r="AD198" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="199" spans="30:30">
       <c r="AD199" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="200" spans="30:30">
       <c r="AD200" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="201" spans="30:30">
       <c r="AD201" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="202" spans="30:30">
       <c r="AD202" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="203" spans="30:30">
       <c r="AD203" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="204" spans="30:30">
       <c r="AD204" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="205" spans="30:30">
       <c r="AD205" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="206" spans="30:30">
       <c r="AD206" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="207" spans="30:30">
       <c r="AD207" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="208" spans="30:30">
       <c r="AD208" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="209" spans="30:30">
       <c r="AD209" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="210" spans="30:30">
       <c r="AD210" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="211" spans="30:30">
       <c r="AD211" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="212" spans="30:30">
       <c r="AD212" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="213" spans="30:30">
       <c r="AD213" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="214" spans="30:30">
       <c r="AD214" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="215" spans="30:30">
       <c r="AD215" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="216" spans="30:30">
       <c r="AD216" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="217" spans="30:30">
       <c r="AD217" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="218" spans="30:30">
       <c r="AD218" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="219" spans="30:30">
       <c r="AD219" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="220" spans="30:30">
       <c r="AD220" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="221" spans="30:30">
       <c r="AD221" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="222" spans="30:30">
       <c r="AD222" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="223" spans="30:30">
       <c r="AD223" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="224" spans="30:30">
       <c r="AD224" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="225" spans="30:30">
       <c r="AD225" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="226" spans="30:30">
       <c r="AD226" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="227" spans="30:30">
       <c r="AD227" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="228" spans="30:30">
       <c r="AD228" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="229" spans="30:30">
       <c r="AD229" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="230" spans="30:30">
       <c r="AD230" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="231" spans="30:30">
       <c r="AD231" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="232" spans="30:30">
       <c r="AD232" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="233" spans="30:30">
       <c r="AD233" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="234" spans="30:30">
       <c r="AD234" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="235" spans="30:30">
       <c r="AD235" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="236" spans="30:30">
       <c r="AD236" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="237" spans="30:30">
       <c r="AD237" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="238" spans="30:30">
       <c r="AD238" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="239" spans="30:30">
       <c r="AD239" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="240" spans="30:30">
       <c r="AD240" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="241" spans="30:30">
       <c r="AD241" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="242" spans="30:30">
       <c r="AD242" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="243" spans="30:30">
       <c r="AD243" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="244" spans="30:30">
       <c r="AD244" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="245" spans="30:30">
       <c r="AD245" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="246" spans="30:30">
       <c r="AD246" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="247" spans="30:30">
       <c r="AD247" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="248" spans="30:30">
       <c r="AD248" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="249" spans="30:30">
       <c r="AD249" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="250" spans="30:30">
       <c r="AD250" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="251" spans="30:30">
       <c r="AD251" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="252" spans="30:30">
       <c r="AD252" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="253" spans="30:30">
       <c r="AD253" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="254" spans="30:30">
       <c r="AD254" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="255" spans="30:30">
       <c r="AD255" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="256" spans="30:30">
       <c r="AD256" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="257" spans="30:30">
       <c r="AD257" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="258" spans="30:30">
       <c r="AD258" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="259" spans="30:30">
       <c r="AD259" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="260" spans="30:30">
       <c r="AD260" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="261" spans="30:30">
       <c r="AD261" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="262" spans="30:30">
       <c r="AD262" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="263" spans="30:30">
       <c r="AD263" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="264" spans="30:30">
       <c r="AD264" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="265" spans="30:30">
       <c r="AD265" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="266" spans="30:30">
       <c r="AD266" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="267" spans="30:30">
       <c r="AD267" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="268" spans="30:30">
       <c r="AD268" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="269" spans="30:30">
       <c r="AD269" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="270" spans="30:30">
       <c r="AD270" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="271" spans="30:30">
       <c r="AD271" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="272" spans="30:30">
       <c r="AD272" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="273" spans="30:30">
       <c r="AD273" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="274" spans="30:30">
       <c r="AD274" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="275" spans="30:30">
       <c r="AD275" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="276" spans="30:30">
       <c r="AD276" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="277" spans="30:30">
       <c r="AD277" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="278" spans="30:30">
       <c r="AD278" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="279" spans="30:30">
       <c r="AD279" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="280" spans="30:30">
       <c r="AD280" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="281" spans="30:30">
       <c r="AD281" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="282" spans="30:30">
       <c r="AD282" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="283" spans="30:30">
       <c r="AD283" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="284" spans="30:30">
       <c r="AD284" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="285" spans="30:30">
       <c r="AD285" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="286" spans="30:30">
       <c r="AD286" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="287" spans="30:30">
       <c r="AD287" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="288" spans="30:30">
       <c r="AD288" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="289" spans="30:30">
       <c r="AD289" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000038/metadata_template_ERC000038.xlsx
+++ b/templates/ERC000038/metadata_template_ERC000038.xlsx
@@ -20,7 +20,7 @@
     <definedName name="aquacultureorigin">'cv_sample'!$I$1:$I$3</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AD$1:$AD$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="620">
   <si>
     <t>alias</t>
   </si>
@@ -555,6 +555,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -2428,7 +2431,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2472,7 +2475,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2499,7 +2502,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3216,6 +3219,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3240,27 +3248,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3283,122 +3291,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3425,198 +3433,198 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -3645,1462 +3653,1462 @@
   <sheetData>
     <row r="1" spans="9:30">
       <c r="I1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AD1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="9:30">
       <c r="I2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AD2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="9:30">
       <c r="I3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AD3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="9:30">
       <c r="AD4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="9:30">
       <c r="AD5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="9:30">
       <c r="AD6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="9:30">
       <c r="AD7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="9:30">
       <c r="AD8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="9:30">
       <c r="AD9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="9:30">
       <c r="AD10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="9:30">
       <c r="AD11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="9:30">
       <c r="AD12" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="9:30">
       <c r="AD13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="9:30">
       <c r="AD14" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="9:30">
       <c r="AD15" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="9:30">
       <c r="AD16" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="30:30">
       <c r="AD17" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="30:30">
       <c r="AD18" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="30:30">
       <c r="AD19" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="30:30">
       <c r="AD20" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="30:30">
       <c r="AD21" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="30:30">
       <c r="AD22" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="30:30">
       <c r="AD23" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="30:30">
       <c r="AD24" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="30:30">
       <c r="AD25" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="30:30">
       <c r="AD26" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="30:30">
       <c r="AD27" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28" spans="30:30">
       <c r="AD28" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29" spans="30:30">
       <c r="AD29" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="30:30">
       <c r="AD30" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31" spans="30:30">
       <c r="AD31" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="30:30">
       <c r="AD32" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" spans="30:30">
       <c r="AD33" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="30:30">
       <c r="AD34" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35" spans="30:30">
       <c r="AD35" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="30:30">
       <c r="AD36" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="37" spans="30:30">
       <c r="AD37" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38" spans="30:30">
       <c r="AD38" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" spans="30:30">
       <c r="AD39" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40" spans="30:30">
       <c r="AD40" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41" spans="30:30">
       <c r="AD41" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42" spans="30:30">
       <c r="AD42" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43" spans="30:30">
       <c r="AD43" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44" spans="30:30">
       <c r="AD44" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="45" spans="30:30">
       <c r="AD45" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="46" spans="30:30">
       <c r="AD46" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47" spans="30:30">
       <c r="AD47" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="30:30">
       <c r="AD48" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49" spans="30:30">
       <c r="AD49" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" spans="30:30">
       <c r="AD50" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="51" spans="30:30">
       <c r="AD51" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52" spans="30:30">
       <c r="AD52" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53" spans="30:30">
       <c r="AD53" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="54" spans="30:30">
       <c r="AD54" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="55" spans="30:30">
       <c r="AD55" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56" spans="30:30">
       <c r="AD56" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="57" spans="30:30">
       <c r="AD57" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="58" spans="30:30">
       <c r="AD58" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="59" spans="30:30">
       <c r="AD59" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="60" spans="30:30">
       <c r="AD60" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="61" spans="30:30">
       <c r="AD61" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="62" spans="30:30">
       <c r="AD62" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="63" spans="30:30">
       <c r="AD63" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="64" spans="30:30">
       <c r="AD64" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="65" spans="30:30">
       <c r="AD65" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="66" spans="30:30">
       <c r="AD66" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="67" spans="30:30">
       <c r="AD67" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="68" spans="30:30">
       <c r="AD68" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="69" spans="30:30">
       <c r="AD69" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="70" spans="30:30">
       <c r="AD70" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="71" spans="30:30">
       <c r="AD71" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="72" spans="30:30">
       <c r="AD72" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="73" spans="30:30">
       <c r="AD73" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="74" spans="30:30">
       <c r="AD74" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="75" spans="30:30">
       <c r="AD75" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="76" spans="30:30">
       <c r="AD76" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="77" spans="30:30">
       <c r="AD77" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="78" spans="30:30">
       <c r="AD78" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="79" spans="30:30">
       <c r="AD79" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="80" spans="30:30">
       <c r="AD80" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="81" spans="30:30">
       <c r="AD81" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="82" spans="30:30">
       <c r="AD82" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="83" spans="30:30">
       <c r="AD83" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="84" spans="30:30">
       <c r="AD84" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="85" spans="30:30">
       <c r="AD85" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="86" spans="30:30">
       <c r="AD86" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="87" spans="30:30">
       <c r="AD87" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="88" spans="30:30">
       <c r="AD88" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="89" spans="30:30">
       <c r="AD89" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="90" spans="30:30">
       <c r="AD90" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="91" spans="30:30">
       <c r="AD91" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="92" spans="30:30">
       <c r="AD92" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="93" spans="30:30">
       <c r="AD93" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="94" spans="30:30">
       <c r="AD94" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="95" spans="30:30">
       <c r="AD95" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="96" spans="30:30">
       <c r="AD96" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="97" spans="30:30">
       <c r="AD97" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="98" spans="30:30">
       <c r="AD98" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="99" spans="30:30">
       <c r="AD99" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="100" spans="30:30">
       <c r="AD100" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="101" spans="30:30">
       <c r="AD101" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="102" spans="30:30">
       <c r="AD102" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="103" spans="30:30">
       <c r="AD103" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="104" spans="30:30">
       <c r="AD104" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="105" spans="30:30">
       <c r="AD105" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="106" spans="30:30">
       <c r="AD106" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="107" spans="30:30">
       <c r="AD107" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="108" spans="30:30">
       <c r="AD108" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="109" spans="30:30">
       <c r="AD109" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="110" spans="30:30">
       <c r="AD110" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="111" spans="30:30">
       <c r="AD111" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="112" spans="30:30">
       <c r="AD112" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="113" spans="30:30">
       <c r="AD113" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="114" spans="30:30">
       <c r="AD114" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="115" spans="30:30">
       <c r="AD115" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="116" spans="30:30">
       <c r="AD116" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="117" spans="30:30">
       <c r="AD117" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="118" spans="30:30">
       <c r="AD118" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="119" spans="30:30">
       <c r="AD119" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="120" spans="30:30">
       <c r="AD120" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="121" spans="30:30">
       <c r="AD121" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="122" spans="30:30">
       <c r="AD122" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="123" spans="30:30">
       <c r="AD123" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="124" spans="30:30">
       <c r="AD124" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="125" spans="30:30">
       <c r="AD125" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="126" spans="30:30">
       <c r="AD126" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="127" spans="30:30">
       <c r="AD127" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="128" spans="30:30">
       <c r="AD128" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="129" spans="30:30">
       <c r="AD129" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="130" spans="30:30">
       <c r="AD130" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="131" spans="30:30">
       <c r="AD131" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="132" spans="30:30">
       <c r="AD132" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="133" spans="30:30">
       <c r="AD133" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="134" spans="30:30">
       <c r="AD134" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="135" spans="30:30">
       <c r="AD135" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="136" spans="30:30">
       <c r="AD136" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="137" spans="30:30">
       <c r="AD137" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="138" spans="30:30">
       <c r="AD138" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="139" spans="30:30">
       <c r="AD139" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="140" spans="30:30">
       <c r="AD140" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="141" spans="30:30">
       <c r="AD141" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="142" spans="30:30">
       <c r="AD142" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="143" spans="30:30">
       <c r="AD143" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="144" spans="30:30">
       <c r="AD144" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="145" spans="30:30">
       <c r="AD145" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="146" spans="30:30">
       <c r="AD146" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="147" spans="30:30">
       <c r="AD147" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="148" spans="30:30">
       <c r="AD148" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="149" spans="30:30">
       <c r="AD149" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="150" spans="30:30">
       <c r="AD150" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="151" spans="30:30">
       <c r="AD151" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="152" spans="30:30">
       <c r="AD152" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="153" spans="30:30">
       <c r="AD153" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="154" spans="30:30">
       <c r="AD154" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="155" spans="30:30">
       <c r="AD155" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="156" spans="30:30">
       <c r="AD156" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="157" spans="30:30">
       <c r="AD157" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="158" spans="30:30">
       <c r="AD158" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="159" spans="30:30">
       <c r="AD159" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="160" spans="30:30">
       <c r="AD160" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="161" spans="30:30">
       <c r="AD161" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="162" spans="30:30">
       <c r="AD162" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="163" spans="30:30">
       <c r="AD163" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="164" spans="30:30">
       <c r="AD164" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="165" spans="30:30">
       <c r="AD165" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="166" spans="30:30">
       <c r="AD166" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="167" spans="30:30">
       <c r="AD167" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="168" spans="30:30">
       <c r="AD168" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="169" spans="30:30">
       <c r="AD169" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="170" spans="30:30">
       <c r="AD170" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="171" spans="30:30">
       <c r="AD171" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="172" spans="30:30">
       <c r="AD172" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="173" spans="30:30">
       <c r="AD173" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="174" spans="30:30">
       <c r="AD174" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="175" spans="30:30">
       <c r="AD175" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="176" spans="30:30">
       <c r="AD176" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="177" spans="30:30">
       <c r="AD177" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="178" spans="30:30">
       <c r="AD178" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="179" spans="30:30">
       <c r="AD179" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="180" spans="30:30">
       <c r="AD180" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="181" spans="30:30">
       <c r="AD181" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="182" spans="30:30">
       <c r="AD182" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="183" spans="30:30">
       <c r="AD183" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="184" spans="30:30">
       <c r="AD184" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="185" spans="30:30">
       <c r="AD185" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="186" spans="30:30">
       <c r="AD186" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="187" spans="30:30">
       <c r="AD187" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="188" spans="30:30">
       <c r="AD188" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="189" spans="30:30">
       <c r="AD189" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="190" spans="30:30">
       <c r="AD190" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="191" spans="30:30">
       <c r="AD191" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="192" spans="30:30">
       <c r="AD192" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="193" spans="30:30">
       <c r="AD193" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="194" spans="30:30">
       <c r="AD194" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="195" spans="30:30">
       <c r="AD195" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="196" spans="30:30">
       <c r="AD196" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="197" spans="30:30">
       <c r="AD197" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="198" spans="30:30">
       <c r="AD198" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="199" spans="30:30">
       <c r="AD199" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="200" spans="30:30">
       <c r="AD200" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="201" spans="30:30">
       <c r="AD201" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="202" spans="30:30">
       <c r="AD202" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="203" spans="30:30">
       <c r="AD203" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="204" spans="30:30">
       <c r="AD204" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="205" spans="30:30">
       <c r="AD205" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="206" spans="30:30">
       <c r="AD206" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="207" spans="30:30">
       <c r="AD207" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="208" spans="30:30">
       <c r="AD208" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="209" spans="30:30">
       <c r="AD209" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="210" spans="30:30">
       <c r="AD210" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="211" spans="30:30">
       <c r="AD211" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="212" spans="30:30">
       <c r="AD212" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="213" spans="30:30">
       <c r="AD213" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="214" spans="30:30">
       <c r="AD214" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="215" spans="30:30">
       <c r="AD215" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="216" spans="30:30">
       <c r="AD216" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="217" spans="30:30">
       <c r="AD217" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="218" spans="30:30">
       <c r="AD218" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="219" spans="30:30">
       <c r="AD219" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="220" spans="30:30">
       <c r="AD220" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="221" spans="30:30">
       <c r="AD221" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="222" spans="30:30">
       <c r="AD222" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="223" spans="30:30">
       <c r="AD223" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="224" spans="30:30">
       <c r="AD224" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="225" spans="30:30">
       <c r="AD225" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="226" spans="30:30">
       <c r="AD226" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="227" spans="30:30">
       <c r="AD227" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="228" spans="30:30">
       <c r="AD228" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="229" spans="30:30">
       <c r="AD229" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="230" spans="30:30">
       <c r="AD230" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="231" spans="30:30">
       <c r="AD231" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="232" spans="30:30">
       <c r="AD232" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="233" spans="30:30">
       <c r="AD233" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="234" spans="30:30">
       <c r="AD234" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="235" spans="30:30">
       <c r="AD235" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="236" spans="30:30">
       <c r="AD236" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="237" spans="30:30">
       <c r="AD237" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="238" spans="30:30">
       <c r="AD238" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="239" spans="30:30">
       <c r="AD239" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="240" spans="30:30">
       <c r="AD240" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="241" spans="30:30">
       <c r="AD241" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="242" spans="30:30">
       <c r="AD242" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="243" spans="30:30">
       <c r="AD243" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="244" spans="30:30">
       <c r="AD244" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="245" spans="30:30">
       <c r="AD245" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="246" spans="30:30">
       <c r="AD246" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="247" spans="30:30">
       <c r="AD247" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="248" spans="30:30">
       <c r="AD248" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="249" spans="30:30">
       <c r="AD249" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="250" spans="30:30">
       <c r="AD250" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="251" spans="30:30">
       <c r="AD251" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="252" spans="30:30">
       <c r="AD252" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="253" spans="30:30">
       <c r="AD253" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="254" spans="30:30">
       <c r="AD254" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="255" spans="30:30">
       <c r="AD255" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="256" spans="30:30">
       <c r="AD256" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="257" spans="30:30">
       <c r="AD257" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="258" spans="30:30">
       <c r="AD258" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="259" spans="30:30">
       <c r="AD259" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="260" spans="30:30">
       <c r="AD260" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="261" spans="30:30">
       <c r="AD261" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="262" spans="30:30">
       <c r="AD262" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="263" spans="30:30">
       <c r="AD263" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="264" spans="30:30">
       <c r="AD264" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="265" spans="30:30">
       <c r="AD265" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="266" spans="30:30">
       <c r="AD266" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="267" spans="30:30">
       <c r="AD267" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="268" spans="30:30">
       <c r="AD268" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="269" spans="30:30">
       <c r="AD269" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="270" spans="30:30">
       <c r="AD270" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="271" spans="30:30">
       <c r="AD271" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="272" spans="30:30">
       <c r="AD272" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="273" spans="30:30">
       <c r="AD273" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="274" spans="30:30">
       <c r="AD274" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="275" spans="30:30">
       <c r="AD275" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="276" spans="30:30">
       <c r="AD276" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="277" spans="30:30">
       <c r="AD277" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="278" spans="30:30">
       <c r="AD278" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="279" spans="30:30">
       <c r="AD279" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="280" spans="30:30">
       <c r="AD280" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="281" spans="30:30">
       <c r="AD281" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="282" spans="30:30">
       <c r="AD282" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="283" spans="30:30">
       <c r="AD283" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="284" spans="30:30">
       <c r="AD284" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="285" spans="30:30">
       <c r="AD285" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="286" spans="30:30">
       <c r="AD286" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="287" spans="30:30">
       <c r="AD287" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="288" spans="30:30">
       <c r="AD288" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="289" spans="30:30">
       <c r="AD289" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000038/metadata_template_ERC000038.xlsx
+++ b/templates/ERC000038/metadata_template_ERC000038.xlsx
@@ -20,7 +20,7 @@
     <definedName name="aquacultureorigin">'cv_sample'!$I$1:$I$3</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AD$1:$AD$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="621">
   <si>
     <t>alias</t>
   </si>
@@ -720,6 +720,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -2431,7 +2434,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2475,7 +2478,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2502,7 +2505,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3224,6 +3227,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3248,27 +3256,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3291,122 +3299,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3433,198 +3441,198 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -3653,1462 +3661,1462 @@
   <sheetData>
     <row r="1" spans="9:30">
       <c r="I1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AD1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="9:30">
       <c r="I2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AD2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="9:30">
       <c r="I3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AD3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="9:30">
       <c r="AD4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="9:30">
       <c r="AD5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="9:30">
       <c r="AD6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="9:30">
       <c r="AD7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="9:30">
       <c r="AD8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="9:30">
       <c r="AD9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="9:30">
       <c r="AD10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="9:30">
       <c r="AD11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="9:30">
       <c r="AD12" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="9:30">
       <c r="AD13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="9:30">
       <c r="AD14" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="9:30">
       <c r="AD15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="9:30">
       <c r="AD16" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="30:30">
       <c r="AD17" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="30:30">
       <c r="AD18" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="30:30">
       <c r="AD19" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="30:30">
       <c r="AD20" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="30:30">
       <c r="AD21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="30:30">
       <c r="AD22" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="30:30">
       <c r="AD23" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="30:30">
       <c r="AD24" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="30:30">
       <c r="AD25" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="30:30">
       <c r="AD26" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="30:30">
       <c r="AD27" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" spans="30:30">
       <c r="AD28" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="30:30">
       <c r="AD29" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="30:30">
       <c r="AD30" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="30:30">
       <c r="AD31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="30:30">
       <c r="AD32" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="30:30">
       <c r="AD33" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="34" spans="30:30">
       <c r="AD34" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="35" spans="30:30">
       <c r="AD35" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="36" spans="30:30">
       <c r="AD36" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37" spans="30:30">
       <c r="AD37" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38" spans="30:30">
       <c r="AD38" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="39" spans="30:30">
       <c r="AD39" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40" spans="30:30">
       <c r="AD40" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41" spans="30:30">
       <c r="AD41" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="42" spans="30:30">
       <c r="AD42" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="43" spans="30:30">
       <c r="AD43" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="44" spans="30:30">
       <c r="AD44" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="45" spans="30:30">
       <c r="AD45" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" spans="30:30">
       <c r="AD46" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47" spans="30:30">
       <c r="AD47" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48" spans="30:30">
       <c r="AD48" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49" spans="30:30">
       <c r="AD49" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50" spans="30:30">
       <c r="AD50" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51" spans="30:30">
       <c r="AD51" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="52" spans="30:30">
       <c r="AD52" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="53" spans="30:30">
       <c r="AD53" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="54" spans="30:30">
       <c r="AD54" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="30:30">
       <c r="AD55" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="56" spans="30:30">
       <c r="AD56" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57" spans="30:30">
       <c r="AD57" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58" spans="30:30">
       <c r="AD58" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="59" spans="30:30">
       <c r="AD59" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="60" spans="30:30">
       <c r="AD60" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="61" spans="30:30">
       <c r="AD61" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="62" spans="30:30">
       <c r="AD62" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="63" spans="30:30">
       <c r="AD63" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="64" spans="30:30">
       <c r="AD64" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="65" spans="30:30">
       <c r="AD65" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="66" spans="30:30">
       <c r="AD66" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="67" spans="30:30">
       <c r="AD67" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="68" spans="30:30">
       <c r="AD68" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="69" spans="30:30">
       <c r="AD69" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="70" spans="30:30">
       <c r="AD70" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="71" spans="30:30">
       <c r="AD71" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="72" spans="30:30">
       <c r="AD72" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="73" spans="30:30">
       <c r="AD73" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="74" spans="30:30">
       <c r="AD74" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="75" spans="30:30">
       <c r="AD75" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="76" spans="30:30">
       <c r="AD76" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="77" spans="30:30">
       <c r="AD77" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="78" spans="30:30">
       <c r="AD78" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="79" spans="30:30">
       <c r="AD79" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="80" spans="30:30">
       <c r="AD80" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="81" spans="30:30">
       <c r="AD81" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="82" spans="30:30">
       <c r="AD82" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="83" spans="30:30">
       <c r="AD83" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="84" spans="30:30">
       <c r="AD84" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="85" spans="30:30">
       <c r="AD85" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="86" spans="30:30">
       <c r="AD86" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="87" spans="30:30">
       <c r="AD87" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="88" spans="30:30">
       <c r="AD88" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="89" spans="30:30">
       <c r="AD89" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="90" spans="30:30">
       <c r="AD90" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="91" spans="30:30">
       <c r="AD91" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="92" spans="30:30">
       <c r="AD92" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="93" spans="30:30">
       <c r="AD93" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="94" spans="30:30">
       <c r="AD94" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="95" spans="30:30">
       <c r="AD95" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="96" spans="30:30">
       <c r="AD96" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="97" spans="30:30">
       <c r="AD97" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="98" spans="30:30">
       <c r="AD98" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="99" spans="30:30">
       <c r="AD99" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="100" spans="30:30">
       <c r="AD100" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="101" spans="30:30">
       <c r="AD101" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="102" spans="30:30">
       <c r="AD102" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="103" spans="30:30">
       <c r="AD103" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="104" spans="30:30">
       <c r="AD104" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="105" spans="30:30">
       <c r="AD105" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="106" spans="30:30">
       <c r="AD106" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="107" spans="30:30">
       <c r="AD107" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="108" spans="30:30">
       <c r="AD108" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="109" spans="30:30">
       <c r="AD109" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="110" spans="30:30">
       <c r="AD110" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="111" spans="30:30">
       <c r="AD111" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="112" spans="30:30">
       <c r="AD112" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="113" spans="30:30">
       <c r="AD113" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="114" spans="30:30">
       <c r="AD114" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="115" spans="30:30">
       <c r="AD115" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="116" spans="30:30">
       <c r="AD116" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="117" spans="30:30">
       <c r="AD117" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="118" spans="30:30">
       <c r="AD118" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="119" spans="30:30">
       <c r="AD119" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="120" spans="30:30">
       <c r="AD120" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="121" spans="30:30">
       <c r="AD121" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="122" spans="30:30">
       <c r="AD122" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="123" spans="30:30">
       <c r="AD123" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="124" spans="30:30">
       <c r="AD124" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="125" spans="30:30">
       <c r="AD125" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="126" spans="30:30">
       <c r="AD126" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="127" spans="30:30">
       <c r="AD127" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="128" spans="30:30">
       <c r="AD128" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="129" spans="30:30">
       <c r="AD129" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="130" spans="30:30">
       <c r="AD130" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="131" spans="30:30">
       <c r="AD131" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="132" spans="30:30">
       <c r="AD132" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="133" spans="30:30">
       <c r="AD133" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="134" spans="30:30">
       <c r="AD134" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="135" spans="30:30">
       <c r="AD135" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="136" spans="30:30">
       <c r="AD136" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="137" spans="30:30">
       <c r="AD137" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="138" spans="30:30">
       <c r="AD138" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="139" spans="30:30">
       <c r="AD139" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="140" spans="30:30">
       <c r="AD140" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="141" spans="30:30">
       <c r="AD141" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="142" spans="30:30">
       <c r="AD142" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="143" spans="30:30">
       <c r="AD143" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="144" spans="30:30">
       <c r="AD144" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="145" spans="30:30">
       <c r="AD145" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="146" spans="30:30">
       <c r="AD146" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="147" spans="30:30">
       <c r="AD147" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="148" spans="30:30">
       <c r="AD148" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="149" spans="30:30">
       <c r="AD149" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="150" spans="30:30">
       <c r="AD150" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="151" spans="30:30">
       <c r="AD151" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="152" spans="30:30">
       <c r="AD152" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="153" spans="30:30">
       <c r="AD153" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="154" spans="30:30">
       <c r="AD154" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="155" spans="30:30">
       <c r="AD155" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="156" spans="30:30">
       <c r="AD156" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="157" spans="30:30">
       <c r="AD157" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="158" spans="30:30">
       <c r="AD158" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="159" spans="30:30">
       <c r="AD159" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="160" spans="30:30">
       <c r="AD160" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="161" spans="30:30">
       <c r="AD161" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="162" spans="30:30">
       <c r="AD162" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="163" spans="30:30">
       <c r="AD163" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="164" spans="30:30">
       <c r="AD164" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="165" spans="30:30">
       <c r="AD165" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="166" spans="30:30">
       <c r="AD166" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="167" spans="30:30">
       <c r="AD167" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="168" spans="30:30">
       <c r="AD168" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="169" spans="30:30">
       <c r="AD169" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="170" spans="30:30">
       <c r="AD170" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="171" spans="30:30">
       <c r="AD171" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="172" spans="30:30">
       <c r="AD172" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="173" spans="30:30">
       <c r="AD173" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="174" spans="30:30">
       <c r="AD174" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="175" spans="30:30">
       <c r="AD175" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="176" spans="30:30">
       <c r="AD176" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="177" spans="30:30">
       <c r="AD177" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="178" spans="30:30">
       <c r="AD178" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="179" spans="30:30">
       <c r="AD179" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="180" spans="30:30">
       <c r="AD180" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="181" spans="30:30">
       <c r="AD181" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="182" spans="30:30">
       <c r="AD182" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="183" spans="30:30">
       <c r="AD183" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="184" spans="30:30">
       <c r="AD184" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="185" spans="30:30">
       <c r="AD185" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="186" spans="30:30">
       <c r="AD186" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="187" spans="30:30">
       <c r="AD187" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="188" spans="30:30">
       <c r="AD188" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="189" spans="30:30">
       <c r="AD189" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="190" spans="30:30">
       <c r="AD190" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="191" spans="30:30">
       <c r="AD191" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="192" spans="30:30">
       <c r="AD192" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="193" spans="30:30">
       <c r="AD193" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="194" spans="30:30">
       <c r="AD194" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="195" spans="30:30">
       <c r="AD195" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="196" spans="30:30">
       <c r="AD196" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="197" spans="30:30">
       <c r="AD197" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="198" spans="30:30">
       <c r="AD198" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="199" spans="30:30">
       <c r="AD199" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="200" spans="30:30">
       <c r="AD200" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="201" spans="30:30">
       <c r="AD201" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="202" spans="30:30">
       <c r="AD202" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="203" spans="30:30">
       <c r="AD203" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="204" spans="30:30">
       <c r="AD204" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="205" spans="30:30">
       <c r="AD205" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="206" spans="30:30">
       <c r="AD206" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="207" spans="30:30">
       <c r="AD207" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="208" spans="30:30">
       <c r="AD208" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="209" spans="30:30">
       <c r="AD209" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="210" spans="30:30">
       <c r="AD210" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="211" spans="30:30">
       <c r="AD211" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="212" spans="30:30">
       <c r="AD212" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="213" spans="30:30">
       <c r="AD213" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="214" spans="30:30">
       <c r="AD214" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="215" spans="30:30">
       <c r="AD215" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="216" spans="30:30">
       <c r="AD216" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="217" spans="30:30">
       <c r="AD217" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="218" spans="30:30">
       <c r="AD218" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="219" spans="30:30">
       <c r="AD219" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="220" spans="30:30">
       <c r="AD220" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="221" spans="30:30">
       <c r="AD221" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="222" spans="30:30">
       <c r="AD222" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="223" spans="30:30">
       <c r="AD223" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="224" spans="30:30">
       <c r="AD224" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="225" spans="30:30">
       <c r="AD225" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="226" spans="30:30">
       <c r="AD226" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="227" spans="30:30">
       <c r="AD227" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="228" spans="30:30">
       <c r="AD228" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="229" spans="30:30">
       <c r="AD229" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="230" spans="30:30">
       <c r="AD230" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="231" spans="30:30">
       <c r="AD231" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="232" spans="30:30">
       <c r="AD232" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="233" spans="30:30">
       <c r="AD233" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="234" spans="30:30">
       <c r="AD234" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="235" spans="30:30">
       <c r="AD235" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="236" spans="30:30">
       <c r="AD236" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="237" spans="30:30">
       <c r="AD237" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="238" spans="30:30">
       <c r="AD238" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="239" spans="30:30">
       <c r="AD239" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="240" spans="30:30">
       <c r="AD240" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="241" spans="30:30">
       <c r="AD241" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="242" spans="30:30">
       <c r="AD242" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="243" spans="30:30">
       <c r="AD243" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="244" spans="30:30">
       <c r="AD244" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="245" spans="30:30">
       <c r="AD245" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="246" spans="30:30">
       <c r="AD246" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="247" spans="30:30">
       <c r="AD247" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="248" spans="30:30">
       <c r="AD248" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="249" spans="30:30">
       <c r="AD249" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="250" spans="30:30">
       <c r="AD250" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="251" spans="30:30">
       <c r="AD251" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="252" spans="30:30">
       <c r="AD252" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="253" spans="30:30">
       <c r="AD253" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="254" spans="30:30">
       <c r="AD254" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="255" spans="30:30">
       <c r="AD255" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="256" spans="30:30">
       <c r="AD256" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="257" spans="30:30">
       <c r="AD257" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="258" spans="30:30">
       <c r="AD258" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="259" spans="30:30">
       <c r="AD259" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="260" spans="30:30">
       <c r="AD260" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="261" spans="30:30">
       <c r="AD261" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="262" spans="30:30">
       <c r="AD262" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="263" spans="30:30">
       <c r="AD263" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="264" spans="30:30">
       <c r="AD264" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="265" spans="30:30">
       <c r="AD265" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="266" spans="30:30">
       <c r="AD266" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="267" spans="30:30">
       <c r="AD267" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="268" spans="30:30">
       <c r="AD268" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="269" spans="30:30">
       <c r="AD269" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="270" spans="30:30">
       <c r="AD270" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="271" spans="30:30">
       <c r="AD271" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="272" spans="30:30">
       <c r="AD272" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="273" spans="30:30">
       <c r="AD273" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="274" spans="30:30">
       <c r="AD274" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="275" spans="30:30">
       <c r="AD275" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="276" spans="30:30">
       <c r="AD276" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="277" spans="30:30">
       <c r="AD277" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="278" spans="30:30">
       <c r="AD278" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="279" spans="30:30">
       <c r="AD279" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="280" spans="30:30">
       <c r="AD280" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="281" spans="30:30">
       <c r="AD281" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="282" spans="30:30">
       <c r="AD282" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="283" spans="30:30">
       <c r="AD283" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="284" spans="30:30">
       <c r="AD284" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="285" spans="30:30">
       <c r="AD285" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="286" spans="30:30">
       <c r="AD286" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="287" spans="30:30">
       <c r="AD287" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="288" spans="30:30">
       <c r="AD288" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="289" spans="30:30">
       <c r="AD289" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000038/metadata_template_ERC000038.xlsx
+++ b/templates/ERC000038/metadata_template_ERC000038.xlsx
@@ -20,7 +20,7 @@
     <definedName name="aquacultureorigin">'cv_sample'!$I$1:$I$3</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AD$1:$AD$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="622">
   <si>
     <t>alias</t>
   </si>
@@ -555,6 +555,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -2434,7 +2437,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2478,7 +2481,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2505,7 +2508,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3232,6 +3235,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3256,27 +3264,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3299,122 +3307,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3441,198 +3449,198 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -3661,1462 +3669,1462 @@
   <sheetData>
     <row r="1" spans="9:30">
       <c r="I1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AD1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="9:30">
       <c r="I2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AD2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="9:30">
       <c r="I3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AD3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="9:30">
       <c r="AD4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="9:30">
       <c r="AD5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="9:30">
       <c r="AD6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="9:30">
       <c r="AD7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="9:30">
       <c r="AD8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="9:30">
       <c r="AD9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="9:30">
       <c r="AD10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="9:30">
       <c r="AD11" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="9:30">
       <c r="AD12" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="9:30">
       <c r="AD13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="9:30">
       <c r="AD14" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="9:30">
       <c r="AD15" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="9:30">
       <c r="AD16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="30:30">
       <c r="AD17" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="30:30">
       <c r="AD18" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="30:30">
       <c r="AD19" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="30:30">
       <c r="AD20" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="30:30">
       <c r="AD21" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="30:30">
       <c r="AD22" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="30:30">
       <c r="AD23" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="30:30">
       <c r="AD24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="30:30">
       <c r="AD25" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="30:30">
       <c r="AD26" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="30:30">
       <c r="AD27" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="30:30">
       <c r="AD28" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="30:30">
       <c r="AD29" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="30:30">
       <c r="AD30" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="30:30">
       <c r="AD31" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="30:30">
       <c r="AD32" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="30:30">
       <c r="AD33" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="30:30">
       <c r="AD34" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="35" spans="30:30">
       <c r="AD35" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="36" spans="30:30">
       <c r="AD36" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" spans="30:30">
       <c r="AD37" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38" spans="30:30">
       <c r="AD38" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="30:30">
       <c r="AD39" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="30:30">
       <c r="AD40" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41" spans="30:30">
       <c r="AD41" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="42" spans="30:30">
       <c r="AD42" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="43" spans="30:30">
       <c r="AD43" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44" spans="30:30">
       <c r="AD44" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="45" spans="30:30">
       <c r="AD45" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="46" spans="30:30">
       <c r="AD46" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="47" spans="30:30">
       <c r="AD47" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="48" spans="30:30">
       <c r="AD48" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49" spans="30:30">
       <c r="AD49" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50" spans="30:30">
       <c r="AD50" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="51" spans="30:30">
       <c r="AD51" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52" spans="30:30">
       <c r="AD52" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="53" spans="30:30">
       <c r="AD53" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="54" spans="30:30">
       <c r="AD54" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="55" spans="30:30">
       <c r="AD55" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="56" spans="30:30">
       <c r="AD56" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="57" spans="30:30">
       <c r="AD57" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58" spans="30:30">
       <c r="AD58" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="59" spans="30:30">
       <c r="AD59" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="60" spans="30:30">
       <c r="AD60" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="61" spans="30:30">
       <c r="AD61" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="62" spans="30:30">
       <c r="AD62" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="63" spans="30:30">
       <c r="AD63" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="64" spans="30:30">
       <c r="AD64" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="65" spans="30:30">
       <c r="AD65" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="66" spans="30:30">
       <c r="AD66" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="67" spans="30:30">
       <c r="AD67" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="68" spans="30:30">
       <c r="AD68" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="69" spans="30:30">
       <c r="AD69" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="70" spans="30:30">
       <c r="AD70" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="71" spans="30:30">
       <c r="AD71" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="72" spans="30:30">
       <c r="AD72" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="73" spans="30:30">
       <c r="AD73" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="74" spans="30:30">
       <c r="AD74" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="75" spans="30:30">
       <c r="AD75" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="76" spans="30:30">
       <c r="AD76" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="77" spans="30:30">
       <c r="AD77" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="78" spans="30:30">
       <c r="AD78" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="79" spans="30:30">
       <c r="AD79" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="80" spans="30:30">
       <c r="AD80" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="81" spans="30:30">
       <c r="AD81" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="82" spans="30:30">
       <c r="AD82" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="83" spans="30:30">
       <c r="AD83" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="84" spans="30:30">
       <c r="AD84" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="85" spans="30:30">
       <c r="AD85" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="86" spans="30:30">
       <c r="AD86" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="87" spans="30:30">
       <c r="AD87" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="88" spans="30:30">
       <c r="AD88" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="89" spans="30:30">
       <c r="AD89" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="90" spans="30:30">
       <c r="AD90" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="91" spans="30:30">
       <c r="AD91" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="92" spans="30:30">
       <c r="AD92" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="93" spans="30:30">
       <c r="AD93" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="94" spans="30:30">
       <c r="AD94" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="95" spans="30:30">
       <c r="AD95" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="96" spans="30:30">
       <c r="AD96" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="97" spans="30:30">
       <c r="AD97" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="98" spans="30:30">
       <c r="AD98" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="99" spans="30:30">
       <c r="AD99" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="100" spans="30:30">
       <c r="AD100" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="101" spans="30:30">
       <c r="AD101" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="102" spans="30:30">
       <c r="AD102" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="103" spans="30:30">
       <c r="AD103" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="104" spans="30:30">
       <c r="AD104" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="105" spans="30:30">
       <c r="AD105" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="106" spans="30:30">
       <c r="AD106" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="107" spans="30:30">
       <c r="AD107" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="108" spans="30:30">
       <c r="AD108" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="109" spans="30:30">
       <c r="AD109" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="110" spans="30:30">
       <c r="AD110" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="111" spans="30:30">
       <c r="AD111" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="112" spans="30:30">
       <c r="AD112" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="113" spans="30:30">
       <c r="AD113" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="114" spans="30:30">
       <c r="AD114" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="115" spans="30:30">
       <c r="AD115" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="116" spans="30:30">
       <c r="AD116" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="117" spans="30:30">
       <c r="AD117" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="118" spans="30:30">
       <c r="AD118" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="119" spans="30:30">
       <c r="AD119" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="120" spans="30:30">
       <c r="AD120" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="121" spans="30:30">
       <c r="AD121" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="122" spans="30:30">
       <c r="AD122" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="123" spans="30:30">
       <c r="AD123" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="124" spans="30:30">
       <c r="AD124" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="125" spans="30:30">
       <c r="AD125" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="126" spans="30:30">
       <c r="AD126" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="127" spans="30:30">
       <c r="AD127" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="128" spans="30:30">
       <c r="AD128" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="129" spans="30:30">
       <c r="AD129" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="130" spans="30:30">
       <c r="AD130" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="131" spans="30:30">
       <c r="AD131" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="132" spans="30:30">
       <c r="AD132" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="133" spans="30:30">
       <c r="AD133" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="134" spans="30:30">
       <c r="AD134" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="135" spans="30:30">
       <c r="AD135" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="136" spans="30:30">
       <c r="AD136" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="137" spans="30:30">
       <c r="AD137" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="138" spans="30:30">
       <c r="AD138" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="139" spans="30:30">
       <c r="AD139" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="140" spans="30:30">
       <c r="AD140" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="141" spans="30:30">
       <c r="AD141" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="142" spans="30:30">
       <c r="AD142" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="143" spans="30:30">
       <c r="AD143" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="144" spans="30:30">
       <c r="AD144" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="145" spans="30:30">
       <c r="AD145" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="146" spans="30:30">
       <c r="AD146" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="147" spans="30:30">
       <c r="AD147" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="148" spans="30:30">
       <c r="AD148" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="149" spans="30:30">
       <c r="AD149" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="150" spans="30:30">
       <c r="AD150" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="151" spans="30:30">
       <c r="AD151" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="152" spans="30:30">
       <c r="AD152" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="153" spans="30:30">
       <c r="AD153" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="154" spans="30:30">
       <c r="AD154" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="155" spans="30:30">
       <c r="AD155" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="156" spans="30:30">
       <c r="AD156" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="157" spans="30:30">
       <c r="AD157" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="158" spans="30:30">
       <c r="AD158" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="159" spans="30:30">
       <c r="AD159" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="160" spans="30:30">
       <c r="AD160" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="161" spans="30:30">
       <c r="AD161" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="162" spans="30:30">
       <c r="AD162" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="163" spans="30:30">
       <c r="AD163" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="164" spans="30:30">
       <c r="AD164" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="165" spans="30:30">
       <c r="AD165" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="166" spans="30:30">
       <c r="AD166" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="167" spans="30:30">
       <c r="AD167" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="168" spans="30:30">
       <c r="AD168" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="169" spans="30:30">
       <c r="AD169" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="170" spans="30:30">
       <c r="AD170" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="171" spans="30:30">
       <c r="AD171" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="172" spans="30:30">
       <c r="AD172" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="173" spans="30:30">
       <c r="AD173" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="174" spans="30:30">
       <c r="AD174" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="175" spans="30:30">
       <c r="AD175" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="176" spans="30:30">
       <c r="AD176" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="177" spans="30:30">
       <c r="AD177" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="178" spans="30:30">
       <c r="AD178" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="179" spans="30:30">
       <c r="AD179" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="180" spans="30:30">
       <c r="AD180" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="181" spans="30:30">
       <c r="AD181" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="182" spans="30:30">
       <c r="AD182" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="183" spans="30:30">
       <c r="AD183" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="184" spans="30:30">
       <c r="AD184" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="185" spans="30:30">
       <c r="AD185" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="186" spans="30:30">
       <c r="AD186" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="187" spans="30:30">
       <c r="AD187" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="188" spans="30:30">
       <c r="AD188" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="189" spans="30:30">
       <c r="AD189" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="190" spans="30:30">
       <c r="AD190" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="191" spans="30:30">
       <c r="AD191" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="192" spans="30:30">
       <c r="AD192" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="193" spans="30:30">
       <c r="AD193" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="194" spans="30:30">
       <c r="AD194" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="195" spans="30:30">
       <c r="AD195" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="196" spans="30:30">
       <c r="AD196" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="197" spans="30:30">
       <c r="AD197" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="198" spans="30:30">
       <c r="AD198" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="199" spans="30:30">
       <c r="AD199" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="200" spans="30:30">
       <c r="AD200" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="201" spans="30:30">
       <c r="AD201" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="202" spans="30:30">
       <c r="AD202" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="203" spans="30:30">
       <c r="AD203" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="204" spans="30:30">
       <c r="AD204" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="205" spans="30:30">
       <c r="AD205" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="206" spans="30:30">
       <c r="AD206" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="207" spans="30:30">
       <c r="AD207" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="208" spans="30:30">
       <c r="AD208" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="209" spans="30:30">
       <c r="AD209" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="210" spans="30:30">
       <c r="AD210" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="211" spans="30:30">
       <c r="AD211" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="212" spans="30:30">
       <c r="AD212" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="213" spans="30:30">
       <c r="AD213" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="214" spans="30:30">
       <c r="AD214" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="215" spans="30:30">
       <c r="AD215" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="216" spans="30:30">
       <c r="AD216" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="217" spans="30:30">
       <c r="AD217" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="218" spans="30:30">
       <c r="AD218" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="219" spans="30:30">
       <c r="AD219" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="220" spans="30:30">
       <c r="AD220" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="221" spans="30:30">
       <c r="AD221" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="222" spans="30:30">
       <c r="AD222" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="223" spans="30:30">
       <c r="AD223" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="224" spans="30:30">
       <c r="AD224" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="225" spans="30:30">
       <c r="AD225" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="226" spans="30:30">
       <c r="AD226" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="227" spans="30:30">
       <c r="AD227" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="228" spans="30:30">
       <c r="AD228" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="229" spans="30:30">
       <c r="AD229" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="230" spans="30:30">
       <c r="AD230" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="231" spans="30:30">
       <c r="AD231" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="232" spans="30:30">
       <c r="AD232" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="233" spans="30:30">
       <c r="AD233" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="234" spans="30:30">
       <c r="AD234" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="235" spans="30:30">
       <c r="AD235" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="236" spans="30:30">
       <c r="AD236" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="237" spans="30:30">
       <c r="AD237" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="238" spans="30:30">
       <c r="AD238" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="239" spans="30:30">
       <c r="AD239" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="240" spans="30:30">
       <c r="AD240" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="241" spans="30:30">
       <c r="AD241" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="242" spans="30:30">
       <c r="AD242" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="243" spans="30:30">
       <c r="AD243" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="244" spans="30:30">
       <c r="AD244" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="245" spans="30:30">
       <c r="AD245" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="246" spans="30:30">
       <c r="AD246" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="247" spans="30:30">
       <c r="AD247" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="248" spans="30:30">
       <c r="AD248" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="249" spans="30:30">
       <c r="AD249" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="250" spans="30:30">
       <c r="AD250" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="251" spans="30:30">
       <c r="AD251" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="252" spans="30:30">
       <c r="AD252" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="253" spans="30:30">
       <c r="AD253" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="254" spans="30:30">
       <c r="AD254" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="255" spans="30:30">
       <c r="AD255" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="256" spans="30:30">
       <c r="AD256" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="257" spans="30:30">
       <c r="AD257" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="258" spans="30:30">
       <c r="AD258" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="259" spans="30:30">
       <c r="AD259" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="260" spans="30:30">
       <c r="AD260" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="261" spans="30:30">
       <c r="AD261" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="262" spans="30:30">
       <c r="AD262" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="263" spans="30:30">
       <c r="AD263" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="264" spans="30:30">
       <c r="AD264" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="265" spans="30:30">
       <c r="AD265" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="266" spans="30:30">
       <c r="AD266" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="267" spans="30:30">
       <c r="AD267" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="268" spans="30:30">
       <c r="AD268" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="269" spans="30:30">
       <c r="AD269" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="270" spans="30:30">
       <c r="AD270" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="271" spans="30:30">
       <c r="AD271" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="272" spans="30:30">
       <c r="AD272" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="273" spans="30:30">
       <c r="AD273" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="274" spans="30:30">
       <c r="AD274" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="275" spans="30:30">
       <c r="AD275" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="276" spans="30:30">
       <c r="AD276" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="277" spans="30:30">
       <c r="AD277" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="278" spans="30:30">
       <c r="AD278" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="279" spans="30:30">
       <c r="AD279" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="280" spans="30:30">
       <c r="AD280" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="281" spans="30:30">
       <c r="AD281" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="282" spans="30:30">
       <c r="AD282" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="283" spans="30:30">
       <c r="AD283" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="284" spans="30:30">
       <c r="AD284" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="285" spans="30:30">
       <c r="AD285" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="286" spans="30:30">
       <c r="AD286" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="287" spans="30:30">
       <c r="AD287" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="288" spans="30:30">
       <c r="AD288" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="289" spans="30:30">
       <c r="AD289" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000038/metadata_template_ERC000038.xlsx
+++ b/templates/ERC000038/metadata_template_ERC000038.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="aquacultureorigin">'cv_sample'!$I$1:$I$3</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AD$1:$AD$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AD$1:$AD$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="627">
   <si>
     <t>alias</t>
   </si>
@@ -845,25 +845,25 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>Latitude Start</t>
+    <t>latitude_start</t>
   </si>
   <si>
     <t>(Mandatory) Latitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ##.####, decimal degrees; north= +, south= -; use wgs 84 for gps data. example: -24.6666. (Units: DD)</t>
   </si>
   <si>
-    <t>Longitude Start</t>
+    <t>longitude_start</t>
   </si>
   <si>
     <t>(Mandatory) Longitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1012. (Units: DD)</t>
   </si>
   <si>
-    <t>Protocol Label</t>
+    <t>protocol_label</t>
   </si>
   <si>
     <t>(Mandatory) Identifies the protocol used to produce the sample, e.g. filtration and preservation. example: bact_nuc_w0.22-1.6.</t>
   </si>
   <si>
-    <t>sample storage conditions</t>
+    <t>sample_storage_conditions</t>
   </si>
   <si>
     <t>(Optional) Conditions at which sample was stored, usually storage temperature, duration and location. in soil context: explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other).</t>
@@ -878,37 +878,37 @@
     <t>WOWR - wild origin wild raised</t>
   </si>
   <si>
-    <t>aquaculture origin</t>
+    <t>aquaculture_origin</t>
   </si>
   <si>
     <t>(Mandatory) Origin of stock and raised conditions</t>
   </si>
   <si>
-    <t>shellfish total weight</t>
+    <t>shellfish_total_weight</t>
   </si>
   <si>
     <t>(Mandatory) Total weight of shellfish including shell at the time of sampling. epifauna and epiphytes to be removed. (Units: g)</t>
   </si>
   <si>
-    <t>shellfish soft tissue weight</t>
+    <t>shellfish_soft_tissue_weight</t>
   </si>
   <si>
     <t>(Mandatory) Total weight of all soft tissue, i.e. weight of entire organism without shell, at the time of sampling (Units: g)</t>
   </si>
   <si>
-    <t>shell length</t>
+    <t>shell_length</t>
   </si>
   <si>
     <t>(Mandatory) Length of shell (perpendicular to the hinge) (Units: g)</t>
   </si>
   <si>
-    <t>shell width</t>
+    <t>shell_width</t>
   </si>
   <si>
     <t>(Mandatory) Width of shell (perpendicular angle to length) (Units: g)</t>
   </si>
   <si>
-    <t>shell markings</t>
+    <t>shell_markings</t>
   </si>
   <si>
     <t>(Recommended) Visible markings on outer shell (Units: g)</t>
@@ -920,67 +920,67 @@
     <t>healthy</t>
   </si>
   <si>
-    <t>sample health state</t>
+    <t>sample_health_state</t>
   </si>
   <si>
     <t>(Optional) Health status of the subject at the time of sample collection</t>
   </si>
   <si>
-    <t>sample disease status</t>
+    <t>sample_disease_status</t>
   </si>
   <si>
     <t>(Optional) List of diseases with which the subject has been diagnosed at the time of sample collection; can include multiple diagnoses; the value of the field depends on subject; e.g. charcoal rot (macrophomina phaseolina), late wilt (cephalosporium maydis)</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>broad-scale environmental context</t>
+    <t>broadscale_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local environmental context</t>
+    <t>local_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental medium</t>
+    <t>environmental_medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
   </si>
   <si>
-    <t>Sampling Campaign</t>
+    <t>sampling_campaign</t>
   </si>
   <si>
     <t>(Mandatory) Refers to a finite or indefinite activity aiming at collecting data/samples, e.g. a cruise, a time series, a mesocosm experiment. example: tara_20110401z.</t>
   </si>
   <si>
-    <t>Sampling Station</t>
+    <t>sampling_station</t>
   </si>
   <si>
     <t>(Mandatory) Refers to the site/station where data/sample collection is performed. example: tara_100.</t>
   </si>
   <si>
-    <t>Sampling Platform</t>
+    <t>sampling_platform</t>
   </si>
   <si>
     <t>(Mandatory) Refers to the unique stage from which the sampling device has been deployed. includes platform category from sdn:l06, http://seadatanet.maris2.nl/v_bodc_vocab_v2/search.asp?lib=l06, and platform name. example: research vessel tara.</t>
   </si>
   <si>
-    <t>Marine Region</t>
+    <t>marine_region</t>
   </si>
   <si>
     <t>(Recommended) The geographical origin of the sample as defined by the marine region name chosen from the marine regions vocabulary at http://www.marineregions.org/. example: aegean sea.</t>
   </si>
   <si>
-    <t>seabed habitat</t>
+    <t>seabed_habitat</t>
   </si>
   <si>
     <t>(Mandatory) Classification of the seabed where the organism has been found; for european seabed habitats please use terms from http://eunis.eea.europa.eu/habitats-code-browser.jsp; example: b3.4 : soft sea-cliffs, often vegetated</t>
@@ -992,22 +992,22 @@
     <t>(Mandatory) Age of the organism the sample was derived from.</t>
   </si>
   <si>
-    <t>adductor weight</t>
+    <t>adductor_weight</t>
   </si>
   <si>
     <t>(Recommended) Total weight of striated muscle and smooth muscle (Units: g)</t>
   </si>
   <si>
-    <t>gonad weight</t>
+    <t>gonad_weight</t>
   </si>
   <si>
     <t>(Recommended) Total weight of entire gonad tissue (Units: g)</t>
   </si>
   <si>
-    <t>toxin burden</t>
-  </si>
-  <si>
-    <t>(Recommended) Concentration of toxins in the organism at the time of sampling (Units: mg)</t>
+    <t>toxin_burden</t>
+  </si>
+  <si>
+    <t>(Recommended) Concentration of toxins in the organism at the time of sampling (Units: kg)</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -1223,9 +1223,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1244,6 +1241,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1445,6 +1445,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1454,9 +1457,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1496,7 +1496,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1565,6 +1565,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1640,6 +1643,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1661,6 +1667,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1706,6 +1715,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1718,6 +1730,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1727,9 +1742,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1754,6 +1766,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1814,12 +1829,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1877,19 +1892,19 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>treatment agent</t>
+    <t>treatment_agent</t>
   </si>
   <si>
     <t>(Optional) The name of the treatment agent used.</t>
   </si>
   <si>
-    <t>chemical compound</t>
+    <t>chemical_compound</t>
   </si>
   <si>
     <t>(Optional) A drug, solvent, chemical, etc., with a property that can be measured such as concentration (http://purl.obolibrary.org/obo/chebi_37577).</t>
@@ -1898,7 +1913,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
 </sst>
 </file>
@@ -3530,16 +3545,16 @@
         <v>323</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="150" customHeight="1">
@@ -3631,16 +3646,16 @@
         <v>324</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -3661,7 +3676,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="I1:AD289"/>
+  <dimension ref="I1:AD294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5127,6 +5142,31 @@
         <v>613</v>
       </c>
     </row>
+    <row r="290" spans="30:30">
+      <c r="AD290" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="291" spans="30:30">
+      <c r="AD291" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="292" spans="30:30">
+      <c r="AD292" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="293" spans="30:30">
+      <c r="AD293" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="294" spans="30:30">
+      <c r="AD294" t="s">
+        <v>618</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000038/metadata_template_ERC000038.xlsx
+++ b/templates/ERC000038/metadata_template_ERC000038.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="aquacultureorigin">'cv_sample'!$I$1:$I$3</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AD$1:$AD$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AD$1:$AD$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="622">
   <si>
     <t>alias</t>
   </si>
@@ -845,25 +845,25 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>latitude_start</t>
+    <t>Latitude Start</t>
   </si>
   <si>
     <t>(Mandatory) Latitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ##.####, decimal degrees; north= +, south= -; use wgs 84 for gps data. example: -24.6666. (Units: DD)</t>
   </si>
   <si>
-    <t>longitude_start</t>
+    <t>Longitude Start</t>
   </si>
   <si>
     <t>(Mandatory) Longitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1012. (Units: DD)</t>
   </si>
   <si>
-    <t>protocol_label</t>
+    <t>Protocol Label</t>
   </si>
   <si>
     <t>(Mandatory) Identifies the protocol used to produce the sample, e.g. filtration and preservation. example: bact_nuc_w0.22-1.6.</t>
   </si>
   <si>
-    <t>sample_storage_conditions</t>
+    <t>sample storage conditions</t>
   </si>
   <si>
     <t>(Optional) Conditions at which sample was stored, usually storage temperature, duration and location. in soil context: explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other).</t>
@@ -878,37 +878,37 @@
     <t>WOWR - wild origin wild raised</t>
   </si>
   <si>
-    <t>aquaculture_origin</t>
+    <t>aquaculture origin</t>
   </si>
   <si>
     <t>(Mandatory) Origin of stock and raised conditions</t>
   </si>
   <si>
-    <t>shellfish_total_weight</t>
+    <t>shellfish total weight</t>
   </si>
   <si>
     <t>(Mandatory) Total weight of shellfish including shell at the time of sampling. epifauna and epiphytes to be removed. (Units: g)</t>
   </si>
   <si>
-    <t>shellfish_soft_tissue_weight</t>
+    <t>shellfish soft tissue weight</t>
   </si>
   <si>
     <t>(Mandatory) Total weight of all soft tissue, i.e. weight of entire organism without shell, at the time of sampling (Units: g)</t>
   </si>
   <si>
-    <t>shell_length</t>
+    <t>shell length</t>
   </si>
   <si>
     <t>(Mandatory) Length of shell (perpendicular to the hinge) (Units: g)</t>
   </si>
   <si>
-    <t>shell_width</t>
+    <t>shell width</t>
   </si>
   <si>
     <t>(Mandatory) Width of shell (perpendicular angle to length) (Units: g)</t>
   </si>
   <si>
-    <t>shell_markings</t>
+    <t>shell markings</t>
   </si>
   <si>
     <t>(Recommended) Visible markings on outer shell (Units: g)</t>
@@ -920,67 +920,67 @@
     <t>healthy</t>
   </si>
   <si>
-    <t>sample_health_state</t>
+    <t>sample health state</t>
   </si>
   <si>
     <t>(Optional) Health status of the subject at the time of sample collection</t>
   </si>
   <si>
-    <t>sample_disease_status</t>
+    <t>sample disease status</t>
   </si>
   <si>
     <t>(Optional) List of diseases with which the subject has been diagnosed at the time of sample collection; can include multiple diagnoses; the value of the field depends on subject; e.g. charcoal rot (macrophomina phaseolina), late wilt (cephalosporium maydis)</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>broadscale_environmental_context</t>
+    <t>broad-scale environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local_environmental_context</t>
+    <t>local environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental_medium</t>
+    <t>environmental medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
   </si>
   <si>
-    <t>sampling_campaign</t>
+    <t>Sampling Campaign</t>
   </si>
   <si>
     <t>(Mandatory) Refers to a finite or indefinite activity aiming at collecting data/samples, e.g. a cruise, a time series, a mesocosm experiment. example: tara_20110401z.</t>
   </si>
   <si>
-    <t>sampling_station</t>
+    <t>Sampling Station</t>
   </si>
   <si>
     <t>(Mandatory) Refers to the site/station where data/sample collection is performed. example: tara_100.</t>
   </si>
   <si>
-    <t>sampling_platform</t>
+    <t>Sampling Platform</t>
   </si>
   <si>
     <t>(Mandatory) Refers to the unique stage from which the sampling device has been deployed. includes platform category from sdn:l06, http://seadatanet.maris2.nl/v_bodc_vocab_v2/search.asp?lib=l06, and platform name. example: research vessel tara.</t>
   </si>
   <si>
-    <t>marine_region</t>
+    <t>Marine Region</t>
   </si>
   <si>
     <t>(Recommended) The geographical origin of the sample as defined by the marine region name chosen from the marine regions vocabulary at http://www.marineregions.org/. example: aegean sea.</t>
   </si>
   <si>
-    <t>seabed_habitat</t>
+    <t>seabed habitat</t>
   </si>
   <si>
     <t>(Mandatory) Classification of the seabed where the organism has been found; for european seabed habitats please use terms from http://eunis.eea.europa.eu/habitats-code-browser.jsp; example: b3.4 : soft sea-cliffs, often vegetated</t>
@@ -992,22 +992,22 @@
     <t>(Mandatory) Age of the organism the sample was derived from.</t>
   </si>
   <si>
-    <t>adductor_weight</t>
+    <t>adductor weight</t>
   </si>
   <si>
     <t>(Recommended) Total weight of striated muscle and smooth muscle (Units: g)</t>
   </si>
   <si>
-    <t>gonad_weight</t>
+    <t>gonad weight</t>
   </si>
   <si>
     <t>(Recommended) Total weight of entire gonad tissue (Units: g)</t>
   </si>
   <si>
-    <t>toxin_burden</t>
-  </si>
-  <si>
-    <t>(Recommended) Concentration of toxins in the organism at the time of sampling (Units: kg)</t>
+    <t>toxin burden</t>
+  </si>
+  <si>
+    <t>(Recommended) Concentration of toxins in the organism at the time of sampling (Units: mg)</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -1223,6 +1223,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1241,9 +1244,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1445,9 +1445,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1457,6 +1454,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1496,7 +1496,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1565,9 +1565,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1643,9 +1640,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1667,9 +1661,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1715,9 +1706,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1730,9 +1718,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1742,6 +1727,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1766,9 +1754,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1829,12 +1814,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1892,19 +1877,19 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>treatment_agent</t>
+    <t>treatment agent</t>
   </si>
   <si>
     <t>(Optional) The name of the treatment agent used.</t>
   </si>
   <si>
-    <t>chemical_compound</t>
+    <t>chemical compound</t>
   </si>
   <si>
     <t>(Optional) A drug, solvent, chemical, etc., with a property that can be measured such as concentration (http://purl.obolibrary.org/obo/chebi_37577).</t>
@@ -1913,7 +1898,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
+    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
   </si>
 </sst>
 </file>
@@ -3545,16 +3530,16 @@
         <v>323</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="150" customHeight="1">
@@ -3646,16 +3631,16 @@
         <v>324</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -3676,7 +3661,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="I1:AD294"/>
+  <dimension ref="I1:AD289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5142,31 +5127,6 @@
         <v>613</v>
       </c>
     </row>
-    <row r="290" spans="30:30">
-      <c r="AD290" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="291" spans="30:30">
-      <c r="AD291" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="292" spans="30:30">
-      <c r="AD292" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="293" spans="30:30">
-      <c r="AD293" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="294" spans="30:30">
-      <c r="AD294" t="s">
-        <v>618</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000038/metadata_template_ERC000038.xlsx
+++ b/templates/ERC000038/metadata_template_ERC000038.xlsx
@@ -17,15 +17,15 @@
     <sheet name="cv_sample" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="aquacultureorigin">'cv_sample'!$I$1:$I$3</definedName>
+    <definedName name="aquacultureorigin">'cv_sample'!$K$1:$K$3</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AD$1:$AD$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AF$1:$AF$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="samplehealthstate">'cv_sample'!$O$1:$O$2</definedName>
+    <definedName name="samplehealthstate">'cv_sample'!$Q$1:$Q$2</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="626">
   <si>
     <t>alias</t>
   </si>
@@ -837,6 +837,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -3432,7 +3444,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3441,7 +3453,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3467,10 +3479,10 @@
         <v>276</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>285</v>
@@ -3485,10 +3497,10 @@
         <v>291</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>299</v>
@@ -3530,10 +3542,10 @@
         <v>323</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>614</v>
+        <v>325</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>616</v>
+        <v>327</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>618</v>
@@ -3541,8 +3553,14 @@
       <c r="AG1" s="1" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" ht="150" customHeight="1">
+      <c r="AH1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -3568,10 +3586,10 @@
         <v>277</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>286</v>
@@ -3586,10 +3604,10 @@
         <v>292</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>300</v>
@@ -3631,10 +3649,10 @@
         <v>324</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>615</v>
+        <v>326</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>617</v>
+        <v>328</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>619</v>
@@ -3642,16 +3660,22 @@
       <c r="AG2" s="2" t="s">
         <v>621</v>
       </c>
+      <c r="AH2" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>625</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K101">
       <formula1>aquacultureorigin</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q101">
       <formula1>samplehealthstate</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3:AD101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF3:AF101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
@@ -3661,1470 +3685,1470 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="I1:AD289"/>
+  <dimension ref="K1:AF289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="9:30">
-      <c r="I1" t="s">
-        <v>278</v>
-      </c>
-      <c r="O1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="2" spans="9:30">
-      <c r="I2" t="s">
-        <v>279</v>
-      </c>
-      <c r="O2" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="3" spans="9:30">
-      <c r="I3" t="s">
-        <v>280</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="4" spans="9:30">
-      <c r="AD4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="5" spans="9:30">
-      <c r="AD5" t="s">
+    <row r="1" spans="11:32">
+      <c r="K1" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AF1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="9:30">
-      <c r="AD6" t="s">
+    <row r="2" spans="11:32">
+      <c r="K2" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AF2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="9:30">
-      <c r="AD7" t="s">
+    <row r="3" spans="11:32">
+      <c r="K3" t="s">
+        <v>284</v>
+      </c>
+      <c r="AF3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="9:30">
-      <c r="AD8" t="s">
+    <row r="4" spans="11:32">
+      <c r="AF4" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="9" spans="9:30">
-      <c r="AD9" t="s">
+    <row r="5" spans="11:32">
+      <c r="AF5" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="9:30">
-      <c r="AD10" t="s">
+    <row r="6" spans="11:32">
+      <c r="AF6" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="11" spans="9:30">
-      <c r="AD11" t="s">
+    <row r="7" spans="11:32">
+      <c r="AF7" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="12" spans="9:30">
-      <c r="AD12" t="s">
+    <row r="8" spans="11:32">
+      <c r="AF8" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="13" spans="9:30">
-      <c r="AD13" t="s">
+    <row r="9" spans="11:32">
+      <c r="AF9" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="14" spans="9:30">
-      <c r="AD14" t="s">
+    <row r="10" spans="11:32">
+      <c r="AF10" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="9:30">
-      <c r="AD15" t="s">
+    <row r="11" spans="11:32">
+      <c r="AF11" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="16" spans="9:30">
-      <c r="AD16" t="s">
+    <row r="12" spans="11:32">
+      <c r="AF12" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="17" spans="30:30">
-      <c r="AD17" t="s">
+    <row r="13" spans="11:32">
+      <c r="AF13" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="30:30">
-      <c r="AD18" t="s">
+    <row r="14" spans="11:32">
+      <c r="AF14" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="30:30">
-      <c r="AD19" t="s">
+    <row r="15" spans="11:32">
+      <c r="AF15" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="30:30">
-      <c r="AD20" t="s">
+    <row r="16" spans="11:32">
+      <c r="AF16" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="30:30">
-      <c r="AD21" t="s">
+    <row r="17" spans="32:32">
+      <c r="AF17" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="30:30">
-      <c r="AD22" t="s">
+    <row r="18" spans="32:32">
+      <c r="AF18" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="30:30">
-      <c r="AD23" t="s">
+    <row r="19" spans="32:32">
+      <c r="AF19" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="30:30">
-      <c r="AD24" t="s">
+    <row r="20" spans="32:32">
+      <c r="AF20" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="30:30">
-      <c r="AD25" t="s">
+    <row r="21" spans="32:32">
+      <c r="AF21" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="30:30">
-      <c r="AD26" t="s">
+    <row r="22" spans="32:32">
+      <c r="AF22" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="27" spans="30:30">
-      <c r="AD27" t="s">
+    <row r="23" spans="32:32">
+      <c r="AF23" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="30:30">
-      <c r="AD28" t="s">
+    <row r="24" spans="32:32">
+      <c r="AF24" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="29" spans="30:30">
-      <c r="AD29" t="s">
+    <row r="25" spans="32:32">
+      <c r="AF25" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="30" spans="30:30">
-      <c r="AD30" t="s">
+    <row r="26" spans="32:32">
+      <c r="AF26" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="31" spans="30:30">
-      <c r="AD31" t="s">
+    <row r="27" spans="32:32">
+      <c r="AF27" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="32" spans="30:30">
-      <c r="AD32" t="s">
+    <row r="28" spans="32:32">
+      <c r="AF28" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="33" spans="30:30">
-      <c r="AD33" t="s">
+    <row r="29" spans="32:32">
+      <c r="AF29" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="34" spans="30:30">
-      <c r="AD34" t="s">
+    <row r="30" spans="32:32">
+      <c r="AF30" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="35" spans="30:30">
-      <c r="AD35" t="s">
+    <row r="31" spans="32:32">
+      <c r="AF31" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="36" spans="30:30">
-      <c r="AD36" t="s">
+    <row r="32" spans="32:32">
+      <c r="AF32" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="37" spans="30:30">
-      <c r="AD37" t="s">
+    <row r="33" spans="32:32">
+      <c r="AF33" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="38" spans="30:30">
-      <c r="AD38" t="s">
+    <row r="34" spans="32:32">
+      <c r="AF34" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="39" spans="30:30">
-      <c r="AD39" t="s">
+    <row r="35" spans="32:32">
+      <c r="AF35" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="40" spans="30:30">
-      <c r="AD40" t="s">
+    <row r="36" spans="32:32">
+      <c r="AF36" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="41" spans="30:30">
-      <c r="AD41" t="s">
+    <row r="37" spans="32:32">
+      <c r="AF37" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="42" spans="30:30">
-      <c r="AD42" t="s">
+    <row r="38" spans="32:32">
+      <c r="AF38" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="43" spans="30:30">
-      <c r="AD43" t="s">
+    <row r="39" spans="32:32">
+      <c r="AF39" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="44" spans="30:30">
-      <c r="AD44" t="s">
+    <row r="40" spans="32:32">
+      <c r="AF40" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="45" spans="30:30">
-      <c r="AD45" t="s">
+    <row r="41" spans="32:32">
+      <c r="AF41" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="46" spans="30:30">
-      <c r="AD46" t="s">
+    <row r="42" spans="32:32">
+      <c r="AF42" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="47" spans="30:30">
-      <c r="AD47" t="s">
+    <row r="43" spans="32:32">
+      <c r="AF43" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="48" spans="30:30">
-      <c r="AD48" t="s">
+    <row r="44" spans="32:32">
+      <c r="AF44" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="49" spans="30:30">
-      <c r="AD49" t="s">
+    <row r="45" spans="32:32">
+      <c r="AF45" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="50" spans="30:30">
-      <c r="AD50" t="s">
+    <row r="46" spans="32:32">
+      <c r="AF46" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="51" spans="30:30">
-      <c r="AD51" t="s">
+    <row r="47" spans="32:32">
+      <c r="AF47" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="52" spans="30:30">
-      <c r="AD52" t="s">
+    <row r="48" spans="32:32">
+      <c r="AF48" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="53" spans="30:30">
-      <c r="AD53" t="s">
+    <row r="49" spans="32:32">
+      <c r="AF49" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="54" spans="30:30">
-      <c r="AD54" t="s">
+    <row r="50" spans="32:32">
+      <c r="AF50" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="55" spans="30:30">
-      <c r="AD55" t="s">
+    <row r="51" spans="32:32">
+      <c r="AF51" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="56" spans="30:30">
-      <c r="AD56" t="s">
+    <row r="52" spans="32:32">
+      <c r="AF52" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="57" spans="30:30">
-      <c r="AD57" t="s">
+    <row r="53" spans="32:32">
+      <c r="AF53" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="58" spans="30:30">
-      <c r="AD58" t="s">
+    <row r="54" spans="32:32">
+      <c r="AF54" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="59" spans="30:30">
-      <c r="AD59" t="s">
+    <row r="55" spans="32:32">
+      <c r="AF55" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="60" spans="30:30">
-      <c r="AD60" t="s">
+    <row r="56" spans="32:32">
+      <c r="AF56" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="61" spans="30:30">
-      <c r="AD61" t="s">
+    <row r="57" spans="32:32">
+      <c r="AF57" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="62" spans="30:30">
-      <c r="AD62" t="s">
+    <row r="58" spans="32:32">
+      <c r="AF58" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="63" spans="30:30">
-      <c r="AD63" t="s">
+    <row r="59" spans="32:32">
+      <c r="AF59" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="64" spans="30:30">
-      <c r="AD64" t="s">
+    <row r="60" spans="32:32">
+      <c r="AF60" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="65" spans="30:30">
-      <c r="AD65" t="s">
+    <row r="61" spans="32:32">
+      <c r="AF61" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="66" spans="30:30">
-      <c r="AD66" t="s">
+    <row r="62" spans="32:32">
+      <c r="AF62" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="67" spans="30:30">
-      <c r="AD67" t="s">
+    <row r="63" spans="32:32">
+      <c r="AF63" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="68" spans="30:30">
-      <c r="AD68" t="s">
+    <row r="64" spans="32:32">
+      <c r="AF64" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="69" spans="30:30">
-      <c r="AD69" t="s">
+    <row r="65" spans="32:32">
+      <c r="AF65" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="70" spans="30:30">
-      <c r="AD70" t="s">
+    <row r="66" spans="32:32">
+      <c r="AF66" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="71" spans="30:30">
-      <c r="AD71" t="s">
+    <row r="67" spans="32:32">
+      <c r="AF67" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="72" spans="30:30">
-      <c r="AD72" t="s">
+    <row r="68" spans="32:32">
+      <c r="AF68" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="73" spans="30:30">
-      <c r="AD73" t="s">
+    <row r="69" spans="32:32">
+      <c r="AF69" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="74" spans="30:30">
-      <c r="AD74" t="s">
+    <row r="70" spans="32:32">
+      <c r="AF70" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="75" spans="30:30">
-      <c r="AD75" t="s">
+    <row r="71" spans="32:32">
+      <c r="AF71" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="76" spans="30:30">
-      <c r="AD76" t="s">
+    <row r="72" spans="32:32">
+      <c r="AF72" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="30:30">
-      <c r="AD77" t="s">
+    <row r="73" spans="32:32">
+      <c r="AF73" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="78" spans="30:30">
-      <c r="AD78" t="s">
+    <row r="74" spans="32:32">
+      <c r="AF74" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="79" spans="30:30">
-      <c r="AD79" t="s">
+    <row r="75" spans="32:32">
+      <c r="AF75" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="80" spans="30:30">
-      <c r="AD80" t="s">
+    <row r="76" spans="32:32">
+      <c r="AF76" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="81" spans="30:30">
-      <c r="AD81" t="s">
+    <row r="77" spans="32:32">
+      <c r="AF77" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="82" spans="30:30">
-      <c r="AD82" t="s">
+    <row r="78" spans="32:32">
+      <c r="AF78" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="83" spans="30:30">
-      <c r="AD83" t="s">
+    <row r="79" spans="32:32">
+      <c r="AF79" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="84" spans="30:30">
-      <c r="AD84" t="s">
+    <row r="80" spans="32:32">
+      <c r="AF80" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="85" spans="30:30">
-      <c r="AD85" t="s">
+    <row r="81" spans="32:32">
+      <c r="AF81" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="86" spans="30:30">
-      <c r="AD86" t="s">
+    <row r="82" spans="32:32">
+      <c r="AF82" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="87" spans="30:30">
-      <c r="AD87" t="s">
+    <row r="83" spans="32:32">
+      <c r="AF83" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="88" spans="30:30">
-      <c r="AD88" t="s">
+    <row r="84" spans="32:32">
+      <c r="AF84" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="89" spans="30:30">
-      <c r="AD89" t="s">
+    <row r="85" spans="32:32">
+      <c r="AF85" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="90" spans="30:30">
-      <c r="AD90" t="s">
+    <row r="86" spans="32:32">
+      <c r="AF86" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="91" spans="30:30">
-      <c r="AD91" t="s">
+    <row r="87" spans="32:32">
+      <c r="AF87" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="92" spans="30:30">
-      <c r="AD92" t="s">
+    <row r="88" spans="32:32">
+      <c r="AF88" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="93" spans="30:30">
-      <c r="AD93" t="s">
+    <row r="89" spans="32:32">
+      <c r="AF89" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="94" spans="30:30">
-      <c r="AD94" t="s">
+    <row r="90" spans="32:32">
+      <c r="AF90" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="95" spans="30:30">
-      <c r="AD95" t="s">
+    <row r="91" spans="32:32">
+      <c r="AF91" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="96" spans="30:30">
-      <c r="AD96" t="s">
+    <row r="92" spans="32:32">
+      <c r="AF92" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="97" spans="30:30">
-      <c r="AD97" t="s">
+    <row r="93" spans="32:32">
+      <c r="AF93" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="98" spans="30:30">
-      <c r="AD98" t="s">
+    <row r="94" spans="32:32">
+      <c r="AF94" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="99" spans="30:30">
-      <c r="AD99" t="s">
+    <row r="95" spans="32:32">
+      <c r="AF95" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="100" spans="30:30">
-      <c r="AD100" t="s">
+    <row r="96" spans="32:32">
+      <c r="AF96" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="101" spans="30:30">
-      <c r="AD101" t="s">
+    <row r="97" spans="32:32">
+      <c r="AF97" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="102" spans="30:30">
-      <c r="AD102" t="s">
+    <row r="98" spans="32:32">
+      <c r="AF98" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="103" spans="30:30">
-      <c r="AD103" t="s">
+    <row r="99" spans="32:32">
+      <c r="AF99" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="104" spans="30:30">
-      <c r="AD104" t="s">
+    <row r="100" spans="32:32">
+      <c r="AF100" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="105" spans="30:30">
-      <c r="AD105" t="s">
+    <row r="101" spans="32:32">
+      <c r="AF101" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="106" spans="30:30">
-      <c r="AD106" t="s">
+    <row r="102" spans="32:32">
+      <c r="AF102" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="107" spans="30:30">
-      <c r="AD107" t="s">
+    <row r="103" spans="32:32">
+      <c r="AF103" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="108" spans="30:30">
-      <c r="AD108" t="s">
+    <row r="104" spans="32:32">
+      <c r="AF104" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="109" spans="30:30">
-      <c r="AD109" t="s">
+    <row r="105" spans="32:32">
+      <c r="AF105" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="110" spans="30:30">
-      <c r="AD110" t="s">
+    <row r="106" spans="32:32">
+      <c r="AF106" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="111" spans="30:30">
-      <c r="AD111" t="s">
+    <row r="107" spans="32:32">
+      <c r="AF107" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="112" spans="30:30">
-      <c r="AD112" t="s">
+    <row r="108" spans="32:32">
+      <c r="AF108" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="113" spans="30:30">
-      <c r="AD113" t="s">
+    <row r="109" spans="32:32">
+      <c r="AF109" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="114" spans="30:30">
-      <c r="AD114" t="s">
+    <row r="110" spans="32:32">
+      <c r="AF110" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="115" spans="30:30">
-      <c r="AD115" t="s">
+    <row r="111" spans="32:32">
+      <c r="AF111" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="116" spans="30:30">
-      <c r="AD116" t="s">
+    <row r="112" spans="32:32">
+      <c r="AF112" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="117" spans="30:30">
-      <c r="AD117" t="s">
+    <row r="113" spans="32:32">
+      <c r="AF113" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="118" spans="30:30">
-      <c r="AD118" t="s">
+    <row r="114" spans="32:32">
+      <c r="AF114" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="119" spans="30:30">
-      <c r="AD119" t="s">
+    <row r="115" spans="32:32">
+      <c r="AF115" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="120" spans="30:30">
-      <c r="AD120" t="s">
+    <row r="116" spans="32:32">
+      <c r="AF116" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="121" spans="30:30">
-      <c r="AD121" t="s">
+    <row r="117" spans="32:32">
+      <c r="AF117" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="122" spans="30:30">
-      <c r="AD122" t="s">
+    <row r="118" spans="32:32">
+      <c r="AF118" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="123" spans="30:30">
-      <c r="AD123" t="s">
+    <row r="119" spans="32:32">
+      <c r="AF119" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="124" spans="30:30">
-      <c r="AD124" t="s">
+    <row r="120" spans="32:32">
+      <c r="AF120" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="125" spans="30:30">
-      <c r="AD125" t="s">
+    <row r="121" spans="32:32">
+      <c r="AF121" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="126" spans="30:30">
-      <c r="AD126" t="s">
+    <row r="122" spans="32:32">
+      <c r="AF122" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="127" spans="30:30">
-      <c r="AD127" t="s">
+    <row r="123" spans="32:32">
+      <c r="AF123" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="128" spans="30:30">
-      <c r="AD128" t="s">
+    <row r="124" spans="32:32">
+      <c r="AF124" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="129" spans="30:30">
-      <c r="AD129" t="s">
+    <row r="125" spans="32:32">
+      <c r="AF125" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="130" spans="30:30">
-      <c r="AD130" t="s">
+    <row r="126" spans="32:32">
+      <c r="AF126" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="131" spans="30:30">
-      <c r="AD131" t="s">
+    <row r="127" spans="32:32">
+      <c r="AF127" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="132" spans="30:30">
-      <c r="AD132" t="s">
+    <row r="128" spans="32:32">
+      <c r="AF128" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="133" spans="30:30">
-      <c r="AD133" t="s">
+    <row r="129" spans="32:32">
+      <c r="AF129" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="134" spans="30:30">
-      <c r="AD134" t="s">
+    <row r="130" spans="32:32">
+      <c r="AF130" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="135" spans="30:30">
-      <c r="AD135" t="s">
+    <row r="131" spans="32:32">
+      <c r="AF131" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="136" spans="30:30">
-      <c r="AD136" t="s">
+    <row r="132" spans="32:32">
+      <c r="AF132" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="137" spans="30:30">
-      <c r="AD137" t="s">
+    <row r="133" spans="32:32">
+      <c r="AF133" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="138" spans="30:30">
-      <c r="AD138" t="s">
+    <row r="134" spans="32:32">
+      <c r="AF134" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="139" spans="30:30">
-      <c r="AD139" t="s">
+    <row r="135" spans="32:32">
+      <c r="AF135" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="140" spans="30:30">
-      <c r="AD140" t="s">
+    <row r="136" spans="32:32">
+      <c r="AF136" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="141" spans="30:30">
-      <c r="AD141" t="s">
+    <row r="137" spans="32:32">
+      <c r="AF137" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="142" spans="30:30">
-      <c r="AD142" t="s">
+    <row r="138" spans="32:32">
+      <c r="AF138" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="143" spans="30:30">
-      <c r="AD143" t="s">
+    <row r="139" spans="32:32">
+      <c r="AF139" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="144" spans="30:30">
-      <c r="AD144" t="s">
+    <row r="140" spans="32:32">
+      <c r="AF140" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="145" spans="30:30">
-      <c r="AD145" t="s">
+    <row r="141" spans="32:32">
+      <c r="AF141" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="146" spans="30:30">
-      <c r="AD146" t="s">
+    <row r="142" spans="32:32">
+      <c r="AF142" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="147" spans="30:30">
-      <c r="AD147" t="s">
+    <row r="143" spans="32:32">
+      <c r="AF143" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="148" spans="30:30">
-      <c r="AD148" t="s">
+    <row r="144" spans="32:32">
+      <c r="AF144" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="149" spans="30:30">
-      <c r="AD149" t="s">
+    <row r="145" spans="32:32">
+      <c r="AF145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="150" spans="30:30">
-      <c r="AD150" t="s">
+    <row r="146" spans="32:32">
+      <c r="AF146" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="151" spans="30:30">
-      <c r="AD151" t="s">
+    <row r="147" spans="32:32">
+      <c r="AF147" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="152" spans="30:30">
-      <c r="AD152" t="s">
+    <row r="148" spans="32:32">
+      <c r="AF148" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="153" spans="30:30">
-      <c r="AD153" t="s">
+    <row r="149" spans="32:32">
+      <c r="AF149" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="154" spans="30:30">
-      <c r="AD154" t="s">
+    <row r="150" spans="32:32">
+      <c r="AF150" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="155" spans="30:30">
-      <c r="AD155" t="s">
+    <row r="151" spans="32:32">
+      <c r="AF151" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="156" spans="30:30">
-      <c r="AD156" t="s">
+    <row r="152" spans="32:32">
+      <c r="AF152" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="157" spans="30:30">
-      <c r="AD157" t="s">
+    <row r="153" spans="32:32">
+      <c r="AF153" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="158" spans="30:30">
-      <c r="AD158" t="s">
+    <row r="154" spans="32:32">
+      <c r="AF154" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="159" spans="30:30">
-      <c r="AD159" t="s">
+    <row r="155" spans="32:32">
+      <c r="AF155" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="160" spans="30:30">
-      <c r="AD160" t="s">
+    <row r="156" spans="32:32">
+      <c r="AF156" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="161" spans="30:30">
-      <c r="AD161" t="s">
+    <row r="157" spans="32:32">
+      <c r="AF157" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="162" spans="30:30">
-      <c r="AD162" t="s">
+    <row r="158" spans="32:32">
+      <c r="AF158" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="163" spans="30:30">
-      <c r="AD163" t="s">
+    <row r="159" spans="32:32">
+      <c r="AF159" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="164" spans="30:30">
-      <c r="AD164" t="s">
+    <row r="160" spans="32:32">
+      <c r="AF160" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="165" spans="30:30">
-      <c r="AD165" t="s">
+    <row r="161" spans="32:32">
+      <c r="AF161" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="166" spans="30:30">
-      <c r="AD166" t="s">
+    <row r="162" spans="32:32">
+      <c r="AF162" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="167" spans="30:30">
-      <c r="AD167" t="s">
+    <row r="163" spans="32:32">
+      <c r="AF163" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="168" spans="30:30">
-      <c r="AD168" t="s">
+    <row r="164" spans="32:32">
+      <c r="AF164" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="169" spans="30:30">
-      <c r="AD169" t="s">
+    <row r="165" spans="32:32">
+      <c r="AF165" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="170" spans="30:30">
-      <c r="AD170" t="s">
+    <row r="166" spans="32:32">
+      <c r="AF166" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="171" spans="30:30">
-      <c r="AD171" t="s">
+    <row r="167" spans="32:32">
+      <c r="AF167" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="172" spans="30:30">
-      <c r="AD172" t="s">
+    <row r="168" spans="32:32">
+      <c r="AF168" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="173" spans="30:30">
-      <c r="AD173" t="s">
+    <row r="169" spans="32:32">
+      <c r="AF169" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="174" spans="30:30">
-      <c r="AD174" t="s">
+    <row r="170" spans="32:32">
+      <c r="AF170" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="175" spans="30:30">
-      <c r="AD175" t="s">
+    <row r="171" spans="32:32">
+      <c r="AF171" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="176" spans="30:30">
-      <c r="AD176" t="s">
+    <row r="172" spans="32:32">
+      <c r="AF172" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="177" spans="30:30">
-      <c r="AD177" t="s">
+    <row r="173" spans="32:32">
+      <c r="AF173" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="178" spans="30:30">
-      <c r="AD178" t="s">
+    <row r="174" spans="32:32">
+      <c r="AF174" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="179" spans="30:30">
-      <c r="AD179" t="s">
+    <row r="175" spans="32:32">
+      <c r="AF175" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="180" spans="30:30">
-      <c r="AD180" t="s">
+    <row r="176" spans="32:32">
+      <c r="AF176" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="181" spans="30:30">
-      <c r="AD181" t="s">
+    <row r="177" spans="32:32">
+      <c r="AF177" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="182" spans="30:30">
-      <c r="AD182" t="s">
+    <row r="178" spans="32:32">
+      <c r="AF178" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="183" spans="30:30">
-      <c r="AD183" t="s">
+    <row r="179" spans="32:32">
+      <c r="AF179" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="184" spans="30:30">
-      <c r="AD184" t="s">
+    <row r="180" spans="32:32">
+      <c r="AF180" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="185" spans="30:30">
-      <c r="AD185" t="s">
+    <row r="181" spans="32:32">
+      <c r="AF181" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="186" spans="30:30">
-      <c r="AD186" t="s">
+    <row r="182" spans="32:32">
+      <c r="AF182" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="187" spans="30:30">
-      <c r="AD187" t="s">
+    <row r="183" spans="32:32">
+      <c r="AF183" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="188" spans="30:30">
-      <c r="AD188" t="s">
+    <row r="184" spans="32:32">
+      <c r="AF184" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="189" spans="30:30">
-      <c r="AD189" t="s">
+    <row r="185" spans="32:32">
+      <c r="AF185" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="190" spans="30:30">
-      <c r="AD190" t="s">
+    <row r="186" spans="32:32">
+      <c r="AF186" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="191" spans="30:30">
-      <c r="AD191" t="s">
+    <row r="187" spans="32:32">
+      <c r="AF187" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="192" spans="30:30">
-      <c r="AD192" t="s">
+    <row r="188" spans="32:32">
+      <c r="AF188" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="193" spans="30:30">
-      <c r="AD193" t="s">
+    <row r="189" spans="32:32">
+      <c r="AF189" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="194" spans="30:30">
-      <c r="AD194" t="s">
+    <row r="190" spans="32:32">
+      <c r="AF190" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="195" spans="30:30">
-      <c r="AD195" t="s">
+    <row r="191" spans="32:32">
+      <c r="AF191" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="196" spans="30:30">
-      <c r="AD196" t="s">
+    <row r="192" spans="32:32">
+      <c r="AF192" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="197" spans="30:30">
-      <c r="AD197" t="s">
+    <row r="193" spans="32:32">
+      <c r="AF193" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="198" spans="30:30">
-      <c r="AD198" t="s">
+    <row r="194" spans="32:32">
+      <c r="AF194" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="199" spans="30:30">
-      <c r="AD199" t="s">
+    <row r="195" spans="32:32">
+      <c r="AF195" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="200" spans="30:30">
-      <c r="AD200" t="s">
+    <row r="196" spans="32:32">
+      <c r="AF196" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="201" spans="30:30">
-      <c r="AD201" t="s">
+    <row r="197" spans="32:32">
+      <c r="AF197" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="202" spans="30:30">
-      <c r="AD202" t="s">
+    <row r="198" spans="32:32">
+      <c r="AF198" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="203" spans="30:30">
-      <c r="AD203" t="s">
+    <row r="199" spans="32:32">
+      <c r="AF199" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="204" spans="30:30">
-      <c r="AD204" t="s">
+    <row r="200" spans="32:32">
+      <c r="AF200" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="205" spans="30:30">
-      <c r="AD205" t="s">
+    <row r="201" spans="32:32">
+      <c r="AF201" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="206" spans="30:30">
-      <c r="AD206" t="s">
+    <row r="202" spans="32:32">
+      <c r="AF202" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="207" spans="30:30">
-      <c r="AD207" t="s">
+    <row r="203" spans="32:32">
+      <c r="AF203" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="208" spans="30:30">
-      <c r="AD208" t="s">
+    <row r="204" spans="32:32">
+      <c r="AF204" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="209" spans="30:30">
-      <c r="AD209" t="s">
+    <row r="205" spans="32:32">
+      <c r="AF205" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="210" spans="30:30">
-      <c r="AD210" t="s">
+    <row r="206" spans="32:32">
+      <c r="AF206" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="211" spans="30:30">
-      <c r="AD211" t="s">
+    <row r="207" spans="32:32">
+      <c r="AF207" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="212" spans="30:30">
-      <c r="AD212" t="s">
+    <row r="208" spans="32:32">
+      <c r="AF208" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="213" spans="30:30">
-      <c r="AD213" t="s">
+    <row r="209" spans="32:32">
+      <c r="AF209" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="214" spans="30:30">
-      <c r="AD214" t="s">
+    <row r="210" spans="32:32">
+      <c r="AF210" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="215" spans="30:30">
-      <c r="AD215" t="s">
+    <row r="211" spans="32:32">
+      <c r="AF211" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="216" spans="30:30">
-      <c r="AD216" t="s">
+    <row r="212" spans="32:32">
+      <c r="AF212" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="217" spans="30:30">
-      <c r="AD217" t="s">
+    <row r="213" spans="32:32">
+      <c r="AF213" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="218" spans="30:30">
-      <c r="AD218" t="s">
+    <row r="214" spans="32:32">
+      <c r="AF214" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="219" spans="30:30">
-      <c r="AD219" t="s">
+    <row r="215" spans="32:32">
+      <c r="AF215" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="220" spans="30:30">
-      <c r="AD220" t="s">
+    <row r="216" spans="32:32">
+      <c r="AF216" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="221" spans="30:30">
-      <c r="AD221" t="s">
+    <row r="217" spans="32:32">
+      <c r="AF217" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="222" spans="30:30">
-      <c r="AD222" t="s">
+    <row r="218" spans="32:32">
+      <c r="AF218" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="223" spans="30:30">
-      <c r="AD223" t="s">
+    <row r="219" spans="32:32">
+      <c r="AF219" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="224" spans="30:30">
-      <c r="AD224" t="s">
+    <row r="220" spans="32:32">
+      <c r="AF220" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="225" spans="30:30">
-      <c r="AD225" t="s">
+    <row r="221" spans="32:32">
+      <c r="AF221" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="226" spans="30:30">
-      <c r="AD226" t="s">
+    <row r="222" spans="32:32">
+      <c r="AF222" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="227" spans="30:30">
-      <c r="AD227" t="s">
+    <row r="223" spans="32:32">
+      <c r="AF223" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="228" spans="30:30">
-      <c r="AD228" t="s">
+    <row r="224" spans="32:32">
+      <c r="AF224" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="229" spans="30:30">
-      <c r="AD229" t="s">
+    <row r="225" spans="32:32">
+      <c r="AF225" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="230" spans="30:30">
-      <c r="AD230" t="s">
+    <row r="226" spans="32:32">
+      <c r="AF226" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="231" spans="30:30">
-      <c r="AD231" t="s">
+    <row r="227" spans="32:32">
+      <c r="AF227" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="232" spans="30:30">
-      <c r="AD232" t="s">
+    <row r="228" spans="32:32">
+      <c r="AF228" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="233" spans="30:30">
-      <c r="AD233" t="s">
+    <row r="229" spans="32:32">
+      <c r="AF229" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="234" spans="30:30">
-      <c r="AD234" t="s">
+    <row r="230" spans="32:32">
+      <c r="AF230" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="235" spans="30:30">
-      <c r="AD235" t="s">
+    <row r="231" spans="32:32">
+      <c r="AF231" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="236" spans="30:30">
-      <c r="AD236" t="s">
+    <row r="232" spans="32:32">
+      <c r="AF232" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="237" spans="30:30">
-      <c r="AD237" t="s">
+    <row r="233" spans="32:32">
+      <c r="AF233" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="238" spans="30:30">
-      <c r="AD238" t="s">
+    <row r="234" spans="32:32">
+      <c r="AF234" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="239" spans="30:30">
-      <c r="AD239" t="s">
+    <row r="235" spans="32:32">
+      <c r="AF235" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="240" spans="30:30">
-      <c r="AD240" t="s">
+    <row r="236" spans="32:32">
+      <c r="AF236" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="241" spans="30:30">
-      <c r="AD241" t="s">
+    <row r="237" spans="32:32">
+      <c r="AF237" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="242" spans="30:30">
-      <c r="AD242" t="s">
+    <row r="238" spans="32:32">
+      <c r="AF238" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="243" spans="30:30">
-      <c r="AD243" t="s">
+    <row r="239" spans="32:32">
+      <c r="AF239" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="244" spans="30:30">
-      <c r="AD244" t="s">
+    <row r="240" spans="32:32">
+      <c r="AF240" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="245" spans="30:30">
-      <c r="AD245" t="s">
+    <row r="241" spans="32:32">
+      <c r="AF241" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="246" spans="30:30">
-      <c r="AD246" t="s">
+    <row r="242" spans="32:32">
+      <c r="AF242" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="247" spans="30:30">
-      <c r="AD247" t="s">
+    <row r="243" spans="32:32">
+      <c r="AF243" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="248" spans="30:30">
-      <c r="AD248" t="s">
+    <row r="244" spans="32:32">
+      <c r="AF244" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="249" spans="30:30">
-      <c r="AD249" t="s">
+    <row r="245" spans="32:32">
+      <c r="AF245" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="250" spans="30:30">
-      <c r="AD250" t="s">
+    <row r="246" spans="32:32">
+      <c r="AF246" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="251" spans="30:30">
-      <c r="AD251" t="s">
+    <row r="247" spans="32:32">
+      <c r="AF247" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="252" spans="30:30">
-      <c r="AD252" t="s">
+    <row r="248" spans="32:32">
+      <c r="AF248" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="253" spans="30:30">
-      <c r="AD253" t="s">
+    <row r="249" spans="32:32">
+      <c r="AF249" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="254" spans="30:30">
-      <c r="AD254" t="s">
+    <row r="250" spans="32:32">
+      <c r="AF250" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="255" spans="30:30">
-      <c r="AD255" t="s">
+    <row r="251" spans="32:32">
+      <c r="AF251" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="256" spans="30:30">
-      <c r="AD256" t="s">
+    <row r="252" spans="32:32">
+      <c r="AF252" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="257" spans="30:30">
-      <c r="AD257" t="s">
+    <row r="253" spans="32:32">
+      <c r="AF253" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="258" spans="30:30">
-      <c r="AD258" t="s">
+    <row r="254" spans="32:32">
+      <c r="AF254" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="259" spans="30:30">
-      <c r="AD259" t="s">
+    <row r="255" spans="32:32">
+      <c r="AF255" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="260" spans="30:30">
-      <c r="AD260" t="s">
+    <row r="256" spans="32:32">
+      <c r="AF256" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="261" spans="30:30">
-      <c r="AD261" t="s">
+    <row r="257" spans="32:32">
+      <c r="AF257" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="262" spans="30:30">
-      <c r="AD262" t="s">
+    <row r="258" spans="32:32">
+      <c r="AF258" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="263" spans="30:30">
-      <c r="AD263" t="s">
+    <row r="259" spans="32:32">
+      <c r="AF259" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="264" spans="30:30">
-      <c r="AD264" t="s">
+    <row r="260" spans="32:32">
+      <c r="AF260" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="265" spans="30:30">
-      <c r="AD265" t="s">
+    <row r="261" spans="32:32">
+      <c r="AF261" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="266" spans="30:30">
-      <c r="AD266" t="s">
+    <row r="262" spans="32:32">
+      <c r="AF262" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="267" spans="30:30">
-      <c r="AD267" t="s">
+    <row r="263" spans="32:32">
+      <c r="AF263" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="268" spans="30:30">
-      <c r="AD268" t="s">
+    <row r="264" spans="32:32">
+      <c r="AF264" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="269" spans="30:30">
-      <c r="AD269" t="s">
+    <row r="265" spans="32:32">
+      <c r="AF265" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="270" spans="30:30">
-      <c r="AD270" t="s">
+    <row r="266" spans="32:32">
+      <c r="AF266" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="271" spans="30:30">
-      <c r="AD271" t="s">
+    <row r="267" spans="32:32">
+      <c r="AF267" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="272" spans="30:30">
-      <c r="AD272" t="s">
+    <row r="268" spans="32:32">
+      <c r="AF268" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="273" spans="30:30">
-      <c r="AD273" t="s">
+    <row r="269" spans="32:32">
+      <c r="AF269" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="274" spans="30:30">
-      <c r="AD274" t="s">
+    <row r="270" spans="32:32">
+      <c r="AF270" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="275" spans="30:30">
-      <c r="AD275" t="s">
+    <row r="271" spans="32:32">
+      <c r="AF271" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="276" spans="30:30">
-      <c r="AD276" t="s">
+    <row r="272" spans="32:32">
+      <c r="AF272" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="277" spans="30:30">
-      <c r="AD277" t="s">
+    <row r="273" spans="32:32">
+      <c r="AF273" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="278" spans="30:30">
-      <c r="AD278" t="s">
+    <row r="274" spans="32:32">
+      <c r="AF274" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="279" spans="30:30">
-      <c r="AD279" t="s">
+    <row r="275" spans="32:32">
+      <c r="AF275" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="280" spans="30:30">
-      <c r="AD280" t="s">
+    <row r="276" spans="32:32">
+      <c r="AF276" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="281" spans="30:30">
-      <c r="AD281" t="s">
+    <row r="277" spans="32:32">
+      <c r="AF277" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="282" spans="30:30">
-      <c r="AD282" t="s">
+    <row r="278" spans="32:32">
+      <c r="AF278" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="283" spans="30:30">
-      <c r="AD283" t="s">
+    <row r="279" spans="32:32">
+      <c r="AF279" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="284" spans="30:30">
-      <c r="AD284" t="s">
+    <row r="280" spans="32:32">
+      <c r="AF280" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="285" spans="30:30">
-      <c r="AD285" t="s">
+    <row r="281" spans="32:32">
+      <c r="AF281" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="286" spans="30:30">
-      <c r="AD286" t="s">
+    <row r="282" spans="32:32">
+      <c r="AF282" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="287" spans="30:30">
-      <c r="AD287" t="s">
+    <row r="283" spans="32:32">
+      <c r="AF283" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="288" spans="30:30">
-      <c r="AD288" t="s">
+    <row r="284" spans="32:32">
+      <c r="AF284" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="289" spans="30:30">
-      <c r="AD289" t="s">
+    <row r="285" spans="32:32">
+      <c r="AF285" t="s">
         <v>613</v>
+      </c>
+    </row>
+    <row r="286" spans="32:32">
+      <c r="AF286" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="287" spans="32:32">
+      <c r="AF287" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="288" spans="32:32">
+      <c r="AF288" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="289" spans="32:32">
+      <c r="AF289" t="s">
+        <v>617</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000038/metadata_template_ERC000038.xlsx
+++ b/templates/ERC000038/metadata_template_ERC000038.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="aquacultureorigin">'cv_sample'!$K$1:$K$3</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AF$1:$AF$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AF$1:$AF$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="631">
   <si>
     <t>alias</t>
   </si>
@@ -1019,7 +1019,7 @@
     <t>toxin burden</t>
   </si>
   <si>
-    <t>(Recommended) Concentration of toxins in the organism at the time of sampling (Units: mg)</t>
+    <t>(Recommended) Concentration of toxins in the organism at the time of sampling (Units: g, mg, kg)</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -1235,9 +1235,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1256,6 +1253,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1457,6 +1457,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1466,9 +1469,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1508,7 +1508,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1577,6 +1577,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1652,6 +1655,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1673,6 +1679,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1718,6 +1727,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1730,6 +1742,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1739,9 +1754,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1766,6 +1778,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1826,12 +1841,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1910,7 +1925,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm, m)</t>
   </si>
 </sst>
 </file>
@@ -3548,16 +3563,16 @@
         <v>327</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="150" customHeight="1">
@@ -3655,16 +3670,16 @@
         <v>328</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -3685,7 +3700,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="K1:AF289"/>
+  <dimension ref="K1:AF294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5151,6 +5166,31 @@
         <v>617</v>
       </c>
     </row>
+    <row r="290" spans="32:32">
+      <c r="AF290" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="291" spans="32:32">
+      <c r="AF291" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="292" spans="32:32">
+      <c r="AF292" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="293" spans="32:32">
+      <c r="AF293" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="294" spans="32:32">
+      <c r="AF294" t="s">
+        <v>622</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000038/metadata_template_ERC000038.xlsx
+++ b/templates/ERC000038/metadata_template_ERC000038.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="aquacultureorigin">'cv_sample'!$K$1:$K$3</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AF$1:$AF$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AF$1:$AF$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="631">
   <si>
     <t>alias</t>
   </si>
@@ -1019,7 +1019,7 @@
     <t>toxin burden</t>
   </si>
   <si>
-    <t>(Recommended) Concentration of toxins in the organism at the time of sampling (Units: mg)</t>
+    <t>(Recommended) Concentration of toxins in the organism at the time of sampling (Units: kg)</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -1235,9 +1235,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1256,6 +1253,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1457,6 +1457,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1466,9 +1469,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1508,7 +1508,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1577,6 +1577,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1652,6 +1655,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1673,6 +1679,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1718,6 +1727,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1730,6 +1742,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1739,9 +1754,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1766,6 +1778,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1826,12 +1841,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1910,7 +1925,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
 </sst>
 </file>
@@ -3548,16 +3563,16 @@
         <v>327</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="150" customHeight="1">
@@ -3655,16 +3670,16 @@
         <v>328</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -3685,7 +3700,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="K1:AF289"/>
+  <dimension ref="K1:AF294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5151,6 +5166,31 @@
         <v>617</v>
       </c>
     </row>
+    <row r="290" spans="32:32">
+      <c r="AF290" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="291" spans="32:32">
+      <c r="AF291" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="292" spans="32:32">
+      <c r="AF292" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="293" spans="32:32">
+      <c r="AF293" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="294" spans="32:32">
+      <c r="AF294" t="s">
+        <v>622</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
